--- a/Data Sources/Energy Bills/ElectricityAverageBill.xlsx
+++ b/Data Sources/Energy Bills/ElectricityAverageBill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp.beis.gov.uk\u\Decc-UniDrv\Statistics\Prices Team\Quarterly Prices Publication QEP\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\ScottishEnergyStatsProcessing\Data Sources\Energy Bills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067CFE23-C127-4A62-91F5-16E347171D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039DF85D-20A8-4BFC-A0FC-7BCB2E251CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="1430" windowWidth="6380" windowHeight="4780" tabRatio="811" firstSheet="2" activeTab="2" xr2:uid="{9CD1B9F4-43FF-442D-807C-A4C96DC2797C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="811" firstSheet="2" activeTab="4" xr2:uid="{9CD1B9F4-43FF-442D-807C-A4C96DC2797C}"/>
   </bookViews>
   <sheets>
     <sheet name="calc_new" sheetId="16" state="hidden" r:id="rId1"/>
@@ -42,14 +42,12 @@
     <definedName name="t25Q2">#REF!</definedName>
     <definedName name="table_25_Q2">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -5559,20 +5557,20 @@
       <selection activeCell="O15" sqref="O15:O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="6.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.36328125" customWidth="1"/>
-    <col min="4" max="4" width="8.08984375" customWidth="1"/>
-    <col min="5" max="6" width="8.36328125" customWidth="1"/>
-    <col min="7" max="7" width="8.08984375" customWidth="1"/>
-    <col min="8" max="14" width="8.36328125" customWidth="1"/>
-    <col min="17" max="17" width="8.36328125" customWidth="1"/>
-    <col min="18" max="18" width="8.08984375" customWidth="1"/>
-    <col min="19" max="20" width="8.36328125" customWidth="1"/>
-    <col min="21" max="21" width="8.08984375" customWidth="1"/>
-    <col min="22" max="28" width="8.36328125" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" customWidth="1"/>
+    <col min="5" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" customWidth="1"/>
+    <col min="8" max="14" width="8.33203125" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" customWidth="1"/>
+    <col min="18" max="18" width="8.109375" customWidth="1"/>
+    <col min="19" max="20" width="8.33203125" customWidth="1"/>
+    <col min="21" max="21" width="8.109375" customWidth="1"/>
+    <col min="22" max="28" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="23.25" customHeight="1">
@@ -5594,12 +5592,12 @@
       <c r="N1" s="167"/>
       <c r="P1" s="29"/>
     </row>
-    <row r="2" spans="1:28" ht="15.5">
+    <row r="2" spans="1:28" ht="15">
       <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="13" thickBot="1">
+    <row r="3" spans="1:28" ht="13.8" thickBot="1">
       <c r="A3" s="1"/>
       <c r="C3" t="s">
         <v>18</v>
@@ -5616,7 +5614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="4" customFormat="1" ht="14" thickTop="1">
+    <row r="4" spans="1:28" s="4" customFormat="1" ht="14.4" thickTop="1">
       <c r="B4" s="13"/>
       <c r="C4" s="275" t="s">
         <v>11</v>
@@ -5657,7 +5655,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="4" customFormat="1" ht="23">
+    <row r="5" spans="1:28" s="4" customFormat="1" ht="22.8">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
         <v>0</v>
@@ -5732,7 +5730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="4" customFormat="1" ht="11.5">
+    <row r="6" spans="1:28" s="4" customFormat="1" ht="12">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -6149,7 +6147,7 @@
         <v>814.67053117042678</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="4" customFormat="1" ht="11.5">
+    <row r="12" spans="1:28" s="4" customFormat="1" ht="12">
       <c r="A12" s="57" t="s">
         <v>3</v>
       </c>
@@ -6253,7 +6251,7 @@
         <v>77.641328460708905</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="4" customFormat="1" ht="11.5">
+    <row r="13" spans="1:28" s="4" customFormat="1" ht="11.4">
       <c r="A13" s="26"/>
       <c r="B13" s="10"/>
       <c r="C13" s="18">
@@ -6355,7 +6353,7 @@
         <v>10.534362570066071</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="4" customFormat="1" ht="13.5">
+    <row r="14" spans="1:28" s="4" customFormat="1" ht="13.8">
       <c r="A14" s="8" t="s">
         <v>10</v>
       </c>
@@ -6379,7 +6377,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="4" customFormat="1" ht="11.5">
+    <row r="15" spans="1:28" s="4" customFormat="1" ht="12">
       <c r="A15" s="8"/>
       <c r="B15" s="16">
         <v>2017</v>
@@ -6484,7 +6482,7 @@
         <v>528.22102303008887</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="4" customFormat="1" ht="11.5">
+    <row r="16" spans="1:28" s="4" customFormat="1" ht="12">
       <c r="A16" s="8"/>
       <c r="B16" s="16">
         <v>2018</v>
@@ -6589,7 +6587,7 @@
         <v>571.90700743714785</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="4" customFormat="1" ht="11.5">
+    <row r="17" spans="1:29" s="4" customFormat="1" ht="12">
       <c r="A17" s="8"/>
       <c r="B17" s="16">
         <v>2019</v>
@@ -6694,7 +6692,7 @@
         <v>618.21949045536803</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="4" customFormat="1" ht="11.5">
+    <row r="18" spans="1:29" s="4" customFormat="1" ht="12">
       <c r="A18" s="8"/>
       <c r="B18" s="16">
         <v>2020</v>
@@ -6799,7 +6797,7 @@
         <v>595.05190587045206</v>
       </c>
     </row>
-    <row r="19" spans="1:29" s="4" customFormat="1" ht="11.5">
+    <row r="19" spans="1:29" s="4" customFormat="1" ht="12">
       <c r="A19" s="8"/>
       <c r="B19" s="16">
         <v>2021</v>
@@ -7142,7 +7140,7 @@
       <c r="AB22" s="17"/>
       <c r="AC22"/>
     </row>
-    <row r="23" spans="1:29" ht="13">
+    <row r="23" spans="1:29">
       <c r="A23" s="3"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -7194,18 +7192,18 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="11.7265625" customWidth="1"/>
-    <col min="6" max="6" width="2.7265625" customWidth="1"/>
-    <col min="7" max="9" width="11.7265625" customWidth="1"/>
-    <col min="10" max="10" width="2.7265625" customWidth="1"/>
-    <col min="11" max="13" width="11.7265625" customWidth="1"/>
-    <col min="14" max="14" width="2.7265625" customWidth="1"/>
-    <col min="15" max="17" width="11.7265625" customWidth="1"/>
-    <col min="18" max="30" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="2.77734375" customWidth="1"/>
+    <col min="7" max="9" width="11.77734375" customWidth="1"/>
+    <col min="10" max="10" width="2.77734375" customWidth="1"/>
+    <col min="11" max="13" width="11.77734375" customWidth="1"/>
+    <col min="14" max="14" width="2.77734375" customWidth="1"/>
+    <col min="15" max="17" width="11.77734375" customWidth="1"/>
+    <col min="18" max="30" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="107" customFormat="1" ht="18" customHeight="1">
@@ -7249,7 +7247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="109" customFormat="1" ht="16" customHeight="1" thickTop="1">
+    <row r="4" spans="1:17" s="109" customFormat="1" ht="16.05" customHeight="1" thickTop="1">
       <c r="B4" s="110"/>
       <c r="C4" s="279" t="s">
         <v>15</v>
@@ -11128,18 +11126,18 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="11.7265625" customWidth="1"/>
-    <col min="6" max="6" width="2.7265625" customWidth="1"/>
-    <col min="7" max="9" width="11.7265625" customWidth="1"/>
-    <col min="10" max="10" width="2.7265625" customWidth="1"/>
-    <col min="11" max="13" width="11.7265625" customWidth="1"/>
-    <col min="14" max="14" width="2.7265625" customWidth="1"/>
-    <col min="15" max="17" width="11.7265625" customWidth="1"/>
-    <col min="18" max="18" width="8.81640625" style="50" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="2.77734375" customWidth="1"/>
+    <col min="7" max="9" width="11.77734375" customWidth="1"/>
+    <col min="10" max="10" width="2.77734375" customWidth="1"/>
+    <col min="11" max="13" width="11.77734375" customWidth="1"/>
+    <col min="14" max="14" width="2.77734375" customWidth="1"/>
+    <col min="15" max="17" width="11.77734375" customWidth="1"/>
+    <col min="18" max="18" width="8.77734375" style="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
@@ -11208,7 +11206,7 @@
       </c>
       <c r="R3" s="135"/>
     </row>
-    <row r="4" spans="1:18" ht="16" customHeight="1" thickTop="1">
+    <row r="4" spans="1:18" ht="16.05" customHeight="1" thickTop="1">
       <c r="A4" s="109"/>
       <c r="B4" s="110"/>
       <c r="C4" s="279" t="s">
@@ -13233,10 +13231,10 @@
     <row r="70" spans="14:14">
       <c r="N70" s="128"/>
     </row>
-    <row r="71" spans="14:14" ht="13" thickBot="1">
+    <row r="71" spans="14:14" ht="13.8" thickBot="1">
       <c r="N71" s="134"/>
     </row>
-    <row r="72" spans="14:14" ht="13" thickTop="1">
+    <row r="72" spans="14:14" ht="13.8" thickTop="1">
       <c r="N72" s="130"/>
     </row>
     <row r="73" spans="14:14">
@@ -13298,20 +13296,20 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="4" style="36" customWidth="1"/>
-    <col min="2" max="2" width="6.54296875" style="64" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" style="64" customWidth="1"/>
     <col min="3" max="4" width="8" style="36" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" style="36" customWidth="1"/>
-    <col min="6" max="6" width="1.36328125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" style="36" customWidth="1"/>
+    <col min="6" max="6" width="1.33203125" style="36" customWidth="1"/>
     <col min="7" max="9" width="8" style="36" customWidth="1"/>
-    <col min="10" max="10" width="1.36328125" style="36" customWidth="1"/>
+    <col min="10" max="10" width="1.33203125" style="36" customWidth="1"/>
     <col min="11" max="11" width="8" style="36" customWidth="1"/>
-    <col min="12" max="12" width="8.08984375" style="36" customWidth="1"/>
-    <col min="13" max="13" width="7.81640625" style="36" customWidth="1"/>
-    <col min="14" max="14" width="0.81640625" style="36" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.08984375" style="36"/>
+    <col min="12" max="12" width="8.109375" style="36" customWidth="1"/>
+    <col min="13" max="13" width="7.77734375" style="36" customWidth="1"/>
+    <col min="14" max="14" width="0.77734375" style="36" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33.75" customHeight="1">
@@ -13346,7 +13344,7 @@
       <c r="L2" s="62"/>
       <c r="M2" s="62"/>
     </row>
-    <row r="3" spans="1:25" ht="13" thickBot="1">
+    <row r="3" spans="1:25" ht="13.8" thickBot="1">
       <c r="A3" s="63"/>
       <c r="E3" s="63"/>
       <c r="F3" s="63"/>
@@ -13358,7 +13356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="37" customFormat="1" ht="14" thickTop="1">
+    <row r="4" spans="1:25" s="37" customFormat="1" ht="14.4" thickTop="1">
       <c r="B4" s="66"/>
       <c r="C4" s="287" t="s">
         <v>15</v>
@@ -13378,7 +13376,7 @@
       <c r="L4" s="287"/>
       <c r="M4" s="287"/>
     </row>
-    <row r="5" spans="1:25" s="37" customFormat="1" ht="23">
+    <row r="5" spans="1:25" s="37" customFormat="1" ht="22.8">
       <c r="A5" s="68"/>
       <c r="B5" s="69"/>
       <c r="C5" s="70" t="s">
@@ -13411,7 +13409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="37" customFormat="1" ht="11.5">
+    <row r="6" spans="1:25" s="37" customFormat="1" ht="12">
       <c r="A6" s="72" t="s">
         <v>5</v>
       </c>
@@ -14149,7 +14147,7 @@
       <c r="Z24" s="81"/>
       <c r="AA24" s="81"/>
     </row>
-    <row r="25" spans="1:27" s="37" customFormat="1" ht="11.5">
+    <row r="25" spans="1:27" s="37" customFormat="1" ht="12">
       <c r="A25" s="82" t="s">
         <v>3</v>
       </c>
@@ -14169,7 +14167,7 @@
       <c r="R25" s="77"/>
       <c r="S25" s="77"/>
     </row>
-    <row r="26" spans="1:27" s="37" customFormat="1" ht="11.5">
+    <row r="26" spans="1:27" s="37" customFormat="1" ht="11.4">
       <c r="A26" s="68"/>
       <c r="B26" s="69" t="s">
         <v>27</v>
@@ -14207,7 +14205,7 @@
       <c r="R26" s="77"/>
       <c r="S26" s="77"/>
     </row>
-    <row r="27" spans="1:27" s="37" customFormat="1" ht="13.5">
+    <row r="27" spans="1:27" s="37" customFormat="1" ht="13.8">
       <c r="A27" s="72" t="s">
         <v>10</v>
       </c>
@@ -14868,7 +14866,7 @@
       <c r="Z45" s="81"/>
       <c r="AA45" s="81"/>
     </row>
-    <row r="46" spans="1:27" s="37" customFormat="1" ht="11.5">
+    <row r="46" spans="1:27" s="37" customFormat="1" ht="12">
       <c r="A46" s="82" t="s">
         <v>3</v>
       </c>
@@ -14920,7 +14918,7 @@
         <v>-4.4000000000000004</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="13.5" thickTop="1">
+    <row r="48" spans="1:27" ht="13.8" thickTop="1">
       <c r="A48" s="38"/>
       <c r="C48" s="64"/>
       <c r="D48" s="64"/>
@@ -14964,18 +14962,18 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="6.54296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" style="2" customWidth="1"/>
     <col min="3" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" customWidth="1"/>
-    <col min="6" max="6" width="1.36328125" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" customWidth="1"/>
+    <col min="6" max="6" width="1.33203125" customWidth="1"/>
     <col min="7" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="1.36328125" customWidth="1"/>
-    <col min="11" max="13" width="8.08984375" customWidth="1"/>
-    <col min="14" max="14" width="7.36328125" style="50" customWidth="1"/>
-    <col min="15" max="25" width="9.08984375" style="50" customWidth="1"/>
+    <col min="10" max="10" width="1.33203125" customWidth="1"/>
+    <col min="11" max="13" width="8.109375" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" style="50" customWidth="1"/>
+    <col min="15" max="25" width="9.109375" style="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="32.25" customHeight="1">
@@ -14995,10 +14993,10 @@
       <c r="L1" s="277"/>
       <c r="M1" s="277"/>
     </row>
-    <row r="2" spans="1:28" ht="15.5">
+    <row r="2" spans="1:28" ht="15">
       <c r="A2" s="15"/>
     </row>
-    <row r="3" spans="1:28" ht="13" thickBot="1">
+    <row r="3" spans="1:28" ht="13.8" thickBot="1">
       <c r="A3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -15010,7 +15008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="4" customFormat="1" ht="12" thickTop="1">
+    <row r="4" spans="1:28" s="4" customFormat="1" ht="12.6" thickTop="1">
       <c r="B4" s="13"/>
       <c r="C4" s="275" t="s">
         <v>15</v>
@@ -15042,7 +15040,7 @@
       <c r="X4" s="51"/>
       <c r="Y4" s="51"/>
     </row>
-    <row r="5" spans="1:28" s="4" customFormat="1" ht="23">
+    <row r="5" spans="1:28" s="4" customFormat="1" ht="22.8">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="6" t="s">
@@ -15116,7 +15114,7 @@
       <c r="X6" s="51"/>
       <c r="Y6" s="51"/>
     </row>
-    <row r="7" spans="1:28" s="4" customFormat="1" ht="11.5">
+    <row r="7" spans="1:28" s="4" customFormat="1" ht="12">
       <c r="A7" s="8"/>
       <c r="B7" s="48">
         <v>2004</v>
@@ -15163,7 +15161,7 @@
       <c r="X7" s="51"/>
       <c r="Y7" s="51"/>
     </row>
-    <row r="8" spans="1:28" s="4" customFormat="1" ht="11.5">
+    <row r="8" spans="1:28" s="4" customFormat="1" ht="12">
       <c r="A8" s="8"/>
       <c r="B8" s="48">
         <v>2005</v>
@@ -15210,7 +15208,7 @@
       <c r="X8" s="51"/>
       <c r="Y8" s="51"/>
     </row>
-    <row r="9" spans="1:28" s="4" customFormat="1" ht="11.5">
+    <row r="9" spans="1:28" s="4" customFormat="1" ht="12">
       <c r="A9" s="40"/>
       <c r="B9" s="49">
         <v>2006</v>
@@ -15257,7 +15255,7 @@
       <c r="X9" s="51"/>
       <c r="Y9" s="51"/>
     </row>
-    <row r="10" spans="1:28" s="4" customFormat="1" ht="13.5">
+    <row r="10" spans="1:28" s="4" customFormat="1" ht="13.8">
       <c r="A10" s="8"/>
       <c r="B10" s="48" t="s">
         <v>25</v>
@@ -15718,7 +15716,7 @@
       <c r="AA19"/>
       <c r="AB19"/>
     </row>
-    <row r="20" spans="1:28" s="4" customFormat="1" ht="13.5">
+    <row r="20" spans="1:28" s="4" customFormat="1" ht="13.8">
       <c r="A20" s="8" t="s">
         <v>10</v>
       </c>
@@ -15900,7 +15898,7 @@
       <c r="AA23"/>
       <c r="AB23"/>
     </row>
-    <row r="24" spans="1:28" s="4" customFormat="1" ht="13.5">
+    <row r="24" spans="1:28" s="4" customFormat="1" ht="13.8">
       <c r="A24" s="8"/>
       <c r="B24" s="48" t="s">
         <v>25</v>
@@ -16150,7 +16148,7 @@
       <c r="AA28"/>
       <c r="AB28"/>
     </row>
-    <row r="29" spans="1:28" s="4" customFormat="1" ht="11.5">
+    <row r="29" spans="1:28" s="4" customFormat="1" ht="12">
       <c r="A29" s="8"/>
       <c r="B29" s="48">
         <v>2012</v>
@@ -16197,7 +16195,7 @@
       <c r="X29" s="51"/>
       <c r="Y29" s="51"/>
     </row>
-    <row r="30" spans="1:28" s="4" customFormat="1" ht="11.5">
+    <row r="30" spans="1:28" s="4" customFormat="1" ht="12">
       <c r="A30" s="30"/>
       <c r="B30" s="54">
         <v>2013</v>
@@ -16244,7 +16242,7 @@
       <c r="X30" s="51"/>
       <c r="Y30" s="51"/>
     </row>
-    <row r="31" spans="1:28" s="4" customFormat="1" ht="11.5">
+    <row r="31" spans="1:28" s="4" customFormat="1" ht="12">
       <c r="A31" s="8" t="s">
         <v>3</v>
       </c>
@@ -16273,7 +16271,7 @@
       <c r="X31" s="51"/>
       <c r="Y31" s="51"/>
     </row>
-    <row r="32" spans="1:28" s="4" customFormat="1" ht="11.5">
+    <row r="32" spans="1:28" s="4" customFormat="1" ht="11.4">
       <c r="A32" s="11"/>
       <c r="B32" s="10" t="s">
         <v>27</v>
@@ -16320,7 +16318,7 @@
       <c r="X32" s="51"/>
       <c r="Y32" s="51"/>
     </row>
-    <row r="33" spans="1:13" ht="13">
+    <row r="33" spans="1:13">
       <c r="A33" s="3"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -16363,24 +16361,24 @@
       <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="6.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.36328125" customWidth="1"/>
-    <col min="4" max="4" width="8.08984375" customWidth="1"/>
-    <col min="5" max="5" width="8.36328125" customWidth="1"/>
-    <col min="6" max="6" width="1.36328125" customWidth="1"/>
-    <col min="7" max="7" width="8.36328125" customWidth="1"/>
-    <col min="8" max="8" width="8.08984375" customWidth="1"/>
-    <col min="9" max="9" width="8.36328125" customWidth="1"/>
-    <col min="10" max="10" width="1.36328125" customWidth="1"/>
-    <col min="11" max="13" width="8.36328125" customWidth="1"/>
-    <col min="14" max="14" width="1.36328125" customWidth="1"/>
-    <col min="15" max="17" width="8.36328125" customWidth="1"/>
-    <col min="23" max="23" width="9.81640625" customWidth="1"/>
-    <col min="27" max="27" width="5.36328125" customWidth="1"/>
-    <col min="31" max="31" width="2.7265625" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="1.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" customWidth="1"/>
+    <col min="10" max="10" width="1.33203125" customWidth="1"/>
+    <col min="11" max="13" width="8.33203125" customWidth="1"/>
+    <col min="14" max="14" width="1.33203125" customWidth="1"/>
+    <col min="15" max="17" width="8.33203125" customWidth="1"/>
+    <col min="23" max="23" width="9.77734375" customWidth="1"/>
+    <col min="27" max="27" width="5.33203125" customWidth="1"/>
+    <col min="31" max="31" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="23.25" customHeight="1">
@@ -16407,12 +16405,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15.5">
+    <row r="2" spans="1:34" ht="15">
       <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="13" thickBot="1">
+    <row r="3" spans="1:34" ht="13.8" thickBot="1">
       <c r="A3" s="1"/>
       <c r="C3" t="s">
         <v>18</v>
@@ -16432,7 +16430,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="4" customFormat="1" ht="14" thickTop="1">
+    <row r="4" spans="1:34" s="4" customFormat="1" ht="14.4" thickTop="1">
       <c r="B4" s="13"/>
       <c r="C4" s="275" t="s">
         <v>11</v>
@@ -16480,7 +16478,7 @@
       <c r="AG4" s="275"/>
       <c r="AH4" s="275"/>
     </row>
-    <row r="5" spans="1:34" s="4" customFormat="1" ht="23">
+    <row r="5" spans="1:34" s="4" customFormat="1" ht="22.8">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
         <v>0</v>
@@ -16560,7 +16558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:34" s="4" customFormat="1" ht="11.5">
+    <row r="6" spans="1:34" s="4" customFormat="1" ht="12">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -16581,7 +16579,7 @@
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
     </row>
-    <row r="7" spans="1:34" s="4" customFormat="1" ht="11.5">
+    <row r="7" spans="1:34" s="4" customFormat="1" ht="12">
       <c r="A7" s="8"/>
       <c r="B7" s="16">
         <v>1990</v>
@@ -16620,7 +16618,7 @@
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
     </row>
-    <row r="8" spans="1:34" s="4" customFormat="1" ht="11.5">
+    <row r="8" spans="1:34" s="4" customFormat="1" ht="12">
       <c r="A8" s="8"/>
       <c r="B8" s="16">
         <v>1991</v>
@@ -16659,7 +16657,7 @@
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
     </row>
-    <row r="9" spans="1:34" s="4" customFormat="1" ht="11.5">
+    <row r="9" spans="1:34" s="4" customFormat="1" ht="12">
       <c r="A9" s="8"/>
       <c r="B9" s="16">
         <v>1992</v>
@@ -16698,7 +16696,7 @@
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
     </row>
-    <row r="10" spans="1:34" s="4" customFormat="1" ht="11.5">
+    <row r="10" spans="1:34" s="4" customFormat="1" ht="12">
       <c r="A10" s="8"/>
       <c r="B10" s="16">
         <v>1993</v>
@@ -16737,7 +16735,7 @@
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
     </row>
-    <row r="11" spans="1:34" s="4" customFormat="1" ht="11.5">
+    <row r="11" spans="1:34" s="4" customFormat="1" ht="12">
       <c r="A11" s="8"/>
       <c r="B11" s="16">
         <v>1994</v>
@@ -16776,7 +16774,7 @@
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
     </row>
-    <row r="12" spans="1:34" s="4" customFormat="1" ht="11.5">
+    <row r="12" spans="1:34" s="4" customFormat="1" ht="12">
       <c r="A12" s="8"/>
       <c r="B12" s="16">
         <v>1995</v>
@@ -16815,7 +16813,7 @@
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
     </row>
-    <row r="13" spans="1:34" s="4" customFormat="1" ht="11.5">
+    <row r="13" spans="1:34" s="4" customFormat="1" ht="12">
       <c r="A13" s="8"/>
       <c r="B13" s="16">
         <v>1996</v>
@@ -16854,7 +16852,7 @@
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
     </row>
-    <row r="14" spans="1:34" s="4" customFormat="1" ht="11.5">
+    <row r="14" spans="1:34" s="4" customFormat="1" ht="12">
       <c r="A14" s="8"/>
       <c r="B14" s="16">
         <v>1997</v>
@@ -16893,7 +16891,7 @@
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
     </row>
-    <row r="15" spans="1:34" s="4" customFormat="1" ht="11.5">
+    <row r="15" spans="1:34" s="4" customFormat="1" ht="12">
       <c r="A15" s="8"/>
       <c r="B15" s="16">
         <v>1998</v>
@@ -16932,7 +16930,7 @@
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
     </row>
-    <row r="16" spans="1:34" s="4" customFormat="1" ht="11.5">
+    <row r="16" spans="1:34" s="4" customFormat="1" ht="12">
       <c r="A16" s="8"/>
       <c r="B16" s="16">
         <v>1999</v>
@@ -17340,7 +17338,7 @@
       <c r="AG23"/>
       <c r="AH23"/>
     </row>
-    <row r="24" spans="1:34" s="4" customFormat="1" ht="13.5">
+    <row r="24" spans="1:34" s="4" customFormat="1" ht="13.8">
       <c r="A24" s="8"/>
       <c r="B24" s="47" t="s">
         <v>24</v>
@@ -17819,7 +17817,7 @@
       <c r="AG30" s="21"/>
       <c r="AH30" s="21"/>
     </row>
-    <row r="31" spans="1:34" s="4" customFormat="1" ht="11.5">
+    <row r="31" spans="1:34" s="4" customFormat="1" ht="12">
       <c r="A31" s="8"/>
       <c r="B31" s="16">
         <v>2014</v>
@@ -17888,7 +17886,7 @@
       <c r="AG31" s="21"/>
       <c r="AH31" s="21"/>
     </row>
-    <row r="32" spans="1:34" s="4" customFormat="1" ht="11.5">
+    <row r="32" spans="1:34" s="4" customFormat="1" ht="12">
       <c r="A32" s="8"/>
       <c r="B32" s="16">
         <v>2015</v>
@@ -17958,7 +17956,7 @@
       <c r="AG32" s="21"/>
       <c r="AH32" s="21"/>
     </row>
-    <row r="33" spans="1:34" s="4" customFormat="1" ht="11.5">
+    <row r="33" spans="1:34" s="4" customFormat="1" ht="12">
       <c r="A33" s="8"/>
       <c r="B33" s="16">
         <v>2016</v>
@@ -18276,7 +18274,7 @@
         <v>981.44919456080413</v>
       </c>
     </row>
-    <row r="37" spans="1:34" s="4" customFormat="1" ht="11.5">
+    <row r="37" spans="1:34" s="4" customFormat="1" ht="12">
       <c r="A37" s="57" t="s">
         <v>3</v>
       </c>
@@ -18385,7 +18383,7 @@
         <v>213.6283028204341</v>
       </c>
     </row>
-    <row r="38" spans="1:34" s="4" customFormat="1" ht="11.5">
+    <row r="38" spans="1:34" s="4" customFormat="1" ht="11.4">
       <c r="A38" s="26"/>
       <c r="B38" s="10" t="s">
         <v>65</v>
@@ -18494,7 +18492,7 @@
         <v>27.822673896801199</v>
       </c>
     </row>
-    <row r="39" spans="1:34" s="4" customFormat="1" ht="13.5">
+    <row r="39" spans="1:34" s="4" customFormat="1" ht="13.8">
       <c r="A39" s="8" t="s">
         <v>10</v>
       </c>
@@ -18521,7 +18519,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:34" s="4" customFormat="1" ht="13">
+    <row r="40" spans="1:34" s="4" customFormat="1">
       <c r="A40" s="8"/>
       <c r="B40" s="16">
         <v>1990</v>
@@ -18570,7 +18568,7 @@
       </c>
       <c r="S40" s="33"/>
     </row>
-    <row r="41" spans="1:34" s="4" customFormat="1" ht="13">
+    <row r="41" spans="1:34" s="4" customFormat="1">
       <c r="A41" s="8"/>
       <c r="B41" s="16">
         <v>1991</v>
@@ -18619,7 +18617,7 @@
       </c>
       <c r="S41" s="33"/>
     </row>
-    <row r="42" spans="1:34" s="4" customFormat="1" ht="13">
+    <row r="42" spans="1:34" s="4" customFormat="1">
       <c r="A42" s="8"/>
       <c r="B42" s="16">
         <v>1992</v>
@@ -18772,7 +18770,7 @@
       </c>
       <c r="S44" s="33"/>
     </row>
-    <row r="45" spans="1:34" s="4" customFormat="1" ht="13">
+    <row r="45" spans="1:34" s="4" customFormat="1">
       <c r="A45" s="8"/>
       <c r="B45" s="16">
         <v>1995</v>
@@ -18827,7 +18825,7 @@
       </c>
       <c r="S45" s="33"/>
     </row>
-    <row r="46" spans="1:34" s="4" customFormat="1" ht="13">
+    <row r="46" spans="1:34" s="4" customFormat="1">
       <c r="A46" s="8"/>
       <c r="B46" s="16">
         <v>1996</v>
@@ -18882,7 +18880,7 @@
       </c>
       <c r="S46" s="33"/>
     </row>
-    <row r="47" spans="1:34" s="4" customFormat="1" ht="13">
+    <row r="47" spans="1:34" s="4" customFormat="1">
       <c r="A47" s="8"/>
       <c r="B47" s="16">
         <v>1997</v>
@@ -18937,7 +18935,7 @@
       </c>
       <c r="S47" s="33"/>
     </row>
-    <row r="48" spans="1:34" s="4" customFormat="1" ht="13">
+    <row r="48" spans="1:34" s="4" customFormat="1">
       <c r="A48" s="8"/>
       <c r="B48" s="16">
         <v>1998</v>
@@ -18992,7 +18990,7 @@
       </c>
       <c r="S48" s="33"/>
     </row>
-    <row r="49" spans="1:35" s="4" customFormat="1" ht="13">
+    <row r="49" spans="1:35" s="4" customFormat="1">
       <c r="A49" s="8"/>
       <c r="B49" s="16">
         <v>1999</v>
@@ -19103,7 +19101,7 @@
       </c>
       <c r="AI50"/>
     </row>
-    <row r="51" spans="1:35" s="4" customFormat="1" ht="13">
+    <row r="51" spans="1:35" s="4" customFormat="1">
       <c r="A51" s="8"/>
       <c r="B51" s="16">
         <v>2001</v>
@@ -19159,7 +19157,7 @@
       <c r="S51" s="33"/>
       <c r="AI51"/>
     </row>
-    <row r="52" spans="1:35" s="4" customFormat="1" ht="13">
+    <row r="52" spans="1:35" s="4" customFormat="1">
       <c r="A52" s="8"/>
       <c r="B52" s="16">
         <v>2002</v>
@@ -20485,7 +20483,7 @@
       <c r="AG66"/>
       <c r="AH66"/>
     </row>
-    <row r="67" spans="1:35" s="4" customFormat="1" ht="11.5">
+    <row r="67" spans="1:35" s="4" customFormat="1" ht="12">
       <c r="A67" s="8"/>
       <c r="B67" s="16">
         <v>2017</v>
@@ -20595,7 +20593,7 @@
         <v>617.30925017388665</v>
       </c>
     </row>
-    <row r="68" spans="1:35" s="4" customFormat="1" ht="11.5">
+    <row r="68" spans="1:35" s="4" customFormat="1" ht="12">
       <c r="A68" s="8"/>
       <c r="B68" s="16">
         <v>2018</v>
@@ -20705,7 +20703,7 @@
         <v>667.26417983868089</v>
       </c>
     </row>
-    <row r="69" spans="1:35" s="4" customFormat="1" ht="11.5">
+    <row r="69" spans="1:35" s="4" customFormat="1" ht="12">
       <c r="A69" s="8"/>
       <c r="B69" s="16">
         <v>2019</v>
@@ -20998,7 +20996,7 @@
       </c>
       <c r="AI71"/>
     </row>
-    <row r="72" spans="1:35" ht="13">
+    <row r="72" spans="1:35">
       <c r="A72" s="3"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -21045,11 +21043,11 @@
   </sheetPr>
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="36" customHeight="1">
@@ -21156,7 +21154,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
     </row>
-    <row r="7" spans="1:23" ht="16" customHeight="1">
+    <row r="7" spans="1:23" ht="16.05" customHeight="1">
       <c r="A7" s="252" t="s">
         <v>79</v>
       </c>
@@ -21175,7 +21173,7 @@
       <c r="N7" s="136"/>
       <c r="O7" s="136"/>
     </row>
-    <row r="8" spans="1:23" ht="16" customHeight="1">
+    <row r="8" spans="1:23" ht="16.05" customHeight="1">
       <c r="A8" s="252" t="s">
         <v>47</v>
       </c>
@@ -21194,7 +21192,7 @@
       <c r="N8" s="136"/>
       <c r="O8" s="136"/>
     </row>
-    <row r="9" spans="1:23" ht="16" customHeight="1">
+    <row r="9" spans="1:23" ht="16.05" customHeight="1">
       <c r="A9" s="252" t="s">
         <v>115</v>
       </c>
@@ -21324,12 +21322,12 @@
       <c r="V16" s="107"/>
       <c r="W16" s="107"/>
     </row>
-    <row r="17" spans="1:23" ht="16" customHeight="1">
+    <row r="17" spans="1:23" ht="16.05" customHeight="1">
       <c r="A17" s="177" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="16" customHeight="1">
+    <row r="18" spans="1:23" ht="16.05" customHeight="1">
       <c r="A18" s="176" t="s">
         <v>108</v>
       </c>
@@ -21356,7 +21354,7 @@
       <c r="V18" s="107"/>
       <c r="W18" s="107"/>
     </row>
-    <row r="19" spans="1:23" ht="16" customHeight="1">
+    <row r="19" spans="1:23" ht="16.05" customHeight="1">
       <c r="A19" s="258" t="s">
         <v>68</v>
       </c>
@@ -21388,12 +21386,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="16" customHeight="1">
+    <row r="21" spans="1:23" ht="16.05" customHeight="1">
       <c r="A21" s="176" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="16" customHeight="1">
+    <row r="22" spans="1:23" ht="16.05" customHeight="1">
       <c r="A22" s="259" t="s">
         <v>64</v>
       </c>
@@ -21423,9 +21421,9 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.5">
+    <row r="1" spans="1:16" ht="15.6">
       <c r="A1" s="236" t="s">
         <v>39</v>
       </c>
@@ -21445,7 +21443,7 @@
       <c r="O1" s="200"/>
       <c r="P1" s="200"/>
     </row>
-    <row r="2" spans="1:16" ht="15.5">
+    <row r="2" spans="1:16" ht="15">
       <c r="A2" s="201" t="s">
         <v>40</v>
       </c>
@@ -21464,7 +21462,7 @@
       <c r="O2" s="200"/>
       <c r="P2" s="200"/>
     </row>
-    <row r="3" spans="1:16" ht="15.5">
+    <row r="3" spans="1:16" ht="15">
       <c r="A3" s="261" t="s">
         <v>45</v>
       </c>
@@ -21483,7 +21481,7 @@
       <c r="O3" s="200"/>
       <c r="P3" s="200"/>
     </row>
-    <row r="4" spans="1:16" ht="15.5">
+    <row r="4" spans="1:16" ht="15">
       <c r="A4" s="261" t="s">
         <v>127</v>
       </c>
@@ -21502,7 +21500,7 @@
       <c r="O4" s="200"/>
       <c r="P4" s="200"/>
     </row>
-    <row r="5" spans="1:16" ht="15.5">
+    <row r="5" spans="1:16" ht="15">
       <c r="A5" s="261" t="s">
         <v>46</v>
       </c>
@@ -21522,7 +21520,7 @@
       <c r="O5" s="200"/>
       <c r="P5" s="200"/>
     </row>
-    <row r="6" spans="1:16" ht="15.5">
+    <row r="6" spans="1:16" ht="15">
       <c r="A6" s="261" t="s">
         <v>128</v>
       </c>
@@ -21542,7 +21540,7 @@
       <c r="O6" s="200"/>
       <c r="P6" s="200"/>
     </row>
-    <row r="7" spans="1:16" ht="15.5">
+    <row r="7" spans="1:16" ht="15">
       <c r="A7" s="201" t="s">
         <v>41</v>
       </c>
@@ -21561,7 +21559,7 @@
       <c r="O7" s="200"/>
       <c r="P7" s="200"/>
     </row>
-    <row r="8" spans="1:16" ht="15.5">
+    <row r="8" spans="1:16" ht="15">
       <c r="A8" s="239" t="s">
         <v>42</v>
       </c>
@@ -21581,7 +21579,7 @@
       <c r="O8" s="200"/>
       <c r="P8" s="200"/>
     </row>
-    <row r="9" spans="1:16" ht="15.5">
+    <row r="9" spans="1:16" ht="15">
       <c r="A9" s="241" t="s">
         <v>77</v>
       </c>
@@ -21601,7 +21599,7 @@
       <c r="O9" s="200"/>
       <c r="P9" s="200"/>
     </row>
-    <row r="10" spans="1:16" ht="15.5">
+    <row r="10" spans="1:16" ht="15">
       <c r="A10" s="201"/>
       <c r="B10" s="201"/>
       <c r="D10" s="201"/>
@@ -21617,7 +21615,7 @@
       <c r="N10" s="200"/>
       <c r="O10" s="200"/>
     </row>
-    <row r="11" spans="1:16" ht="15.5">
+    <row r="11" spans="1:16" ht="15">
       <c r="A11" s="201"/>
       <c r="B11" s="201"/>
       <c r="C11" s="201"/>
@@ -21745,11 +21743,13 @@
   </sheetPr>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="14" width="14.6328125" style="200" customWidth="1"/>
+    <col min="1" max="14" width="14.6640625" style="200" customWidth="1"/>
     <col min="15" max="16384" width="17" style="200"/>
   </cols>
   <sheetData>
@@ -21879,7 +21879,7 @@
       <c r="M7" s="202"/>
       <c r="N7" s="199"/>
     </row>
-    <row r="8" spans="1:14" s="233" customFormat="1" ht="64" customHeight="1">
+    <row r="8" spans="1:14" s="233" customFormat="1" ht="64.05" customHeight="1">
       <c r="A8" s="231" t="s">
         <v>95</v>
       </c>
@@ -22142,52 +22142,40 @@
         <v>2021</v>
       </c>
       <c r="B13" s="207">
-        <f>calc_new!C11</f>
-        <v>825.28440019324478</v>
+        <v>824</v>
       </c>
       <c r="C13" s="207">
-        <f>calc_new!D11</f>
-        <v>834.13313869358478</v>
+        <v>817</v>
       </c>
       <c r="D13" s="207">
-        <f>calc_new!E11</f>
-        <v>708.51313536631426</v>
+        <v>707</v>
       </c>
       <c r="E13" s="207">
-        <f>calc_new!F11</f>
-        <v>748.42316673701112</v>
+        <v>755</v>
       </c>
       <c r="F13" s="207">
-        <f>calc_new!G11</f>
-        <v>753.10577264937137</v>
+        <v>755</v>
       </c>
       <c r="G13" s="207">
-        <f>calc_new!H11</f>
-        <v>710.29406018579709</v>
+        <v>697</v>
       </c>
       <c r="H13" s="207">
-        <f>calc_new!I11</f>
-        <v>776.56891936501904</v>
+        <v>766</v>
       </c>
       <c r="I13" s="207">
-        <f>calc_new!J11</f>
-        <v>780.74300983373723</v>
+        <v>759</v>
       </c>
       <c r="J13" s="207">
-        <f>calc_new!K11</f>
-        <v>709.28012451774146</v>
+        <v>699</v>
       </c>
       <c r="K13" s="207">
-        <f>calc_new!L11</f>
-        <v>765.06104055579317</v>
+        <v>768</v>
       </c>
       <c r="L13" s="207">
-        <f>calc_new!M11</f>
-        <v>771.1174120523624</v>
+        <v>766</v>
       </c>
       <c r="M13" s="207">
-        <f>calc_new!N11</f>
-        <v>709.66149372259736</v>
+        <v>699</v>
       </c>
     </row>
   </sheetData>
@@ -22214,10 +22202,10 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="15.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="14" width="14.6328125" style="212" customWidth="1"/>
-    <col min="15" max="16384" width="15.90625" style="212"/>
+    <col min="1" max="14" width="14.6640625" style="212" customWidth="1"/>
+    <col min="15" max="16384" width="15.88671875" style="212"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1">
@@ -22382,7 +22370,7 @@
       <c r="M9" s="213"/>
       <c r="N9" s="211"/>
     </row>
-    <row r="10" spans="1:14" s="219" customFormat="1" ht="64" customHeight="1">
+    <row r="10" spans="1:14" s="219" customFormat="1" ht="64.05" customHeight="1">
       <c r="A10" s="234" t="s">
         <v>95</v>
       </c>
@@ -22689,10 +22677,10 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="14" width="14.6328125" style="200" customWidth="1"/>
-    <col min="15" max="16384" width="15.54296875" style="200"/>
+    <col min="1" max="14" width="14.6640625" style="200" customWidth="1"/>
+    <col min="15" max="16384" width="15.5546875" style="200"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1">
@@ -22821,7 +22809,7 @@
       <c r="M7" s="223"/>
       <c r="N7" s="223"/>
     </row>
-    <row r="8" spans="1:15" s="233" customFormat="1" ht="64" customHeight="1">
+    <row r="8" spans="1:15" s="233" customFormat="1" ht="64.05" customHeight="1">
       <c r="A8" s="231" t="s">
         <v>95</v>
       </c>
@@ -23084,7 +23072,7 @@
       <c r="N12" s="209"/>
       <c r="O12" s="212"/>
     </row>
-    <row r="13" spans="1:15" ht="16" customHeight="1">
+    <row r="13" spans="1:15" ht="16.05" customHeight="1">
       <c r="A13" s="265">
         <v>2021</v>
       </c>
@@ -23261,10 +23249,10 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="14.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="14" width="14.6328125" style="200" customWidth="1"/>
-    <col min="15" max="16384" width="14.54296875" style="200"/>
+    <col min="1" max="14" width="14.6640625" style="200" customWidth="1"/>
+    <col min="15" max="16384" width="14.5546875" style="200"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1">
@@ -23430,7 +23418,7 @@
       <c r="N9" s="227"/>
       <c r="O9" s="212"/>
     </row>
-    <row r="10" spans="1:15" s="233" customFormat="1" ht="64" customHeight="1">
+    <row r="10" spans="1:15" s="233" customFormat="1" ht="64.05" customHeight="1">
       <c r="A10" s="231" t="s">
         <v>95</v>
       </c>
@@ -23797,24 +23785,24 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="219.7265625" customWidth="1"/>
-    <col min="2" max="2" width="26.36328125" customWidth="1"/>
+    <col min="1" max="1" width="219.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" customWidth="1"/>
-    <col min="5" max="6" width="1.81640625" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
-    <col min="8" max="8" width="1.81640625" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" customWidth="1"/>
-    <col min="10" max="10" width="1.81640625" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" customWidth="1"/>
-    <col min="12" max="12" width="8.984375E-2" customWidth="1"/>
-    <col min="13" max="13" width="2.36328125" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="6" width="1.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="1.77734375" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="1.77734375" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" customWidth="1"/>
+    <col min="12" max="12" width="0.109375" customWidth="1"/>
+    <col min="13" max="13" width="2.33203125" customWidth="1"/>
     <col min="17" max="17" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="183" customFormat="1" ht="15.5">
+    <row r="1" spans="1:17" s="183" customFormat="1" ht="15.6">
       <c r="A1" s="181" t="s">
         <v>63</v>
       </c>
@@ -23856,7 +23844,7 @@
       <c r="P2" s="182"/>
       <c r="Q2" s="182"/>
     </row>
-    <row r="3" spans="1:17" s="183" customFormat="1" ht="28">
+    <row r="3" spans="1:17" s="183" customFormat="1" ht="27.6">
       <c r="A3" s="187" t="s">
         <v>20</v>
       </c>
@@ -23877,7 +23865,7 @@
       <c r="P3" s="187"/>
       <c r="Q3" s="187"/>
     </row>
-    <row r="4" spans="1:17" s="183" customFormat="1" ht="14">
+    <row r="4" spans="1:17" s="183" customFormat="1" ht="13.8">
       <c r="A4" s="189" t="s">
         <v>49</v>
       </c>
@@ -23919,7 +23907,7 @@
       <c r="P5" s="182"/>
       <c r="Q5" s="182"/>
     </row>
-    <row r="6" spans="1:17" s="183" customFormat="1" ht="28">
+    <row r="6" spans="1:17" s="183" customFormat="1" ht="41.4">
       <c r="A6" s="187" t="s">
         <v>26</v>
       </c>
@@ -23940,7 +23928,7 @@
       <c r="P6" s="187"/>
       <c r="Q6" s="187"/>
     </row>
-    <row r="7" spans="1:17" s="183" customFormat="1" ht="26" customHeight="1">
+    <row r="7" spans="1:17" s="183" customFormat="1" ht="25.95" customHeight="1">
       <c r="A7" s="184" t="s">
         <v>22</v>
       </c>
@@ -23961,7 +23949,7 @@
       <c r="P7" s="182"/>
       <c r="Q7" s="182"/>
     </row>
-    <row r="8" spans="1:17" s="183" customFormat="1" ht="14">
+    <row r="8" spans="1:17" s="183" customFormat="1" ht="13.8">
       <c r="A8" s="187" t="s">
         <v>73</v>
       </c>
@@ -24003,7 +23991,7 @@
       <c r="P9" s="182"/>
       <c r="Q9" s="182"/>
     </row>
-    <row r="10" spans="1:17" s="183" customFormat="1" ht="14">
+    <row r="10" spans="1:17" s="183" customFormat="1" ht="13.8">
       <c r="A10" s="187" t="s">
         <v>126</v>
       </c>
@@ -24024,7 +24012,7 @@
       <c r="P10" s="187"/>
       <c r="Q10" s="187"/>
     </row>
-    <row r="11" spans="1:17" s="183" customFormat="1" ht="14">
+    <row r="11" spans="1:17" s="183" customFormat="1" ht="13.8">
       <c r="A11" s="187" t="s">
         <v>120</v>
       </c>
@@ -24045,7 +24033,7 @@
       <c r="P11" s="187"/>
       <c r="Q11" s="187"/>
     </row>
-    <row r="12" spans="1:17" s="183" customFormat="1" ht="14">
+    <row r="12" spans="1:17" s="183" customFormat="1" ht="13.8">
       <c r="A12" s="187" t="s">
         <v>121</v>
       </c>
@@ -24066,7 +24054,7 @@
       <c r="P12" s="187"/>
       <c r="Q12" s="187"/>
     </row>
-    <row r="13" spans="1:17" s="183" customFormat="1" ht="28">
+    <row r="13" spans="1:17" s="183" customFormat="1" ht="41.4">
       <c r="A13" s="187" t="s">
         <v>122</v>
       </c>
@@ -24087,7 +24075,7 @@
       <c r="P13" s="187"/>
       <c r="Q13" s="187"/>
     </row>
-    <row r="14" spans="1:17" s="183" customFormat="1" ht="14">
+    <row r="14" spans="1:17" s="183" customFormat="1" ht="13.8">
       <c r="A14" s="187" t="s">
         <v>123</v>
       </c>
@@ -24108,7 +24096,7 @@
       <c r="P14" s="187"/>
       <c r="Q14" s="187"/>
     </row>
-    <row r="15" spans="1:17" s="183" customFormat="1" ht="14">
+    <row r="15" spans="1:17" s="183" customFormat="1" ht="13.8">
       <c r="A15" s="187" t="s">
         <v>124</v>
       </c>
@@ -24129,7 +24117,7 @@
       <c r="P15" s="187"/>
       <c r="Q15" s="187"/>
     </row>
-    <row r="16" spans="1:17" s="183" customFormat="1" ht="14">
+    <row r="16" spans="1:17" s="183" customFormat="1" ht="13.8">
       <c r="A16" s="187" t="s">
         <v>125</v>
       </c>
@@ -24150,7 +24138,7 @@
       <c r="P16" s="187"/>
       <c r="Q16" s="187"/>
     </row>
-    <row r="17" spans="1:17" s="186" customFormat="1" ht="30.5" customHeight="1">
+    <row r="17" spans="1:17" s="186" customFormat="1" ht="30.45" customHeight="1">
       <c r="A17" s="278" t="s">
         <v>61</v>
       </c>
@@ -24171,7 +24159,7 @@
       <c r="P17" s="185"/>
       <c r="Q17" s="185"/>
     </row>
-    <row r="18" spans="1:17" s="186" customFormat="1" ht="84">
+    <row r="18" spans="1:17" s="186" customFormat="1" ht="82.8">
       <c r="A18" s="187" t="s">
         <v>129</v>
       </c>
@@ -24192,7 +24180,7 @@
       <c r="P18" s="189"/>
       <c r="Q18" s="189"/>
     </row>
-    <row r="19" spans="1:17" s="264" customFormat="1" ht="15.5">
+    <row r="19" spans="1:17" s="264" customFormat="1" ht="15">
       <c r="A19" s="262" t="s">
         <v>130</v>
       </c>
@@ -24213,7 +24201,7 @@
       <c r="P19" s="263"/>
       <c r="Q19" s="263"/>
     </row>
-    <row r="20" spans="1:17" s="186" customFormat="1" ht="56">
+    <row r="20" spans="1:17" s="186" customFormat="1" ht="55.2">
       <c r="A20" s="187" t="s">
         <v>62</v>
       </c>
@@ -24234,7 +24222,7 @@
       <c r="P20" s="187"/>
       <c r="Q20" s="187"/>
     </row>
-    <row r="21" spans="1:17" s="186" customFormat="1" ht="15.5">
+    <row r="21" spans="1:17" s="186" customFormat="1" ht="15">
       <c r="A21" s="262" t="s">
         <v>131</v>
       </c>
@@ -24255,7 +24243,7 @@
       <c r="P21" s="187"/>
       <c r="Q21" s="187"/>
     </row>
-    <row r="22" spans="1:17" s="186" customFormat="1" ht="14">
+    <row r="22" spans="1:17" s="186" customFormat="1" ht="13.8">
       <c r="A22" s="189" t="s">
         <v>81</v>
       </c>
@@ -24276,7 +24264,7 @@
       <c r="P22" s="185"/>
       <c r="Q22" s="185"/>
     </row>
-    <row r="23" spans="1:17" s="186" customFormat="1" ht="14">
+    <row r="23" spans="1:17" s="186" customFormat="1" ht="13.8">
       <c r="A23" s="189" t="s">
         <v>82</v>
       </c>
@@ -24297,7 +24285,7 @@
       <c r="P23" s="185"/>
       <c r="Q23" s="185"/>
     </row>
-    <row r="24" spans="1:17" ht="15.5">
+    <row r="24" spans="1:17" ht="15.6">
       <c r="A24" s="196" t="s">
         <v>37</v>
       </c>

--- a/Data Sources/Energy Bills/ElectricityAverageBill.xlsx
+++ b/Data Sources/Energy Bills/ElectricityAverageBill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\ScottishEnergyStatsProcessing\Data Sources\Energy Bills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039DF85D-20A8-4BFC-A0FC-7BCB2E251CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA7E4A5-922E-46BC-B493-D4CA3FDF83FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="811" firstSheet="2" activeTab="4" xr2:uid="{9CD1B9F4-43FF-442D-807C-A4C96DC2797C}"/>
   </bookViews>
@@ -21744,7 +21744,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="13.2"/>

--- a/Data Sources/Energy Bills/ElectricityAverageBill.xlsx
+++ b/Data Sources/Energy Bills/ElectricityAverageBill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\ScottishEnergyStatsProcessing\Data Sources\Energy Bills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA7E4A5-922E-46BC-B493-D4CA3FDF83FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E9E556-E854-47FD-8F3D-07C3901A683C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="811" firstSheet="2" activeTab="4" xr2:uid="{9CD1B9F4-43FF-442D-807C-A4C96DC2797C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="811" firstSheet="2" activeTab="4" xr2:uid="{9CD1B9F4-43FF-442D-807C-A4C96DC2797C}"/>
   </bookViews>
   <sheets>
     <sheet name="calc_new" sheetId="16" state="hidden" r:id="rId1"/>
@@ -43,15 +43,6 @@
     <definedName name="table_25_Q2">#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -757,7 +748,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="14">
+  <numFmts count="17">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -772,11 +763,21 @@
     <numFmt numFmtId="173" formatCode="0.0%"/>
     <numFmt numFmtId="174" formatCode="0\[\p\]"/>
     <numFmt numFmtId="175" formatCode="0\[\r\]"/>
+    <numFmt numFmtId="183" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="184" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="185" formatCode="0\p\ "/>
   </numFmts>
-  <fonts count="60">
+  <fonts count="61">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1485,147 +1486,156 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="79">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="17" applyNumberFormat="0" applyFont="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="184" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="17" applyNumberFormat="0" applyFont="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="289">
+  <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1633,173 +1643,176 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="5" fillId="2" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1811,98 +1824,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1910,392 +1920,305 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="27" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="76" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="173" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="77" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="78" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="76" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" xfId="77" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="78" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="79">
+  <cellStyles count="91">
     <cellStyle name="%" xfId="12" xr:uid="{000DA61F-A74C-4BE6-9AE4-5E08DB442790}"/>
     <cellStyle name="% 2" xfId="13" xr:uid="{9EBA785E-795A-4A42-86E7-590ADEA82327}"/>
     <cellStyle name="%_Extra discounting_tariff form_2" xfId="14" xr:uid="{8887BFE3-9B87-42B6-9036-D1FFDC37CEE4}"/>
@@ -2334,11 +2257,19 @@
     <cellStyle name="Check Cell 2" xfId="47" xr:uid="{9472DC6C-8D00-40FA-9B24-46BF10725720}"/>
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Comma 2 2" xfId="48" xr:uid="{F74129E9-0D31-45F9-A3AE-2D56213FBB31}"/>
+    <cellStyle name="Comma 2 2 2" xfId="81" xr:uid="{DDEA62F2-2D57-463B-A939-E85239F5685C}"/>
+    <cellStyle name="Comma 2 3" xfId="79" xr:uid="{4B9BB90F-45D8-4865-BB66-0602EE7F50AF}"/>
     <cellStyle name="Comma 3" xfId="69" xr:uid="{9B2FFE1A-31A4-4AB5-BA64-97ED2B92E655}"/>
+    <cellStyle name="Comma 3 2" xfId="86" xr:uid="{41D8D2AF-1F15-4CF0-9755-01909BD04AFB}"/>
     <cellStyle name="Comma 4" xfId="66" xr:uid="{7AD69559-A143-4293-A7DF-0501416492E8}"/>
+    <cellStyle name="Comma 4 2" xfId="84" xr:uid="{2355419B-0062-49C9-A57A-B2D29574E860}"/>
     <cellStyle name="Comma 5" xfId="74" xr:uid="{DD0D6FFE-B518-4B20-B793-CABFD207C322}"/>
+    <cellStyle name="Comma 5 2" xfId="88" xr:uid="{DA561ED0-740F-4D69-BEA4-89495A0758F1}"/>
+    <cellStyle name="Comma 6" xfId="90" xr:uid="{EAEAE812-EC46-4F4A-91C0-F957F23A49BF}"/>
     <cellStyle name="Currency 2" xfId="49" xr:uid="{142AABD1-959E-4813-990C-E544C39DA8E7}"/>
     <cellStyle name="Currency 2 2" xfId="50" xr:uid="{58616CA7-F4CD-4654-9FDC-72C584920B50}"/>
+    <cellStyle name="Currency 2 2 2" xfId="83" xr:uid="{331EC885-8AE8-4B69-ABDF-9F8E24773C18}"/>
+    <cellStyle name="Currency 2 3" xfId="82" xr:uid="{FD4A1559-5880-43A6-B0A5-A65F7C76B10E}"/>
     <cellStyle name="Euro" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Excel Built-in Normal" xfId="70" xr:uid="{4C22A5CF-449E-4FBA-9A28-3811FD7A6E10}"/>
     <cellStyle name="Explanatory Text 2" xfId="51" xr:uid="{6793E8E3-29D5-4597-A868-00F82B22D838}"/>
@@ -2360,9 +2291,11 @@
     <cellStyle name="Normal 3" xfId="10" xr:uid="{3C5572A0-97B3-4229-8750-2B636A041099}"/>
     <cellStyle name="Normal 3 2" xfId="60" xr:uid="{0BA7B9DB-6ACD-4A28-AD52-644E615F789B}"/>
     <cellStyle name="Normal 4" xfId="68" xr:uid="{3D80BC40-C34F-490C-89E3-9A3D04FFA51A}"/>
+    <cellStyle name="Normal 4 2" xfId="85" xr:uid="{F3658F78-C8B2-4E1B-8660-1015907ED039}"/>
     <cellStyle name="Normal 5" xfId="11" xr:uid="{FA5B9E05-E177-403E-B088-1A744C7C1474}"/>
     <cellStyle name="Normal 6" xfId="7" xr:uid="{B1505335-D88D-419D-8BD4-B04ADDA8D289}"/>
     <cellStyle name="Normal 7" xfId="9" xr:uid="{6B71BB27-2B8C-4E37-93C0-286331177B97}"/>
+    <cellStyle name="Normal 7 2" xfId="80" xr:uid="{8B85C99D-9EB9-4E0C-BEDF-BAB2FFAF56CF}"/>
     <cellStyle name="Normal_table_213" xfId="77" xr:uid="{80C989D5-D437-406F-82B0-5F976DB8E2F7}"/>
     <cellStyle name="Note 2" xfId="61" xr:uid="{1F642F8D-605F-4ED5-9802-12AFB0F29A20}"/>
     <cellStyle name="Output 2" xfId="62" xr:uid="{389D16C0-0971-4563-941B-DC79AB558E33}"/>
@@ -2371,7 +2304,9 @@
     <cellStyle name="Percent 3 2" xfId="72" xr:uid="{7943C34C-6BC7-471F-B6EA-1630D47A9C25}"/>
     <cellStyle name="Percent 4" xfId="67" xr:uid="{D7DAF5B8-C83C-4248-9356-B61EE5C80A52}"/>
     <cellStyle name="Percent 5" xfId="75" xr:uid="{C181852C-9DFB-4DE6-9873-F41FA16978DA}"/>
+    <cellStyle name="Percent 5 2" xfId="89" xr:uid="{4CDD90AC-83CC-42A6-80E7-9A06CE1D8E9F}"/>
     <cellStyle name="Style 1" xfId="73" xr:uid="{3D90A387-EC91-4894-BF8A-7E83F364CBB6}"/>
+    <cellStyle name="Style 1 2" xfId="87" xr:uid="{5835291D-5886-457C-A996-7CCB772F28AF}"/>
     <cellStyle name="Title 2" xfId="63" xr:uid="{6B61068E-5C40-4F38-A086-978BA4DB9A8A}"/>
     <cellStyle name="Total 2" xfId="64" xr:uid="{16614E13-FEFF-434E-A02F-42E23CC473C8}"/>
     <cellStyle name="Warning Text 2" xfId="65" xr:uid="{B77668EE-2AF3-41B7-A0C1-471D41B379AE}"/>
@@ -4144,6 +4079,157 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>623479</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>102635</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C48A6B72-2E15-4D92-BCF8-660D239FCC10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1375410" y="3495675"/>
+          <a:ext cx="213904" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4961,8 +5047,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EBCC6AF-F0FA-4E64-9B04-57EA09B31292}" name="Average_annual_domestic_standard_electricity_bills_in_cash_terms_for_UK_countries_based_on_consumption_of_3600kWh_year" displayName="Average_annual_domestic_standard_electricity_bills_in_cash_terms_for_UK_countries_based_on_consumption_of_3600kWh_year" ref="A8:M13" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" headerRowCellStyle="Normal 2">
-  <autoFilter ref="A8:M13" xr:uid="{7EBCC6AF-F0FA-4E64-9B04-57EA09B31292}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EBCC6AF-F0FA-4E64-9B04-57EA09B31292}" name="Average_annual_domestic_standard_electricity_bills_in_cash_terms_for_UK_countries_based_on_consumption_of_3600kWh_year" displayName="Average_annual_domestic_standard_electricity_bills_in_cash_terms_for_UK_countries_based_on_consumption_of_3600kWh_year" ref="A8:M14" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" headerRowCellStyle="Normal 2">
+  <autoFilter ref="A8:M14" xr:uid="{7EBCC6AF-F0FA-4E64-9B04-57EA09B31292}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -4979,42 +5065,18 @@
   </autoFilter>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{997218C9-078C-4860-814C-0C3473B5A991}" name="Year" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{15C37F8D-D6B9-40DF-99B2-813F79F86F1B}" name="Standard credit: England &amp; Wales (pounds)" dataDxfId="56">
-      <calculatedColumnFormula>calc_new!C6</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{97B68D95-D883-475D-8A76-9C0744D7C023}" name="Standard credit: Scotland (pounds)" dataDxfId="55">
-      <calculatedColumnFormula>calc_new!D6</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{9FB439C2-AF37-40A3-A620-EA7F2636E775}" name="Standard credit: Northern Ireland (pounds)" dataDxfId="54">
-      <calculatedColumnFormula>calc_new!E6</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{196DA0A7-7E6D-4D25-8E8B-9ADCFAB9A709}" name="Direct debit: England &amp; Wales (pounds)" dataDxfId="53">
-      <calculatedColumnFormula>calc_new!F6</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{98F2A685-39A3-4430-8E9D-57177FB01557}" name="Direct debit: Scotland (pounds)" dataDxfId="52">
-      <calculatedColumnFormula>calc_new!G6</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{1A557241-8777-408B-9812-DAD42068A280}" name="Direct debit: Northern Ireland (pounds)" dataDxfId="51">
-      <calculatedColumnFormula>calc_new!H6</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{B766F582-CF50-4EF6-9020-27F14805F8F0}" name="Prepayment: England &amp; Wales (pounds)" dataDxfId="50">
-      <calculatedColumnFormula>calc_new!I6</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{6972B916-D2A9-4EA3-B6D0-1D23EBE9398A}" name="Prepayment: Scotland (pounds)" dataDxfId="49">
-      <calculatedColumnFormula>calc_new!J6</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{A5BC3377-CD78-44C6-A5EB-27C8970A0EDF}" name="Prepayment: Northern Ireland (pounds)" dataDxfId="48">
-      <calculatedColumnFormula>calc_new!K6</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{F47048DB-F526-48D1-B65F-3C20C376AB34}" name="All Payment Types: England &amp; Wales (pounds)" dataDxfId="47">
-      <calculatedColumnFormula>calc_new!L6</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" xr3:uid="{45BE87E8-A502-4AE8-ADAC-7C8E91099637}" name="All Payment Types: Scotland (pounds)" dataDxfId="46">
-      <calculatedColumnFormula>calc_new!M6</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" xr3:uid="{85287FCD-06CC-4C94-9ED7-18ADEA9EC9E9}" name="All Payment Types: Northern Ireland (pounds)" dataDxfId="45">
-      <calculatedColumnFormula>calc_new!N6</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="2" xr3:uid="{15C37F8D-D6B9-40DF-99B2-813F79F86F1B}" name="Standard credit: England &amp; Wales (pounds)" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{97B68D95-D883-475D-8A76-9C0744D7C023}" name="Standard credit: Scotland (pounds)" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{9FB439C2-AF37-40A3-A620-EA7F2636E775}" name="Standard credit: Northern Ireland (pounds)" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{196DA0A7-7E6D-4D25-8E8B-9ADCFAB9A709}" name="Direct debit: England &amp; Wales (pounds)" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{98F2A685-39A3-4430-8E9D-57177FB01557}" name="Direct debit: Scotland (pounds)" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{1A557241-8777-408B-9812-DAD42068A280}" name="Direct debit: Northern Ireland (pounds)" dataDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{B766F582-CF50-4EF6-9020-27F14805F8F0}" name="Prepayment: England &amp; Wales (pounds)" dataDxfId="50"/>
+    <tableColumn id="9" xr3:uid="{6972B916-D2A9-4EA3-B6D0-1D23EBE9398A}" name="Prepayment: Scotland (pounds)" dataDxfId="49"/>
+    <tableColumn id="10" xr3:uid="{A5BC3377-CD78-44C6-A5EB-27C8970A0EDF}" name="Prepayment: Northern Ireland (pounds)" dataDxfId="48"/>
+    <tableColumn id="11" xr3:uid="{F47048DB-F526-48D1-B65F-3C20C376AB34}" name="All Payment Types: England &amp; Wales (pounds)" dataDxfId="47"/>
+    <tableColumn id="12" xr3:uid="{45BE87E8-A502-4AE8-ADAC-7C8E91099637}" name="All Payment Types: Scotland (pounds)" dataDxfId="46"/>
+    <tableColumn id="13" xr3:uid="{85287FCD-06CC-4C94-9ED7-18ADEA9EC9E9}" name="All Payment Types: Northern Ireland (pounds)" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5557,39 +5619,39 @@
       <selection activeCell="O15" sqref="O15:O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" customWidth="1"/>
-    <col min="5" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" customWidth="1"/>
-    <col min="8" max="14" width="8.33203125" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" customWidth="1"/>
-    <col min="18" max="18" width="8.109375" customWidth="1"/>
-    <col min="19" max="20" width="8.33203125" customWidth="1"/>
-    <col min="21" max="21" width="8.109375" customWidth="1"/>
-    <col min="22" max="28" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" customWidth="1"/>
+    <col min="8" max="14" width="8.28515625" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" customWidth="1"/>
+    <col min="19" max="20" width="8.28515625" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" customWidth="1"/>
+    <col min="22" max="28" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="23.25" customHeight="1">
-      <c r="A1" s="276" t="s">
+      <c r="A1" s="237" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="277"/>
-      <c r="C1" s="277"/>
-      <c r="D1" s="277"/>
-      <c r="E1" s="277"/>
-      <c r="F1" s="277"/>
-      <c r="G1" s="277"/>
-      <c r="H1" s="277"/>
-      <c r="I1" s="277"/>
-      <c r="J1" s="277"/>
-      <c r="K1" s="277"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
       <c r="P1" s="29"/>
     </row>
     <row r="2" spans="1:28" ht="15">
@@ -5597,7 +5659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="13.8" thickBot="1">
+    <row r="3" spans="1:28" ht="13.5" thickBot="1">
       <c r="A3" s="1"/>
       <c r="C3" t="s">
         <v>18</v>
@@ -5614,48 +5676,48 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="4" customFormat="1" ht="14.4" thickTop="1">
+    <row r="4" spans="1:28" s="4" customFormat="1" ht="14.25" thickTop="1">
       <c r="B4" s="13"/>
-      <c r="C4" s="275" t="s">
+      <c r="C4" s="236" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="275"/>
-      <c r="E4" s="274"/>
-      <c r="F4" s="274" t="s">
+      <c r="D4" s="236"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="235" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="274"/>
-      <c r="H4" s="274"/>
-      <c r="I4" s="275" t="s">
+      <c r="G4" s="235"/>
+      <c r="H4" s="235"/>
+      <c r="I4" s="236" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="275"/>
-      <c r="K4" s="275"/>
-      <c r="L4" s="275" t="s">
+      <c r="J4" s="236"/>
+      <c r="K4" s="236"/>
+      <c r="L4" s="236" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="275"/>
-      <c r="N4" s="275"/>
-      <c r="Q4" s="275" t="s">
+      <c r="M4" s="236"/>
+      <c r="N4" s="236"/>
+      <c r="Q4" s="236" t="s">
         <v>71</v>
       </c>
-      <c r="R4" s="275"/>
-      <c r="S4" s="274"/>
-      <c r="T4" s="274" t="s">
+      <c r="R4" s="236"/>
+      <c r="S4" s="235"/>
+      <c r="T4" s="235" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="274"/>
-      <c r="V4" s="274"/>
-      <c r="W4" s="275" t="s">
+      <c r="U4" s="235"/>
+      <c r="V4" s="235"/>
+      <c r="W4" s="236" t="s">
         <v>72</v>
       </c>
-      <c r="X4" s="275"/>
-      <c r="Y4" s="275"/>
+      <c r="X4" s="236"/>
+      <c r="Y4" s="236"/>
       <c r="Z4" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="4" customFormat="1" ht="22.8">
+    <row r="5" spans="1:28" s="4" customFormat="1" ht="24">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
         <v>0</v>
@@ -5888,10 +5950,10 @@
       <c r="V8" s="21">
         <v>623.11096950315562</v>
       </c>
-      <c r="W8" s="179">
+      <c r="W8" s="21">
         <v>713.07316813955595</v>
       </c>
-      <c r="X8" s="179">
+      <c r="X8" s="21">
         <v>751.1809489984912</v>
       </c>
       <c r="Y8" s="21">
@@ -6251,7 +6313,7 @@
         <v>77.641328460708905</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="4" customFormat="1" ht="11.4">
+    <row r="13" spans="1:28" s="4" customFormat="1" ht="12">
       <c r="A13" s="26"/>
       <c r="B13" s="10"/>
       <c r="C13" s="18">
@@ -6353,7 +6415,7 @@
         <v>10.534362570066071</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="4" customFormat="1" ht="13.8">
+    <row r="14" spans="1:28" s="4" customFormat="1" ht="13.5">
       <c r="A14" s="8" t="s">
         <v>10</v>
       </c>
@@ -6745,7 +6807,7 @@
         <f t="shared" si="11"/>
         <v>517.99703253337611</v>
       </c>
-      <c r="O18" s="178">
+      <c r="O18" s="55">
         <v>123.85964912280703</v>
       </c>
       <c r="Q18" s="21">
@@ -6850,7 +6912,7 @@
         <f t="shared" si="11"/>
         <v>569.19378705619715</v>
       </c>
-      <c r="O19" s="178">
+      <c r="O19" s="55">
         <v>124.6783626</v>
       </c>
       <c r="Q19" s="21">
@@ -7159,7 +7221,7 @@
       </c>
     </row>
     <row r="24" spans="1:29">
-      <c r="O24" s="260" t="s">
+      <c r="O24" s="224" t="s">
         <v>119</v>
       </c>
     </row>
@@ -7192,18 +7254,18 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="2" customWidth="1"/>
-    <col min="3" max="5" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="2.77734375" customWidth="1"/>
-    <col min="7" max="9" width="11.77734375" customWidth="1"/>
-    <col min="10" max="10" width="2.77734375" customWidth="1"/>
-    <col min="11" max="13" width="11.77734375" customWidth="1"/>
-    <col min="14" max="14" width="2.77734375" customWidth="1"/>
-    <col min="15" max="17" width="11.77734375" customWidth="1"/>
-    <col min="18" max="30" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="7" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="11" max="13" width="11.7109375" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" customWidth="1"/>
+    <col min="15" max="17" width="11.7109375" customWidth="1"/>
+    <col min="18" max="30" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="107" customFormat="1" ht="18" customHeight="1">
@@ -7247,31 +7309,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="109" customFormat="1" ht="16.05" customHeight="1" thickTop="1">
+    <row r="4" spans="1:17" s="109" customFormat="1" ht="16.149999999999999" customHeight="1" thickTop="1">
       <c r="B4" s="110"/>
-      <c r="C4" s="279" t="s">
+      <c r="C4" s="240" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="240"/>
       <c r="F4" s="111"/>
-      <c r="G4" s="279" t="s">
+      <c r="G4" s="240" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="279"/>
-      <c r="I4" s="279"/>
+      <c r="H4" s="240"/>
+      <c r="I4" s="240"/>
       <c r="J4" s="111"/>
-      <c r="K4" s="279" t="s">
+      <c r="K4" s="240" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="279"/>
-      <c r="M4" s="279"/>
+      <c r="L4" s="240"/>
+      <c r="M4" s="240"/>
       <c r="N4" s="111"/>
-      <c r="O4" s="279" t="s">
+      <c r="O4" s="240" t="s">
         <v>69</v>
       </c>
-      <c r="P4" s="279"/>
-      <c r="Q4" s="279"/>
+      <c r="P4" s="240"/>
+      <c r="Q4" s="240"/>
     </row>
     <row r="5" spans="1:17" s="109" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="112"/>
@@ -8758,19 +8820,19 @@
       <c r="AB34" s="148"/>
       <c r="AC34" s="146"/>
       <c r="AD34" s="161"/>
-      <c r="AE34" s="194"/>
-      <c r="AF34" s="194"/>
-      <c r="AG34" s="194"/>
+      <c r="AE34" s="185"/>
+      <c r="AF34" s="185"/>
+      <c r="AG34" s="185"/>
       <c r="AH34" s="162"/>
-      <c r="AI34" s="194"/>
-      <c r="AJ34" s="194"/>
-      <c r="AK34" s="194"/>
-      <c r="AM34" s="194"/>
-      <c r="AN34" s="194"/>
-      <c r="AO34" s="194"/>
-      <c r="AQ34" s="194"/>
-      <c r="AR34" s="194"/>
-      <c r="AS34" s="194"/>
+      <c r="AI34" s="185"/>
+      <c r="AJ34" s="185"/>
+      <c r="AK34" s="185"/>
+      <c r="AM34" s="185"/>
+      <c r="AN34" s="185"/>
+      <c r="AO34" s="185"/>
+      <c r="AQ34" s="185"/>
+      <c r="AR34" s="185"/>
+      <c r="AS34" s="185"/>
     </row>
     <row r="35" spans="1:45" s="109" customFormat="1" ht="12.75" customHeight="1">
       <c r="A35" s="116"/>
@@ -8841,19 +8903,19 @@
       <c r="AB35" s="148"/>
       <c r="AC35" s="148"/>
       <c r="AD35" s="148"/>
-      <c r="AE35" s="194"/>
-      <c r="AF35" s="194"/>
-      <c r="AG35" s="194"/>
+      <c r="AE35" s="185"/>
+      <c r="AF35" s="185"/>
+      <c r="AG35" s="185"/>
       <c r="AH35" s="162"/>
-      <c r="AI35" s="194"/>
-      <c r="AJ35" s="194"/>
-      <c r="AK35" s="194"/>
-      <c r="AM35" s="194"/>
-      <c r="AN35" s="194"/>
-      <c r="AO35" s="194"/>
-      <c r="AQ35" s="194"/>
-      <c r="AR35" s="194"/>
-      <c r="AS35" s="194"/>
+      <c r="AI35" s="185"/>
+      <c r="AJ35" s="185"/>
+      <c r="AK35" s="185"/>
+      <c r="AM35" s="185"/>
+      <c r="AN35" s="185"/>
+      <c r="AO35" s="185"/>
+      <c r="AQ35" s="185"/>
+      <c r="AR35" s="185"/>
+      <c r="AS35" s="185"/>
     </row>
     <row r="36" spans="1:45" s="109" customFormat="1" ht="12.75" customHeight="1">
       <c r="A36" s="116"/>
@@ -8924,19 +8986,19 @@
       <c r="AB36" s="148"/>
       <c r="AC36" s="148"/>
       <c r="AD36" s="161"/>
-      <c r="AE36" s="194"/>
-      <c r="AF36" s="194"/>
-      <c r="AG36" s="194"/>
+      <c r="AE36" s="185"/>
+      <c r="AF36" s="185"/>
+      <c r="AG36" s="185"/>
       <c r="AH36" s="162"/>
-      <c r="AI36" s="194"/>
-      <c r="AJ36" s="194"/>
-      <c r="AK36" s="194"/>
-      <c r="AM36" s="194"/>
-      <c r="AN36" s="194"/>
-      <c r="AO36" s="194"/>
-      <c r="AQ36" s="194"/>
-      <c r="AR36" s="194"/>
-      <c r="AS36" s="194"/>
+      <c r="AI36" s="185"/>
+      <c r="AJ36" s="185"/>
+      <c r="AK36" s="185"/>
+      <c r="AM36" s="185"/>
+      <c r="AN36" s="185"/>
+      <c r="AO36" s="185"/>
+      <c r="AQ36" s="185"/>
+      <c r="AR36" s="185"/>
+      <c r="AS36" s="185"/>
     </row>
     <row r="37" spans="1:45" s="109" customFormat="1" ht="12.75" customHeight="1">
       <c r="A37" s="125" t="s">
@@ -10892,119 +10954,119 @@
       <c r="R72"/>
     </row>
     <row r="73" spans="1:31" ht="36" customHeight="1">
-      <c r="B73" s="281" t="s">
+      <c r="B73" s="242" t="s">
         <v>57</v>
       </c>
-      <c r="C73" s="281"/>
-      <c r="D73" s="281"/>
-      <c r="E73" s="281"/>
-      <c r="F73" s="281"/>
-      <c r="G73" s="281"/>
-      <c r="H73" s="281"/>
-      <c r="I73" s="281"/>
-      <c r="J73" s="281"/>
-      <c r="K73" s="281"/>
-      <c r="L73" s="281"/>
-      <c r="M73" s="281"/>
-      <c r="N73" s="191"/>
-      <c r="O73" s="191"/>
-      <c r="P73" s="191"/>
-      <c r="Q73" s="191"/>
+      <c r="C73" s="242"/>
+      <c r="D73" s="242"/>
+      <c r="E73" s="242"/>
+      <c r="F73" s="242"/>
+      <c r="G73" s="242"/>
+      <c r="H73" s="242"/>
+      <c r="I73" s="242"/>
+      <c r="J73" s="242"/>
+      <c r="K73" s="242"/>
+      <c r="L73" s="242"/>
+      <c r="M73" s="242"/>
+      <c r="N73" s="168"/>
+      <c r="O73" s="168"/>
+      <c r="P73" s="168"/>
+      <c r="Q73" s="168"/>
       <c r="S73" s="99"/>
       <c r="T73" s="99"/>
       <c r="U73" s="99"/>
     </row>
     <row r="74" spans="1:31" ht="12" customHeight="1">
-      <c r="B74" s="282" t="s">
+      <c r="B74" s="243" t="s">
         <v>51</v>
       </c>
-      <c r="C74" s="282"/>
-      <c r="D74" s="282"/>
-      <c r="E74" s="282"/>
-      <c r="F74" s="282"/>
-      <c r="G74" s="282"/>
-      <c r="H74" s="282"/>
-      <c r="I74" s="282"/>
-      <c r="J74" s="282"/>
-      <c r="K74" s="282"/>
-      <c r="L74" s="282"/>
-      <c r="M74" s="282"/>
-      <c r="N74" s="192"/>
-      <c r="O74" s="192"/>
-      <c r="P74" s="192"/>
-      <c r="Q74" s="192"/>
+      <c r="C74" s="243"/>
+      <c r="D74" s="243"/>
+      <c r="E74" s="243"/>
+      <c r="F74" s="243"/>
+      <c r="G74" s="243"/>
+      <c r="H74" s="243"/>
+      <c r="I74" s="243"/>
+      <c r="J74" s="243"/>
+      <c r="K74" s="243"/>
+      <c r="L74" s="243"/>
+      <c r="M74" s="243"/>
+      <c r="N74" s="169"/>
+      <c r="O74" s="169"/>
+      <c r="P74" s="169"/>
+      <c r="Q74" s="169"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
     </row>
     <row r="75" spans="1:31" ht="24" customHeight="1">
-      <c r="B75" s="281" t="s">
+      <c r="B75" s="242" t="s">
         <v>52</v>
       </c>
-      <c r="C75" s="281"/>
-      <c r="D75" s="281"/>
-      <c r="E75" s="281"/>
-      <c r="F75" s="281"/>
-      <c r="G75" s="281"/>
-      <c r="H75" s="281"/>
-      <c r="I75" s="281"/>
-      <c r="J75" s="281"/>
-      <c r="K75" s="281"/>
-      <c r="L75" s="281"/>
-      <c r="M75" s="281"/>
-      <c r="N75" s="191"/>
-      <c r="O75" s="191"/>
-      <c r="P75" s="191"/>
-      <c r="Q75" s="191"/>
+      <c r="C75" s="242"/>
+      <c r="D75" s="242"/>
+      <c r="E75" s="242"/>
+      <c r="F75" s="242"/>
+      <c r="G75" s="242"/>
+      <c r="H75" s="242"/>
+      <c r="I75" s="242"/>
+      <c r="J75" s="242"/>
+      <c r="K75" s="242"/>
+      <c r="L75" s="242"/>
+      <c r="M75" s="242"/>
+      <c r="N75" s="168"/>
+      <c r="O75" s="168"/>
+      <c r="P75" s="168"/>
+      <c r="Q75" s="168"/>
       <c r="R75" s="99"/>
       <c r="S75" s="99"/>
       <c r="T75" s="99"/>
       <c r="U75" s="99"/>
     </row>
     <row r="76" spans="1:31" ht="12" customHeight="1">
-      <c r="B76" s="283" t="s">
+      <c r="B76" s="244" t="s">
         <v>53</v>
       </c>
-      <c r="C76" s="283"/>
-      <c r="D76" s="283"/>
-      <c r="E76" s="283"/>
-      <c r="F76" s="283"/>
-      <c r="G76" s="283"/>
-      <c r="H76" s="283"/>
-      <c r="I76" s="283"/>
-      <c r="J76" s="283"/>
-      <c r="K76" s="283"/>
-      <c r="L76" s="283"/>
-      <c r="M76" s="283"/>
-      <c r="N76" s="193"/>
-      <c r="O76" s="193"/>
-      <c r="P76" s="193"/>
-      <c r="Q76" s="193"/>
+      <c r="C76" s="244"/>
+      <c r="D76" s="244"/>
+      <c r="E76" s="244"/>
+      <c r="F76" s="244"/>
+      <c r="G76" s="244"/>
+      <c r="H76" s="244"/>
+      <c r="I76" s="244"/>
+      <c r="J76" s="244"/>
+      <c r="K76" s="244"/>
+      <c r="L76" s="244"/>
+      <c r="M76" s="244"/>
+      <c r="N76" s="170"/>
+      <c r="O76" s="170"/>
+      <c r="P76" s="170"/>
+      <c r="Q76" s="170"/>
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
     </row>
     <row r="77" spans="1:31" ht="24" customHeight="1">
-      <c r="B77" s="281" t="s">
+      <c r="B77" s="242" t="s">
         <v>56</v>
       </c>
-      <c r="C77" s="281"/>
-      <c r="D77" s="281"/>
-      <c r="E77" s="281"/>
-      <c r="F77" s="281"/>
-      <c r="G77" s="281"/>
-      <c r="H77" s="281"/>
-      <c r="I77" s="281"/>
-      <c r="J77" s="281"/>
-      <c r="K77" s="281"/>
-      <c r="L77" s="281"/>
-      <c r="M77" s="281"/>
-      <c r="N77" s="191"/>
-      <c r="O77" s="191"/>
-      <c r="P77" s="191"/>
-      <c r="Q77" s="191"/>
+      <c r="C77" s="242"/>
+      <c r="D77" s="242"/>
+      <c r="E77" s="242"/>
+      <c r="F77" s="242"/>
+      <c r="G77" s="242"/>
+      <c r="H77" s="242"/>
+      <c r="I77" s="242"/>
+      <c r="J77" s="242"/>
+      <c r="K77" s="242"/>
+      <c r="L77" s="242"/>
+      <c r="M77" s="242"/>
+      <c r="N77" s="168"/>
+      <c r="O77" s="168"/>
+      <c r="P77" s="168"/>
+      <c r="Q77" s="168"/>
       <c r="R77" s="100"/>
       <c r="S77" s="100"/>
       <c r="T77" s="100"/>
@@ -11033,24 +11095,24 @@
       <c r="U78" s="4"/>
     </row>
     <row r="79" spans="1:31" ht="12" customHeight="1">
-      <c r="B79" s="282" t="s">
+      <c r="B79" s="243" t="s">
         <v>54</v>
       </c>
-      <c r="C79" s="282"/>
-      <c r="D79" s="282"/>
-      <c r="E79" s="282"/>
-      <c r="F79" s="282"/>
-      <c r="G79" s="282"/>
-      <c r="H79" s="282"/>
-      <c r="I79" s="282"/>
-      <c r="J79" s="282"/>
-      <c r="K79" s="282"/>
-      <c r="L79" s="282"/>
-      <c r="M79" s="282"/>
-      <c r="N79" s="192"/>
-      <c r="O79" s="192"/>
-      <c r="P79" s="192"/>
-      <c r="Q79" s="192"/>
+      <c r="C79" s="243"/>
+      <c r="D79" s="243"/>
+      <c r="E79" s="243"/>
+      <c r="F79" s="243"/>
+      <c r="G79" s="243"/>
+      <c r="H79" s="243"/>
+      <c r="I79" s="243"/>
+      <c r="J79" s="243"/>
+      <c r="K79" s="243"/>
+      <c r="L79" s="243"/>
+      <c r="M79" s="243"/>
+      <c r="N79" s="169"/>
+      <c r="O79" s="169"/>
+      <c r="P79" s="169"/>
+      <c r="Q79" s="169"/>
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
@@ -11058,24 +11120,24 @@
     </row>
     <row r="80" spans="1:31" ht="12" customHeight="1">
       <c r="A80" s="29"/>
-      <c r="B80" s="280" t="s">
+      <c r="B80" s="241" t="s">
         <v>55</v>
       </c>
-      <c r="C80" s="280"/>
-      <c r="D80" s="280"/>
-      <c r="E80" s="280"/>
-      <c r="F80" s="280"/>
-      <c r="G80" s="280"/>
-      <c r="H80" s="280"/>
-      <c r="I80" s="280"/>
-      <c r="J80" s="280"/>
-      <c r="K80" s="280"/>
-      <c r="L80" s="280"/>
-      <c r="M80" s="280"/>
-      <c r="N80" s="190"/>
-      <c r="O80" s="190"/>
-      <c r="P80" s="190"/>
-      <c r="Q80" s="190"/>
+      <c r="C80" s="241"/>
+      <c r="D80" s="241"/>
+      <c r="E80" s="241"/>
+      <c r="F80" s="241"/>
+      <c r="G80" s="241"/>
+      <c r="H80" s="241"/>
+      <c r="I80" s="241"/>
+      <c r="J80" s="241"/>
+      <c r="K80" s="241"/>
+      <c r="L80" s="241"/>
+      <c r="M80" s="241"/>
+      <c r="N80" s="167"/>
+      <c r="O80" s="167"/>
+      <c r="P80" s="167"/>
+      <c r="Q80" s="167"/>
       <c r="R80" s="101"/>
       <c r="S80" s="101"/>
       <c r="T80" s="101"/>
@@ -11126,18 +11188,18 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="2" customWidth="1"/>
-    <col min="3" max="5" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="2.77734375" customWidth="1"/>
-    <col min="7" max="9" width="11.77734375" customWidth="1"/>
-    <col min="10" max="10" width="2.77734375" customWidth="1"/>
-    <col min="11" max="13" width="11.77734375" customWidth="1"/>
-    <col min="14" max="14" width="2.77734375" customWidth="1"/>
-    <col min="15" max="17" width="11.77734375" customWidth="1"/>
-    <col min="18" max="18" width="8.77734375" style="50" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="7" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="11" max="13" width="11.7109375" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" customWidth="1"/>
+    <col min="15" max="17" width="11.7109375" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" style="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
@@ -11206,32 +11268,32 @@
       </c>
       <c r="R3" s="135"/>
     </row>
-    <row r="4" spans="1:18" ht="16.05" customHeight="1" thickTop="1">
+    <row r="4" spans="1:18" ht="16.149999999999999" customHeight="1" thickTop="1">
       <c r="A4" s="109"/>
       <c r="B4" s="110"/>
-      <c r="C4" s="279" t="s">
+      <c r="C4" s="240" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="284"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="245"/>
       <c r="F4" s="111"/>
-      <c r="G4" s="284" t="s">
+      <c r="G4" s="245" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="284"/>
-      <c r="I4" s="284"/>
+      <c r="H4" s="245"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="111"/>
-      <c r="K4" s="279" t="s">
+      <c r="K4" s="240" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="279"/>
-      <c r="M4" s="279"/>
+      <c r="L4" s="240"/>
+      <c r="M4" s="240"/>
       <c r="N4" s="111"/>
-      <c r="O4" s="279" t="s">
+      <c r="O4" s="240" t="s">
         <v>69</v>
       </c>
-      <c r="P4" s="279"/>
-      <c r="Q4" s="279"/>
+      <c r="P4" s="240"/>
+      <c r="Q4" s="240"/>
       <c r="R4" s="137"/>
     </row>
     <row r="5" spans="1:18" ht="24" customHeight="1">
@@ -11305,43 +11367,43 @@
       <c r="B7" s="119">
         <v>2004</v>
       </c>
-      <c r="C7" s="172">
+      <c r="C7" s="120">
         <v>346</v>
       </c>
-      <c r="D7" s="172">
+      <c r="D7" s="120">
         <v>410</v>
       </c>
-      <c r="E7" s="172" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="172"/>
-      <c r="G7" s="172">
+      <c r="E7" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120">
         <v>329</v>
       </c>
-      <c r="H7" s="172">
+      <c r="H7" s="120">
         <v>391</v>
       </c>
-      <c r="I7" s="174" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="172"/>
-      <c r="K7" s="172">
+      <c r="I7" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120">
         <v>350</v>
       </c>
-      <c r="L7" s="172">
+      <c r="L7" s="120">
         <v>395</v>
       </c>
-      <c r="M7" s="172" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="172"/>
-      <c r="O7" s="172" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7" s="172" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="172" t="s">
+      <c r="M7" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="120" t="s">
         <v>6</v>
       </c>
       <c r="R7" s="137"/>
@@ -11351,43 +11413,43 @@
       <c r="B8" s="119">
         <v>2005</v>
       </c>
-      <c r="C8" s="172">
+      <c r="C8" s="120">
         <v>380</v>
       </c>
-      <c r="D8" s="172">
+      <c r="D8" s="120">
         <v>441</v>
       </c>
-      <c r="E8" s="172">
+      <c r="E8" s="120">
         <v>460</v>
       </c>
-      <c r="F8" s="172"/>
-      <c r="G8" s="172">
+      <c r="F8" s="120"/>
+      <c r="G8" s="120">
         <v>360</v>
       </c>
-      <c r="H8" s="172">
+      <c r="H8" s="120">
         <v>419</v>
       </c>
-      <c r="I8" s="174">
+      <c r="I8" s="124">
         <v>447</v>
       </c>
-      <c r="J8" s="172"/>
-      <c r="K8" s="172">
+      <c r="J8" s="120"/>
+      <c r="K8" s="120">
         <v>386</v>
       </c>
-      <c r="L8" s="172">
+      <c r="L8" s="120">
         <v>428</v>
       </c>
-      <c r="M8" s="172">
+      <c r="M8" s="120">
         <v>448</v>
       </c>
-      <c r="N8" s="172"/>
-      <c r="O8" s="172" t="s">
-        <v>6</v>
-      </c>
-      <c r="P8" s="172" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="172" t="s">
+      <c r="N8" s="120"/>
+      <c r="O8" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="120" t="s">
         <v>6</v>
       </c>
       <c r="R8" s="137"/>
@@ -11413,7 +11475,7 @@
       <c r="H9" s="123">
         <v>468</v>
       </c>
-      <c r="I9" s="175">
+      <c r="I9" s="172">
         <v>461</v>
       </c>
       <c r="J9" s="123"/>
@@ -12119,7 +12181,7 @@
         <f>calc!AD38</f>
         <v>6.6172034978975951</v>
       </c>
-      <c r="N24" s="173"/>
+      <c r="N24" s="171"/>
       <c r="O24" s="129">
         <f>calc!AF38</f>
         <v>12.503121297469896</v>
@@ -12160,43 +12222,43 @@
       <c r="B26" s="119">
         <v>2004</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="120">
         <v>397</v>
       </c>
-      <c r="D26" s="172">
+      <c r="D26" s="120">
         <v>471</v>
       </c>
-      <c r="E26" s="172" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172">
+      <c r="E26" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120">
         <v>378</v>
       </c>
-      <c r="H26" s="172">
+      <c r="H26" s="120">
         <v>449</v>
       </c>
-      <c r="I26" s="174" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="172"/>
-      <c r="K26" s="172">
+      <c r="I26" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="120"/>
+      <c r="K26" s="120">
         <v>402</v>
       </c>
-      <c r="L26" s="172">
+      <c r="L26" s="120">
         <v>453</v>
       </c>
-      <c r="M26" s="172" t="s">
-        <v>6</v>
-      </c>
-      <c r="N26" s="172"/>
-      <c r="O26" s="172" t="s">
-        <v>6</v>
-      </c>
-      <c r="P26" s="172" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q26" s="172" t="s">
+      <c r="M26" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="120"/>
+      <c r="O26" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q26" s="120" t="s">
         <v>6</v>
       </c>
       <c r="R26" s="150"/>
@@ -12206,43 +12268,43 @@
       <c r="B27" s="119">
         <v>2005</v>
       </c>
-      <c r="C27" s="172">
+      <c r="C27" s="120">
         <v>426</v>
       </c>
-      <c r="D27" s="172">
+      <c r="D27" s="120">
         <v>494</v>
       </c>
-      <c r="E27" s="172">
+      <c r="E27" s="120">
         <v>515</v>
       </c>
-      <c r="F27" s="172"/>
-      <c r="G27" s="172">
+      <c r="F27" s="120"/>
+      <c r="G27" s="120">
         <v>403</v>
       </c>
-      <c r="H27" s="172">
+      <c r="H27" s="120">
         <v>470</v>
       </c>
-      <c r="I27" s="174">
+      <c r="I27" s="124">
         <v>501</v>
       </c>
-      <c r="J27" s="172"/>
-      <c r="K27" s="172">
+      <c r="J27" s="120"/>
+      <c r="K27" s="120">
         <v>433</v>
       </c>
-      <c r="L27" s="172">
+      <c r="L27" s="120">
         <v>480</v>
       </c>
-      <c r="M27" s="172">
+      <c r="M27" s="120">
         <v>502</v>
       </c>
-      <c r="N27" s="172"/>
-      <c r="O27" s="172" t="s">
-        <v>6</v>
-      </c>
-      <c r="P27" s="172" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q27" s="172" t="s">
+      <c r="N27" s="120"/>
+      <c r="O27" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="P27" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="120" t="s">
         <v>6</v>
       </c>
       <c r="R27" s="150"/>
@@ -12268,7 +12330,7 @@
       <c r="H28" s="123">
         <v>509</v>
       </c>
-      <c r="I28" s="175">
+      <c r="I28" s="172">
         <v>501</v>
       </c>
       <c r="J28" s="123"/>
@@ -13010,66 +13072,66 @@
       <c r="R44" s="135"/>
     </row>
     <row r="45" spans="1:18" ht="48" customHeight="1">
-      <c r="B45" s="281" t="s">
+      <c r="B45" s="242" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="281"/>
-      <c r="D45" s="281"/>
-      <c r="E45" s="281"/>
-      <c r="F45" s="281"/>
-      <c r="G45" s="281"/>
-      <c r="H45" s="281"/>
-      <c r="I45" s="281"/>
-      <c r="J45" s="281"/>
-      <c r="K45" s="281"/>
-      <c r="L45" s="281"/>
-      <c r="M45" s="281"/>
+      <c r="C45" s="242"/>
+      <c r="D45" s="242"/>
+      <c r="E45" s="242"/>
+      <c r="F45" s="242"/>
+      <c r="G45" s="242"/>
+      <c r="H45" s="242"/>
+      <c r="I45" s="242"/>
+      <c r="J45" s="242"/>
+      <c r="K45" s="242"/>
+      <c r="L45" s="242"/>
+      <c r="M45" s="242"/>
       <c r="N45" s="120"/>
-      <c r="O45" s="169"/>
-      <c r="P45" s="169"/>
-      <c r="Q45" s="169"/>
+      <c r="O45" s="168"/>
+      <c r="P45" s="168"/>
+      <c r="Q45" s="168"/>
       <c r="R45" s="99"/>
     </row>
     <row r="46" spans="1:18" ht="12" customHeight="1">
-      <c r="B46" s="282" t="s">
+      <c r="B46" s="243" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="282"/>
-      <c r="D46" s="282"/>
-      <c r="E46" s="282"/>
-      <c r="F46" s="282"/>
-      <c r="G46" s="282"/>
-      <c r="H46" s="282"/>
-      <c r="I46" s="282"/>
-      <c r="J46" s="282"/>
-      <c r="K46" s="282"/>
-      <c r="L46" s="282"/>
-      <c r="M46" s="282"/>
+      <c r="C46" s="243"/>
+      <c r="D46" s="243"/>
+      <c r="E46" s="243"/>
+      <c r="F46" s="243"/>
+      <c r="G46" s="243"/>
+      <c r="H46" s="243"/>
+      <c r="I46" s="243"/>
+      <c r="J46" s="243"/>
+      <c r="K46" s="243"/>
+      <c r="L46" s="243"/>
+      <c r="M46" s="243"/>
       <c r="N46" s="120"/>
-      <c r="O46" s="170"/>
-      <c r="P46" s="170"/>
-      <c r="Q46" s="170"/>
+      <c r="O46" s="169"/>
+      <c r="P46" s="169"/>
+      <c r="Q46" s="169"/>
       <c r="R46" s="4"/>
     </row>
     <row r="47" spans="1:18" ht="24" customHeight="1">
-      <c r="B47" s="281" t="s">
+      <c r="B47" s="242" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="281"/>
-      <c r="D47" s="281"/>
-      <c r="E47" s="281"/>
-      <c r="F47" s="281"/>
-      <c r="G47" s="281"/>
-      <c r="H47" s="281"/>
-      <c r="I47" s="281"/>
-      <c r="J47" s="281"/>
-      <c r="K47" s="281"/>
-      <c r="L47" s="281"/>
-      <c r="M47" s="281"/>
+      <c r="C47" s="242"/>
+      <c r="D47" s="242"/>
+      <c r="E47" s="242"/>
+      <c r="F47" s="242"/>
+      <c r="G47" s="242"/>
+      <c r="H47" s="242"/>
+      <c r="I47" s="242"/>
+      <c r="J47" s="242"/>
+      <c r="K47" s="242"/>
+      <c r="L47" s="242"/>
+      <c r="M47" s="242"/>
       <c r="N47" s="120"/>
-      <c r="O47" s="169"/>
-      <c r="P47" s="169"/>
-      <c r="Q47" s="169"/>
+      <c r="O47" s="168"/>
+      <c r="P47" s="168"/>
+      <c r="Q47" s="168"/>
       <c r="R47" s="99"/>
     </row>
     <row r="48" spans="1:18" ht="12" customHeight="1">
@@ -13087,30 +13149,30 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="N48" s="120"/>
-      <c r="O48" s="171"/>
-      <c r="P48" s="171"/>
-      <c r="Q48" s="171"/>
+      <c r="O48" s="170"/>
+      <c r="P48" s="170"/>
+      <c r="Q48" s="170"/>
       <c r="R48"/>
     </row>
     <row r="49" spans="1:18" ht="24" customHeight="1">
-      <c r="B49" s="281" t="s">
+      <c r="B49" s="242" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="281"/>
-      <c r="D49" s="281"/>
-      <c r="E49" s="281"/>
-      <c r="F49" s="281"/>
-      <c r="G49" s="281"/>
-      <c r="H49" s="281"/>
-      <c r="I49" s="281"/>
-      <c r="J49" s="281"/>
-      <c r="K49" s="281"/>
-      <c r="L49" s="281"/>
-      <c r="M49" s="281"/>
+      <c r="C49" s="242"/>
+      <c r="D49" s="242"/>
+      <c r="E49" s="242"/>
+      <c r="F49" s="242"/>
+      <c r="G49" s="242"/>
+      <c r="H49" s="242"/>
+      <c r="I49" s="242"/>
+      <c r="J49" s="242"/>
+      <c r="K49" s="242"/>
+      <c r="L49" s="242"/>
+      <c r="M49" s="242"/>
       <c r="N49" s="120"/>
-      <c r="O49" s="169"/>
-      <c r="P49" s="169"/>
-      <c r="Q49" s="169"/>
+      <c r="O49" s="168"/>
+      <c r="P49" s="168"/>
+      <c r="Q49" s="168"/>
       <c r="R49" s="99"/>
     </row>
     <row r="50" spans="1:18" ht="12" customHeight="1">
@@ -13133,45 +13195,45 @@
       <c r="R50" s="22"/>
     </row>
     <row r="51" spans="1:18" ht="12" customHeight="1">
-      <c r="B51" s="282" t="s">
+      <c r="B51" s="243" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="282"/>
-      <c r="D51" s="282"/>
-      <c r="E51" s="282"/>
-      <c r="F51" s="282"/>
-      <c r="G51" s="282"/>
-      <c r="H51" s="282"/>
-      <c r="I51" s="282"/>
-      <c r="J51" s="282"/>
-      <c r="K51" s="282"/>
-      <c r="L51" s="282"/>
-      <c r="M51" s="282"/>
+      <c r="C51" s="243"/>
+      <c r="D51" s="243"/>
+      <c r="E51" s="243"/>
+      <c r="F51" s="243"/>
+      <c r="G51" s="243"/>
+      <c r="H51" s="243"/>
+      <c r="I51" s="243"/>
+      <c r="J51" s="243"/>
+      <c r="K51" s="243"/>
+      <c r="L51" s="243"/>
+      <c r="M51" s="243"/>
       <c r="N51" s="120"/>
-      <c r="O51" s="170"/>
-      <c r="P51" s="170"/>
-      <c r="Q51" s="170"/>
+      <c r="O51" s="169"/>
+      <c r="P51" s="169"/>
+      <c r="Q51" s="169"/>
       <c r="R51" s="4"/>
     </row>
     <row r="52" spans="1:18" ht="12" customHeight="1">
-      <c r="B52" s="280" t="s">
+      <c r="B52" s="241" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="280"/>
-      <c r="D52" s="280"/>
-      <c r="E52" s="280"/>
-      <c r="F52" s="280"/>
-      <c r="G52" s="280"/>
-      <c r="H52" s="280"/>
-      <c r="I52" s="280"/>
-      <c r="J52" s="280"/>
-      <c r="K52" s="280"/>
-      <c r="L52" s="280"/>
-      <c r="M52" s="280"/>
+      <c r="C52" s="241"/>
+      <c r="D52" s="241"/>
+      <c r="E52" s="241"/>
+      <c r="F52" s="241"/>
+      <c r="G52" s="241"/>
+      <c r="H52" s="241"/>
+      <c r="I52" s="241"/>
+      <c r="J52" s="241"/>
+      <c r="K52" s="241"/>
+      <c r="L52" s="241"/>
+      <c r="M52" s="241"/>
       <c r="N52" s="120"/>
-      <c r="O52" s="168"/>
-      <c r="P52" s="168"/>
-      <c r="Q52" s="168"/>
+      <c r="O52" s="167"/>
+      <c r="P52" s="167"/>
+      <c r="Q52" s="167"/>
       <c r="R52" s="101"/>
     </row>
     <row r="53" spans="1:18" ht="12" customHeight="1">
@@ -13231,35 +13293,35 @@
     <row r="70" spans="14:14">
       <c r="N70" s="128"/>
     </row>
-    <row r="71" spans="14:14" ht="13.8" thickBot="1">
+    <row r="71" spans="14:14" ht="13.5" thickBot="1">
       <c r="N71" s="134"/>
     </row>
-    <row r="72" spans="14:14" ht="13.8" thickTop="1">
+    <row r="72" spans="14:14" ht="13.5" thickTop="1">
       <c r="N72" s="130"/>
     </row>
     <row r="73" spans="14:14">
-      <c r="N73" s="169"/>
+      <c r="N73" s="168"/>
     </row>
     <row r="74" spans="14:14">
-      <c r="N74" s="170"/>
+      <c r="N74" s="169"/>
     </row>
     <row r="75" spans="14:14">
-      <c r="N75" s="169"/>
+      <c r="N75" s="168"/>
     </row>
     <row r="76" spans="14:14">
-      <c r="N76" s="171"/>
+      <c r="N76" s="170"/>
     </row>
     <row r="77" spans="14:14">
-      <c r="N77" s="169"/>
+      <c r="N77" s="168"/>
     </row>
     <row r="78" spans="14:14">
       <c r="N78" s="9"/>
     </row>
     <row r="79" spans="14:14">
-      <c r="N79" s="170"/>
+      <c r="N79" s="169"/>
     </row>
     <row r="80" spans="14:14">
-      <c r="N80" s="168"/>
+      <c r="N80" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -13296,38 +13358,38 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4" style="36" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" style="64" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="64" customWidth="1"/>
     <col min="3" max="4" width="8" style="36" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" style="36" customWidth="1"/>
-    <col min="6" max="6" width="1.33203125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="36" customWidth="1"/>
+    <col min="6" max="6" width="1.28515625" style="36" customWidth="1"/>
     <col min="7" max="9" width="8" style="36" customWidth="1"/>
-    <col min="10" max="10" width="1.33203125" style="36" customWidth="1"/>
+    <col min="10" max="10" width="1.28515625" style="36" customWidth="1"/>
     <col min="11" max="11" width="8" style="36" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="36" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" style="36" customWidth="1"/>
-    <col min="14" max="14" width="0.77734375" style="36" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="36"/>
+    <col min="12" max="12" width="8.140625" style="36" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="36" customWidth="1"/>
+    <col min="14" max="14" width="0.7109375" style="36" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33.75" customHeight="1">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="246" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="286"/>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
-      <c r="I1" s="286"/>
-      <c r="J1" s="286"/>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="286"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
+      <c r="F1" s="247"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="247"/>
+      <c r="J1" s="247"/>
+      <c r="K1" s="247"/>
+      <c r="L1" s="247"/>
+      <c r="M1" s="247"/>
     </row>
     <row r="2" spans="1:25" ht="6.75" customHeight="1">
       <c r="A2" s="61"/>
@@ -13344,7 +13406,7 @@
       <c r="L2" s="62"/>
       <c r="M2" s="62"/>
     </row>
-    <row r="3" spans="1:25" ht="13.8" thickBot="1">
+    <row r="3" spans="1:25" ht="13.5" thickBot="1">
       <c r="A3" s="63"/>
       <c r="E3" s="63"/>
       <c r="F3" s="63"/>
@@ -13356,27 +13418,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="37" customFormat="1" ht="14.4" thickTop="1">
+    <row r="4" spans="1:25" s="37" customFormat="1" ht="14.25" thickTop="1">
       <c r="B4" s="66"/>
-      <c r="C4" s="287" t="s">
+      <c r="C4" s="248" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="287"/>
-      <c r="E4" s="288"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="249"/>
       <c r="F4" s="67"/>
-      <c r="G4" s="288" t="s">
+      <c r="G4" s="249" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="288"/>
-      <c r="I4" s="288"/>
+      <c r="H4" s="249"/>
+      <c r="I4" s="249"/>
       <c r="J4" s="67"/>
-      <c r="K4" s="287" t="s">
+      <c r="K4" s="248" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="287"/>
-      <c r="M4" s="287"/>
-    </row>
-    <row r="5" spans="1:25" s="37" customFormat="1" ht="22.8">
+      <c r="L4" s="248"/>
+      <c r="M4" s="248"/>
+    </row>
+    <row r="5" spans="1:25" s="37" customFormat="1" ht="36">
       <c r="A5" s="68"/>
       <c r="B5" s="69"/>
       <c r="C5" s="70" t="s">
@@ -14167,7 +14229,7 @@
       <c r="R25" s="77"/>
       <c r="S25" s="77"/>
     </row>
-    <row r="26" spans="1:27" s="37" customFormat="1" ht="11.4">
+    <row r="26" spans="1:27" s="37" customFormat="1" ht="12">
       <c r="A26" s="68"/>
       <c r="B26" s="69" t="s">
         <v>27</v>
@@ -14205,7 +14267,7 @@
       <c r="R26" s="77"/>
       <c r="S26" s="77"/>
     </row>
-    <row r="27" spans="1:27" s="37" customFormat="1" ht="13.8">
+    <row r="27" spans="1:27" s="37" customFormat="1" ht="13.5">
       <c r="A27" s="72" t="s">
         <v>10</v>
       </c>
@@ -14883,7 +14945,7 @@
       <c r="L46" s="85"/>
       <c r="M46" s="85"/>
     </row>
-    <row r="47" spans="1:27" s="37" customFormat="1" ht="12" thickBot="1">
+    <row r="47" spans="1:27" s="37" customFormat="1" thickBot="1">
       <c r="A47" s="87"/>
       <c r="B47" s="88" t="s">
         <v>27</v>
@@ -14918,7 +14980,7 @@
         <v>-4.4000000000000004</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="13.8" thickTop="1">
+    <row r="48" spans="1:27" ht="13.5" thickTop="1">
       <c r="A48" s="38"/>
       <c r="C48" s="64"/>
       <c r="D48" s="64"/>
@@ -14962,41 +15024,41 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="2" customWidth="1"/>
     <col min="3" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" customWidth="1"/>
-    <col min="6" max="6" width="1.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="1.28515625" customWidth="1"/>
     <col min="7" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="1.33203125" customWidth="1"/>
-    <col min="11" max="13" width="8.109375" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" style="50" customWidth="1"/>
-    <col min="15" max="25" width="9.109375" style="50" customWidth="1"/>
+    <col min="10" max="10" width="1.28515625" customWidth="1"/>
+    <col min="11" max="13" width="8.140625" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" style="50" customWidth="1"/>
+    <col min="15" max="25" width="9.140625" style="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="32.25" customHeight="1">
-      <c r="A1" s="276" t="s">
+      <c r="A1" s="237" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="277"/>
-      <c r="C1" s="277"/>
-      <c r="D1" s="277"/>
-      <c r="E1" s="277"/>
-      <c r="F1" s="277"/>
-      <c r="G1" s="277"/>
-      <c r="H1" s="277"/>
-      <c r="I1" s="277"/>
-      <c r="J1" s="277"/>
-      <c r="K1" s="277"/>
-      <c r="L1" s="277"/>
-      <c r="M1" s="277"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
     </row>
     <row r="2" spans="1:28" ht="15">
       <c r="A2" s="15"/>
     </row>
-    <row r="3" spans="1:28" ht="13.8" thickBot="1">
+    <row r="3" spans="1:28" ht="13.5" thickBot="1">
       <c r="A3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -15008,25 +15070,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="4" customFormat="1" ht="12.6" thickTop="1">
+    <row r="4" spans="1:28" s="4" customFormat="1" thickTop="1">
       <c r="B4" s="13"/>
-      <c r="C4" s="275" t="s">
+      <c r="C4" s="236" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="275"/>
-      <c r="E4" s="274"/>
+      <c r="D4" s="236"/>
+      <c r="E4" s="235"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="274" t="s">
+      <c r="G4" s="235" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="274"/>
-      <c r="I4" s="274"/>
+      <c r="H4" s="235"/>
+      <c r="I4" s="235"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="275" t="s">
+      <c r="K4" s="236" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="275"/>
-      <c r="M4" s="275"/>
+      <c r="L4" s="236"/>
+      <c r="M4" s="236"/>
       <c r="N4" s="51"/>
       <c r="O4" s="51"/>
       <c r="P4" s="51"/>
@@ -15040,7 +15102,7 @@
       <c r="X4" s="51"/>
       <c r="Y4" s="51"/>
     </row>
-    <row r="5" spans="1:28" s="4" customFormat="1" ht="22.8">
+    <row r="5" spans="1:28" s="4" customFormat="1" ht="36">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="6" t="s">
@@ -15255,7 +15317,7 @@
       <c r="X9" s="51"/>
       <c r="Y9" s="51"/>
     </row>
-    <row r="10" spans="1:28" s="4" customFormat="1" ht="13.8">
+    <row r="10" spans="1:28" s="4" customFormat="1" ht="13.5">
       <c r="A10" s="8"/>
       <c r="B10" s="48" t="s">
         <v>25</v>
@@ -15716,7 +15778,7 @@
       <c r="AA19"/>
       <c r="AB19"/>
     </row>
-    <row r="20" spans="1:28" s="4" customFormat="1" ht="13.8">
+    <row r="20" spans="1:28" s="4" customFormat="1" ht="13.5">
       <c r="A20" s="8" t="s">
         <v>10</v>
       </c>
@@ -15898,7 +15960,7 @@
       <c r="AA23"/>
       <c r="AB23"/>
     </row>
-    <row r="24" spans="1:28" s="4" customFormat="1" ht="13.8">
+    <row r="24" spans="1:28" s="4" customFormat="1" ht="13.5">
       <c r="A24" s="8"/>
       <c r="B24" s="48" t="s">
         <v>25</v>
@@ -16271,7 +16333,7 @@
       <c r="X31" s="51"/>
       <c r="Y31" s="51"/>
     </row>
-    <row r="32" spans="1:28" s="4" customFormat="1" ht="11.4">
+    <row r="32" spans="1:28" s="4" customFormat="1" ht="12">
       <c r="A32" s="11"/>
       <c r="B32" s="10" t="s">
         <v>27</v>
@@ -16361,42 +16423,42 @@
       <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" customWidth="1"/>
-    <col min="6" max="6" width="1.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" customWidth="1"/>
-    <col min="10" max="10" width="1.33203125" customWidth="1"/>
-    <col min="11" max="13" width="8.33203125" customWidth="1"/>
-    <col min="14" max="14" width="1.33203125" customWidth="1"/>
-    <col min="15" max="17" width="8.33203125" customWidth="1"/>
-    <col min="23" max="23" width="9.77734375" customWidth="1"/>
-    <col min="27" max="27" width="5.33203125" customWidth="1"/>
-    <col min="31" max="31" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="1.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="1.28515625" customWidth="1"/>
+    <col min="11" max="13" width="8.28515625" customWidth="1"/>
+    <col min="14" max="14" width="1.28515625" customWidth="1"/>
+    <col min="15" max="17" width="8.28515625" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" customWidth="1"/>
+    <col min="27" max="27" width="5.28515625" customWidth="1"/>
+    <col min="31" max="31" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="23.25" customHeight="1">
-      <c r="A1" s="276" t="s">
+      <c r="A1" s="237" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="277"/>
-      <c r="C1" s="277"/>
-      <c r="D1" s="277"/>
-      <c r="E1" s="277"/>
-      <c r="F1" s="277"/>
-      <c r="G1" s="277"/>
-      <c r="H1" s="277"/>
-      <c r="I1" s="277"/>
-      <c r="J1" s="277"/>
-      <c r="K1" s="277"/>
-      <c r="L1" s="277"/>
-      <c r="M1" s="277"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
       <c r="N1" s="164"/>
       <c r="O1" s="164"/>
       <c r="P1" s="164"/>
@@ -16410,7 +16472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="13.8" thickBot="1">
+    <row r="3" spans="1:34" ht="13.5" thickBot="1">
       <c r="A3" s="1"/>
       <c r="C3" t="s">
         <v>18</v>
@@ -16430,55 +16492,55 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="4" customFormat="1" ht="14.4" thickTop="1">
+    <row r="4" spans="1:34" s="4" customFormat="1" ht="14.25" thickTop="1">
       <c r="B4" s="13"/>
-      <c r="C4" s="275" t="s">
+      <c r="C4" s="236" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="275"/>
-      <c r="E4" s="274"/>
+      <c r="D4" s="236"/>
+      <c r="E4" s="235"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="274" t="s">
+      <c r="G4" s="235" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="274"/>
-      <c r="I4" s="274"/>
+      <c r="H4" s="235"/>
+      <c r="I4" s="235"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="275" t="s">
+      <c r="K4" s="236" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="275"/>
-      <c r="M4" s="275"/>
+      <c r="L4" s="236"/>
+      <c r="M4" s="236"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="275" t="s">
+      <c r="O4" s="236" t="s">
         <v>69</v>
       </c>
-      <c r="P4" s="275"/>
-      <c r="Q4" s="275"/>
-      <c r="T4" s="275" t="s">
+      <c r="P4" s="236"/>
+      <c r="Q4" s="236"/>
+      <c r="T4" s="236" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="275"/>
-      <c r="V4" s="274"/>
+      <c r="U4" s="236"/>
+      <c r="V4" s="235"/>
       <c r="W4" s="5"/>
-      <c r="X4" s="274" t="s">
+      <c r="X4" s="235" t="s">
         <v>12</v>
       </c>
-      <c r="Y4" s="274"/>
-      <c r="Z4" s="274"/>
+      <c r="Y4" s="235"/>
+      <c r="Z4" s="235"/>
       <c r="AA4" s="5"/>
-      <c r="AB4" s="275" t="s">
+      <c r="AB4" s="236" t="s">
         <v>9</v>
       </c>
-      <c r="AC4" s="275"/>
-      <c r="AD4" s="275"/>
-      <c r="AF4" s="275" t="s">
+      <c r="AC4" s="236"/>
+      <c r="AD4" s="236"/>
+      <c r="AF4" s="236" t="s">
         <v>69</v>
       </c>
-      <c r="AG4" s="275"/>
-      <c r="AH4" s="275"/>
-    </row>
-    <row r="5" spans="1:34" s="4" customFormat="1" ht="22.8">
+      <c r="AG4" s="236"/>
+      <c r="AH4" s="236"/>
+    </row>
+    <row r="5" spans="1:34" s="4" customFormat="1" ht="24">
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
         <v>0</v>
@@ -17338,7 +17400,7 @@
       <c r="AG23"/>
       <c r="AH23"/>
     </row>
-    <row r="24" spans="1:34" s="4" customFormat="1" ht="13.8">
+    <row r="24" spans="1:34" s="4" customFormat="1" ht="13.5">
       <c r="A24" s="8"/>
       <c r="B24" s="47" t="s">
         <v>24</v>
@@ -18383,7 +18445,7 @@
         <v>213.6283028204341</v>
       </c>
     </row>
-    <row r="38" spans="1:34" s="4" customFormat="1" ht="11.4">
+    <row r="38" spans="1:34" s="4" customFormat="1" ht="12">
       <c r="A38" s="26"/>
       <c r="B38" s="10" t="s">
         <v>65</v>
@@ -18492,7 +18554,7 @@
         <v>27.822673896801199</v>
       </c>
     </row>
-    <row r="39" spans="1:34" s="4" customFormat="1" ht="13.8">
+    <row r="39" spans="1:34" s="4" customFormat="1" ht="13.5">
       <c r="A39" s="8" t="s">
         <v>10</v>
       </c>
@@ -21045,32 +21107,32 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="36" customHeight="1">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="207" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="243"/>
-      <c r="I1" s="243"/>
-      <c r="J1" s="243"/>
-      <c r="K1" s="243"/>
-      <c r="L1" s="243"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
       <c r="M1" s="135"/>
       <c r="N1" s="135"/>
       <c r="O1" s="107"/>
     </row>
     <row r="2" spans="1:23" ht="24" customHeight="1">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="186" t="s">
         <v>80</v>
       </c>
       <c r="B2" s="136"/>
@@ -21088,55 +21150,55 @@
       <c r="N2" s="107"/>
       <c r="O2" s="107"/>
     </row>
-    <row r="3" spans="1:23" s="248" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="244" t="s">
+    <row r="3" spans="1:23" s="213" customFormat="1" ht="18" customHeight="1">
+      <c r="A3" s="209" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="245"/>
-      <c r="C3" s="245"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="247"/>
-    </row>
-    <row r="4" spans="1:23" s="248" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="249" t="s">
+      <c r="B3" s="210"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="212"/>
+    </row>
+    <row r="4" spans="1:23" s="213" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="206" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="250"/>
-      <c r="C4" s="250"/>
-      <c r="D4" s="251"/>
-      <c r="E4" s="252"/>
-      <c r="F4" s="252"/>
-      <c r="G4" s="252"/>
-      <c r="H4" s="252"/>
-      <c r="I4" s="252"/>
-      <c r="J4" s="252"/>
-      <c r="K4" s="252"/>
-      <c r="L4" s="252"/>
-      <c r="M4" s="252"/>
-      <c r="N4" s="252"/>
-      <c r="O4" s="252"/>
-    </row>
-    <row r="5" spans="1:23" s="248" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="249" t="s">
+      <c r="B4" s="214"/>
+      <c r="C4" s="214"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="216"/>
+      <c r="I4" s="216"/>
+      <c r="J4" s="216"/>
+      <c r="K4" s="216"/>
+      <c r="L4" s="216"/>
+      <c r="M4" s="216"/>
+      <c r="N4" s="216"/>
+      <c r="O4" s="216"/>
+    </row>
+    <row r="5" spans="1:23" s="213" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="206" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="250"/>
-      <c r="C5" s="250"/>
-      <c r="D5" s="253"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
-      <c r="I5" s="252"/>
-      <c r="J5" s="252"/>
-      <c r="K5" s="252"/>
-      <c r="L5" s="252"/>
-      <c r="M5" s="252"/>
-      <c r="N5" s="252"/>
-      <c r="O5" s="252"/>
+      <c r="B5" s="214"/>
+      <c r="C5" s="214"/>
+      <c r="D5" s="217"/>
+      <c r="E5" s="216"/>
+      <c r="F5" s="216"/>
+      <c r="G5" s="216"/>
+      <c r="H5" s="216"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="216"/>
+      <c r="K5" s="216"/>
+      <c r="L5" s="216"/>
+      <c r="M5" s="216"/>
+      <c r="N5" s="216"/>
+      <c r="O5" s="216"/>
     </row>
     <row r="6" spans="1:23" ht="36" customHeight="1">
-      <c r="A6" s="254" t="s">
+      <c r="A6" s="218" t="s">
         <v>78</v>
       </c>
       <c r="B6" s="15"/>
@@ -21154,8 +21216,8 @@
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
     </row>
-    <row r="7" spans="1:23" ht="16.05" customHeight="1">
-      <c r="A7" s="252" t="s">
+    <row r="7" spans="1:23" ht="16.149999999999999" customHeight="1">
+      <c r="A7" s="216" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="136"/>
@@ -21173,8 +21235,8 @@
       <c r="N7" s="136"/>
       <c r="O7" s="136"/>
     </row>
-    <row r="8" spans="1:23" ht="16.05" customHeight="1">
-      <c r="A8" s="252" t="s">
+    <row r="8" spans="1:23" ht="16.149999999999999" customHeight="1">
+      <c r="A8" s="216" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="136"/>
@@ -21192,8 +21254,8 @@
       <c r="N8" s="136"/>
       <c r="O8" s="136"/>
     </row>
-    <row r="9" spans="1:23" ht="16.05" customHeight="1">
-      <c r="A9" s="252" t="s">
+    <row r="9" spans="1:23" ht="16.149999999999999" customHeight="1">
+      <c r="A9" s="216" t="s">
         <v>115</v>
       </c>
       <c r="B9" s="136"/>
@@ -21212,7 +21274,7 @@
       <c r="O9" s="136"/>
     </row>
     <row r="10" spans="1:23" ht="36" customHeight="1">
-      <c r="A10" s="254" t="s">
+      <c r="A10" s="218" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="15"/>
@@ -21231,7 +21293,7 @@
       <c r="O10" s="15"/>
     </row>
     <row r="11" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A11" s="255" t="s">
+      <c r="A11" s="219" t="s">
         <v>106</v>
       </c>
       <c r="B11" s="136"/>
@@ -21244,7 +21306,7 @@
       <c r="O11" s="136"/>
     </row>
     <row r="12" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A12" s="255" t="s">
+      <c r="A12" s="219" t="s">
         <v>111</v>
       </c>
       <c r="B12" s="136"/>
@@ -21257,7 +21319,7 @@
       <c r="O12" s="136"/>
     </row>
     <row r="13" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A13" s="255" t="s">
+      <c r="A13" s="219" t="s">
         <v>112</v>
       </c>
       <c r="B13" s="136"/>
@@ -21270,7 +21332,7 @@
       <c r="O13" s="136"/>
     </row>
     <row r="14" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A14" s="255" t="s">
+      <c r="A14" s="219" t="s">
         <v>113</v>
       </c>
       <c r="B14" s="136"/>
@@ -21283,7 +21345,7 @@
       <c r="O14" s="136"/>
     </row>
     <row r="15" spans="1:23" ht="16.5" customHeight="1">
-      <c r="A15" s="256" t="s">
+      <c r="A15" s="220" t="s">
         <v>114</v>
       </c>
       <c r="B15" s="136"/>
@@ -21296,17 +21358,17 @@
       <c r="O15" s="136"/>
     </row>
     <row r="16" spans="1:23" ht="36" customHeight="1">
-      <c r="A16" s="240" t="s">
+      <c r="A16" s="205" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="257"/>
-      <c r="C16" s="257"/>
-      <c r="D16" s="257"/>
-      <c r="E16" s="257"/>
-      <c r="F16" s="257"/>
-      <c r="G16" s="257"/>
-      <c r="H16" s="257"/>
-      <c r="I16" s="257"/>
+      <c r="B16" s="221"/>
+      <c r="C16" s="221"/>
+      <c r="D16" s="221"/>
+      <c r="E16" s="221"/>
+      <c r="F16" s="221"/>
+      <c r="G16" s="221"/>
+      <c r="H16" s="221"/>
+      <c r="I16" s="221"/>
       <c r="J16" s="107"/>
       <c r="K16" s="107"/>
       <c r="L16" s="107"/>
@@ -21322,13 +21384,13 @@
       <c r="V16" s="107"/>
       <c r="W16" s="107"/>
     </row>
-    <row r="17" spans="1:23" ht="16.05" customHeight="1">
-      <c r="A17" s="177" t="s">
+    <row r="17" spans="1:23" ht="16.149999999999999" customHeight="1">
+      <c r="A17" s="174" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="16.05" customHeight="1">
-      <c r="A18" s="176" t="s">
+    <row r="18" spans="1:23" ht="16.149999999999999" customHeight="1">
+      <c r="A18" s="173" t="s">
         <v>108</v>
       </c>
       <c r="B18" s="107"/>
@@ -21354,8 +21416,8 @@
       <c r="V18" s="107"/>
       <c r="W18" s="107"/>
     </row>
-    <row r="19" spans="1:23" ht="16.05" customHeight="1">
-      <c r="A19" s="258" t="s">
+    <row r="19" spans="1:23" ht="16.149999999999999" customHeight="1">
+      <c r="A19" s="222" t="s">
         <v>68</v>
       </c>
       <c r="B19" s="107"/>
@@ -21382,17 +21444,17 @@
       <c r="W19" s="107"/>
     </row>
     <row r="20" spans="1:23" ht="36" customHeight="1">
-      <c r="A20" s="248" t="s">
+      <c r="A20" s="213" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="16.05" customHeight="1">
-      <c r="A21" s="176" t="s">
+    <row r="21" spans="1:23" ht="16.149999999999999" customHeight="1">
+      <c r="A21" s="173" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="16.05" customHeight="1">
-      <c r="A22" s="259" t="s">
+    <row r="22" spans="1:23" ht="16.149999999999999" customHeight="1">
+      <c r="A22" s="223" t="s">
         <v>64</v>
       </c>
     </row>
@@ -21417,310 +21479,198 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.6">
-      <c r="A1" s="236" t="s">
+    <row r="1" spans="1:14" ht="15.75">
+      <c r="A1" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
-      <c r="O1" s="200"/>
-      <c r="P1" s="200"/>
-    </row>
-    <row r="2" spans="1:16" ht="15">
-      <c r="A2" s="201" t="s">
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+    </row>
+    <row r="2" spans="1:14" ht="15">
+      <c r="A2" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
-    </row>
-    <row r="3" spans="1:16" ht="15">
-      <c r="A3" s="261" t="s">
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+    </row>
+    <row r="3" spans="1:14" ht="15">
+      <c r="A3" s="225" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="201"/>
-      <c r="C3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="200"/>
-      <c r="P3" s="200"/>
-    </row>
-    <row r="4" spans="1:16" ht="15">
-      <c r="A4" s="261" t="s">
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+    </row>
+    <row r="4" spans="1:14" ht="15">
+      <c r="A4" s="225" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="201"/>
-      <c r="C4" s="201"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="201"/>
-      <c r="G4" s="201"/>
-      <c r="H4" s="201"/>
-      <c r="I4" s="201"/>
-      <c r="J4" s="201"/>
-      <c r="K4" s="201"/>
-      <c r="L4" s="201"/>
-      <c r="M4" s="201"/>
-      <c r="N4" s="201"/>
-      <c r="O4" s="200"/>
-      <c r="P4" s="200"/>
-    </row>
-    <row r="5" spans="1:16" ht="15">
-      <c r="A5" s="261" t="s">
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
+    </row>
+    <row r="5" spans="1:14" ht="15">
+      <c r="A5" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="201"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
-      <c r="H5" s="201"/>
-      <c r="I5" s="201"/>
-      <c r="J5" s="201"/>
-      <c r="K5" s="201"/>
-      <c r="L5" s="201"/>
-      <c r="M5" s="201"/>
-      <c r="N5" s="201"/>
-      <c r="O5" s="200"/>
-      <c r="P5" s="200"/>
-    </row>
-    <row r="6" spans="1:16" ht="15">
-      <c r="A6" s="261" t="s">
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="204"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+    </row>
+    <row r="6" spans="1:14" ht="15">
+      <c r="A6" s="225" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="201"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="239"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="201"/>
-      <c r="I6" s="201"/>
-      <c r="J6" s="201"/>
-      <c r="K6" s="201"/>
-      <c r="L6" s="201"/>
-      <c r="M6" s="201"/>
-      <c r="N6" s="201"/>
-      <c r="O6" s="200"/>
-      <c r="P6" s="200"/>
-    </row>
-    <row r="7" spans="1:16" ht="15">
-      <c r="A7" s="201" t="s">
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="204"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
+    </row>
+    <row r="7" spans="1:14" ht="15">
+      <c r="A7" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="201"/>
-      <c r="C7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="201"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="201"/>
-      <c r="K7" s="201"/>
-      <c r="L7" s="201"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201"/>
-      <c r="O7" s="200"/>
-      <c r="P7" s="200"/>
-    </row>
-    <row r="8" spans="1:16" ht="15">
-      <c r="A8" s="239" t="s">
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+    </row>
+    <row r="8" spans="1:14" ht="15">
+      <c r="A8" s="204" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="238"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="238"/>
-      <c r="F8" s="238"/>
-      <c r="G8" s="238"/>
-      <c r="H8" s="238"/>
-      <c r="I8" s="238"/>
-      <c r="J8" s="238"/>
-      <c r="K8" s="238"/>
-      <c r="L8" s="199"/>
-      <c r="M8" s="199"/>
-      <c r="N8" s="199"/>
-      <c r="O8" s="200"/>
-      <c r="P8" s="200"/>
-    </row>
-    <row r="9" spans="1:16" ht="15">
-      <c r="A9" s="241" t="s">
+      <c r="B8" s="203"/>
+      <c r="C8" s="203"/>
+      <c r="D8" s="204"/>
+      <c r="E8" s="203"/>
+      <c r="F8" s="203"/>
+      <c r="G8" s="203"/>
+      <c r="H8" s="203"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="203"/>
+      <c r="K8" s="203"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+    </row>
+    <row r="9" spans="1:14" ht="15">
+      <c r="A9" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="238"/>
-      <c r="C9" s="238"/>
-      <c r="D9" s="239"/>
-      <c r="E9" s="238"/>
-      <c r="F9" s="238"/>
-      <c r="G9" s="238"/>
-      <c r="H9" s="238"/>
-      <c r="I9" s="238"/>
-      <c r="J9" s="238"/>
-      <c r="K9" s="238"/>
-      <c r="L9" s="199"/>
-      <c r="M9" s="199"/>
-      <c r="N9" s="199"/>
-      <c r="O9" s="200"/>
-      <c r="P9" s="200"/>
-    </row>
-    <row r="10" spans="1:16" ht="15">
-      <c r="A10" s="201"/>
-      <c r="B10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="201"/>
-      <c r="F10" s="201"/>
-      <c r="G10" s="201"/>
-      <c r="H10" s="201"/>
-      <c r="I10" s="201"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="201"/>
-      <c r="L10" s="201"/>
-      <c r="M10" s="201"/>
-      <c r="N10" s="200"/>
-      <c r="O10" s="200"/>
-    </row>
-    <row r="11" spans="1:16" ht="15">
-      <c r="A11" s="201"/>
-      <c r="B11" s="201"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="201"/>
-      <c r="E11" s="201"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="201"/>
-      <c r="L11" s="201"/>
-      <c r="M11" s="201"/>
-      <c r="N11" s="200"/>
-      <c r="O11" s="200"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="200"/>
-      <c r="B12" s="200"/>
-      <c r="C12" s="200"/>
-      <c r="D12" s="200"/>
-      <c r="E12" s="200"/>
-      <c r="F12" s="200"/>
-      <c r="G12" s="200"/>
-      <c r="H12" s="200"/>
-      <c r="I12" s="200"/>
-      <c r="J12" s="200"/>
-      <c r="K12" s="200"/>
-      <c r="L12" s="200"/>
-      <c r="M12" s="200"/>
-      <c r="N12" s="200"/>
-      <c r="O12" s="200"/>
-      <c r="P12" s="200"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="200"/>
-      <c r="B13" s="200"/>
-      <c r="C13" s="200"/>
-      <c r="D13" s="200"/>
-      <c r="E13" s="200"/>
-      <c r="F13" s="200"/>
-      <c r="G13" s="200"/>
-      <c r="H13" s="200"/>
-      <c r="I13" s="200"/>
-      <c r="J13" s="200"/>
-      <c r="K13" s="200"/>
-      <c r="L13" s="200"/>
-      <c r="M13" s="200"/>
-      <c r="N13" s="200"/>
-      <c r="O13" s="200"/>
-      <c r="P13" s="200"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="200"/>
-      <c r="B14" s="200"/>
-      <c r="C14" s="200"/>
-      <c r="D14" s="200"/>
-      <c r="E14" s="200"/>
-      <c r="F14" s="200"/>
-      <c r="G14" s="200"/>
-      <c r="H14" s="200"/>
-      <c r="I14" s="200"/>
-      <c r="J14" s="200"/>
-      <c r="K14" s="200"/>
-      <c r="L14" s="200"/>
-      <c r="M14" s="200"/>
-      <c r="N14" s="200"/>
-      <c r="O14" s="200"/>
-      <c r="P14" s="200"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="200"/>
-      <c r="B15" s="200"/>
-      <c r="C15" s="200"/>
-      <c r="D15" s="200"/>
-      <c r="E15" s="200"/>
-      <c r="F15" s="200"/>
-      <c r="G15" s="200"/>
-      <c r="H15" s="200"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="200"/>
-      <c r="K15" s="200"/>
-      <c r="L15" s="200"/>
-      <c r="M15" s="200"/>
-      <c r="N15" s="200"/>
-      <c r="O15" s="200"/>
-      <c r="P15" s="200"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="200"/>
-      <c r="B16" s="200"/>
-      <c r="C16" s="200"/>
-      <c r="D16" s="200"/>
-      <c r="E16" s="200"/>
-      <c r="F16" s="200"/>
-      <c r="G16" s="200"/>
-      <c r="H16" s="200"/>
-      <c r="I16" s="200"/>
-      <c r="J16" s="200"/>
-      <c r="K16" s="200"/>
-      <c r="L16" s="200"/>
-      <c r="M16" s="200"/>
-      <c r="N16" s="200"/>
-      <c r="O16" s="200"/>
-      <c r="P16" s="200"/>
+      <c r="B9" s="203"/>
+      <c r="C9" s="203"/>
+      <c r="D9" s="204"/>
+      <c r="E9" s="203"/>
+      <c r="F9" s="203"/>
+      <c r="G9" s="203"/>
+      <c r="H9" s="203"/>
+      <c r="I9" s="203"/>
+      <c r="J9" s="203"/>
+      <c r="K9" s="203"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+    </row>
+    <row r="10" spans="1:14" ht="15">
+      <c r="A10" s="136"/>
+      <c r="B10" s="136"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="136"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="136"/>
+    </row>
+    <row r="11" spans="1:14" ht="15">
+      <c r="A11" s="136"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="136"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -21741,441 +21691,433 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A13" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="14" width="14.6640625" style="200" customWidth="1"/>
-    <col min="15" max="16384" width="17" style="200"/>
+    <col min="1" max="14" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="189" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1">
-      <c r="A2" s="222" t="s">
+      <c r="A2" s="195" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="199"/>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1">
-      <c r="A3" s="201" t="s">
+      <c r="A3" s="136" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="199"/>
-    </row>
-    <row r="4" spans="1:14" s="270" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="267" t="s">
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="157"/>
+      <c r="M3" s="157"/>
+      <c r="N3" s="107"/>
+    </row>
+    <row r="4" spans="1:14" s="234" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="231" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="268"/>
-      <c r="C4" s="268"/>
-      <c r="D4" s="268"/>
-      <c r="E4" s="268"/>
-      <c r="F4" s="268"/>
-      <c r="G4" s="268"/>
-      <c r="H4" s="268"/>
-      <c r="I4" s="268"/>
-      <c r="J4" s="268"/>
-      <c r="K4" s="268"/>
-      <c r="L4" s="268"/>
-      <c r="M4" s="268"/>
-      <c r="N4" s="269"/>
+      <c r="B4" s="232"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="232"/>
+      <c r="E4" s="232"/>
+      <c r="F4" s="232"/>
+      <c r="G4" s="232"/>
+      <c r="H4" s="232"/>
+      <c r="I4" s="232"/>
+      <c r="J4" s="232"/>
+      <c r="K4" s="232"/>
+      <c r="L4" s="232"/>
+      <c r="M4" s="232"/>
+      <c r="N4" s="233"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1">
-      <c r="A5" s="203" t="s">
+      <c r="A5" s="190" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="202"/>
-      <c r="C5" s="202"/>
-      <c r="D5" s="202"/>
-      <c r="E5" s="202"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="202"/>
-      <c r="H5" s="202"/>
-      <c r="I5" s="202"/>
-      <c r="J5" s="202"/>
-      <c r="K5" s="202"/>
-      <c r="L5" s="202"/>
-      <c r="M5" s="202"/>
-      <c r="N5" s="199"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="157"/>
+      <c r="K5" s="157"/>
+      <c r="L5" s="157"/>
+      <c r="M5" s="157"/>
+      <c r="N5" s="107"/>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1">
-      <c r="A6" s="204" t="s">
+      <c r="A6" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="202"/>
-      <c r="H6" s="202"/>
-      <c r="I6" s="202"/>
-      <c r="J6" s="202"/>
-      <c r="K6" s="202"/>
-      <c r="L6" s="202"/>
-      <c r="M6" s="202"/>
-      <c r="N6" s="199"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="107"/>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1">
-      <c r="A7" s="205" t="s">
+      <c r="A7" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="202"/>
-      <c r="C7" s="202"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="202"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="202"/>
-      <c r="H7" s="202"/>
-      <c r="I7" s="202"/>
-      <c r="J7" s="202"/>
-      <c r="K7" s="202"/>
-      <c r="L7" s="202"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="199"/>
-    </row>
-    <row r="8" spans="1:14" s="233" customFormat="1" ht="64.05" customHeight="1">
-      <c r="A8" s="231" t="s">
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="157"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="157"/>
+      <c r="J7" s="157"/>
+      <c r="K7" s="157"/>
+      <c r="L7" s="157"/>
+      <c r="M7" s="157"/>
+      <c r="N7" s="107"/>
+    </row>
+    <row r="8" spans="1:14" s="29" customFormat="1" ht="64.150000000000006" customHeight="1">
+      <c r="A8" s="199" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="231" t="s">
+      <c r="B8" s="199" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="231" t="s">
+      <c r="C8" s="199" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="231" t="s">
+      <c r="D8" s="199" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="231" t="s">
+      <c r="E8" s="199" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="231" t="s">
+      <c r="F8" s="199" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="231" t="s">
+      <c r="G8" s="199" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="231" t="s">
+      <c r="H8" s="199" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="231" t="s">
+      <c r="I8" s="199" t="s">
         <v>90</v>
       </c>
-      <c r="J8" s="231" t="s">
+      <c r="J8" s="199" t="s">
         <v>91</v>
       </c>
-      <c r="K8" s="231" t="s">
+      <c r="K8" s="199" t="s">
         <v>92</v>
       </c>
-      <c r="L8" s="231" t="s">
+      <c r="L8" s="199" t="s">
         <v>93</v>
       </c>
-      <c r="M8" s="231" t="s">
+      <c r="M8" s="199" t="s">
         <v>94</v>
       </c>
-      <c r="N8" s="232"/>
+      <c r="N8" s="200"/>
     </row>
     <row r="9" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A9" s="206">
+      <c r="A9" s="192">
         <v>2017</v>
       </c>
-      <c r="B9" s="207">
-        <f>calc_new!C7</f>
-        <v>644.65929230308348</v>
-      </c>
-      <c r="C9" s="207">
-        <f>calc_new!D7</f>
-        <v>646.22207321463748</v>
-      </c>
-      <c r="D9" s="207">
-        <f>calc_new!E7</f>
-        <v>528.94005495666454</v>
-      </c>
-      <c r="E9" s="207">
-        <f>calc_new!F7</f>
-        <v>576.53478407096338</v>
-      </c>
-      <c r="F9" s="207">
-        <f>calc_new!G7</f>
-        <v>580.19770122650027</v>
-      </c>
-      <c r="G9" s="207">
-        <f>calc_new!H7</f>
-        <v>518.96538048388175</v>
-      </c>
-      <c r="H9" s="207">
-        <f>calc_new!I7</f>
-        <v>596.98642459557539</v>
-      </c>
-      <c r="I9" s="207">
-        <f>calc_new!J7</f>
-        <v>600.40414209703863</v>
-      </c>
-      <c r="J9" s="207">
-        <f>calc_new!K7</f>
-        <v>518.68987407096222</v>
-      </c>
-      <c r="K9" s="207">
-        <f>calc_new!L7</f>
-        <v>595.28610286897049</v>
-      </c>
-      <c r="L9" s="207">
-        <f>calc_new!M7</f>
-        <v>597.81631585795503</v>
-      </c>
-      <c r="M9" s="207">
-        <f>calc_new!N7</f>
-        <v>520.86707385420993</v>
-      </c>
-      <c r="N9" s="208"/>
+      <c r="B9" s="120">
+        <v>645</v>
+      </c>
+      <c r="C9" s="120">
+        <v>646</v>
+      </c>
+      <c r="D9" s="120">
+        <v>529</v>
+      </c>
+      <c r="E9" s="120">
+        <v>577</v>
+      </c>
+      <c r="F9" s="120">
+        <v>580</v>
+      </c>
+      <c r="G9" s="120">
+        <v>519</v>
+      </c>
+      <c r="H9" s="120">
+        <v>597</v>
+      </c>
+      <c r="I9" s="120">
+        <v>600</v>
+      </c>
+      <c r="J9" s="120">
+        <v>519</v>
+      </c>
+      <c r="K9" s="120">
+        <v>595</v>
+      </c>
+      <c r="L9" s="120">
+        <v>598</v>
+      </c>
+      <c r="M9" s="120">
+        <v>521</v>
+      </c>
+      <c r="N9" s="152"/>
     </row>
     <row r="10" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A10" s="206">
+      <c r="A10" s="192">
         <v>2018</v>
       </c>
-      <c r="B10" s="207">
-        <f>calc_new!C8</f>
-        <v>698.25799992809209</v>
-      </c>
-      <c r="C10" s="207">
-        <f>calc_new!D8</f>
-        <v>699.18340643237684</v>
-      </c>
-      <c r="D10" s="207">
-        <f>calc_new!E8</f>
-        <v>582.03105100893799</v>
-      </c>
-      <c r="E10" s="207">
-        <f>calc_new!F8</f>
-        <v>628.94527366621503</v>
-      </c>
-      <c r="F10" s="207">
-        <f>calc_new!G8</f>
-        <v>634.82882437135879</v>
-      </c>
-      <c r="G10" s="207">
-        <f>calc_new!H8</f>
-        <v>544.73360113491844</v>
-      </c>
-      <c r="H10" s="207">
-        <f>calc_new!I8</f>
-        <v>626.34496879401684</v>
-      </c>
-      <c r="I10" s="207">
-        <f>calc_new!J8</f>
-        <v>632.70394215500062</v>
-      </c>
-      <c r="J10" s="207">
-        <f>calc_new!K8</f>
-        <v>572.78737060556216</v>
-      </c>
-      <c r="K10" s="207">
-        <f>calc_new!L8</f>
-        <v>643.0529346209496</v>
-      </c>
-      <c r="L10" s="207">
-        <f>calc_new!M8</f>
-        <v>647.27856309762285</v>
-      </c>
-      <c r="M10" s="207">
-        <f>calc_new!N8</f>
-        <v>562.21022299550657</v>
-      </c>
-      <c r="N10" s="208"/>
+      <c r="B10" s="120">
+        <v>698</v>
+      </c>
+      <c r="C10" s="120">
+        <v>699</v>
+      </c>
+      <c r="D10" s="120">
+        <v>582</v>
+      </c>
+      <c r="E10" s="120">
+        <v>629</v>
+      </c>
+      <c r="F10" s="120">
+        <v>635</v>
+      </c>
+      <c r="G10" s="120">
+        <v>545</v>
+      </c>
+      <c r="H10" s="120">
+        <v>624</v>
+      </c>
+      <c r="I10" s="120">
+        <v>631</v>
+      </c>
+      <c r="J10" s="120">
+        <v>573</v>
+      </c>
+      <c r="K10" s="120">
+        <v>643</v>
+      </c>
+      <c r="L10" s="120">
+        <v>647</v>
+      </c>
+      <c r="M10" s="120">
+        <v>562</v>
+      </c>
+      <c r="N10" s="152"/>
     </row>
     <row r="11" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A11" s="206">
+      <c r="A11" s="192">
         <v>2019</v>
       </c>
-      <c r="B11" s="207">
-        <f>calc_new!C9</f>
-        <v>755.64192932528908</v>
-      </c>
-      <c r="C11" s="207">
-        <f>calc_new!D9</f>
-        <v>758.6074718982959</v>
-      </c>
-      <c r="D11" s="207">
-        <f>calc_new!E9</f>
-        <v>648.38258758640927</v>
-      </c>
-      <c r="E11" s="207">
-        <f>calc_new!F9</f>
-        <v>682.77260901711782</v>
-      </c>
-      <c r="F11" s="207">
-        <f>calc_new!G9</f>
-        <v>688.65913306985533</v>
-      </c>
-      <c r="G11" s="207">
-        <f>calc_new!H9</f>
-        <v>616.73610855537663</v>
-      </c>
-      <c r="H11" s="207">
-        <f>calc_new!I9</f>
-        <v>702.6372622815361</v>
-      </c>
-      <c r="I11" s="207">
-        <f>calc_new!J9</f>
-        <v>704.5316716021938</v>
-      </c>
-      <c r="J11" s="207">
-        <f>calc_new!K9</f>
-        <v>642.48202103259484</v>
-      </c>
-      <c r="K11" s="207">
-        <f>calc_new!L9</f>
-        <v>699.55979875903699</v>
-      </c>
-      <c r="L11" s="207">
-        <f>calc_new!M9</f>
-        <v>704.57782917088582</v>
-      </c>
-      <c r="M11" s="207">
-        <f>calc_new!N9</f>
-        <v>631.30701061721163</v>
-      </c>
-      <c r="N11" s="209"/>
+      <c r="B11" s="120">
+        <v>756</v>
+      </c>
+      <c r="C11" s="120">
+        <v>759</v>
+      </c>
+      <c r="D11" s="120">
+        <v>648</v>
+      </c>
+      <c r="E11" s="120">
+        <v>683</v>
+      </c>
+      <c r="F11" s="120">
+        <v>689</v>
+      </c>
+      <c r="G11" s="120">
+        <v>617</v>
+      </c>
+      <c r="H11" s="120">
+        <v>703</v>
+      </c>
+      <c r="I11" s="120">
+        <v>705</v>
+      </c>
+      <c r="J11" s="120">
+        <v>642</v>
+      </c>
+      <c r="K11" s="120">
+        <v>700</v>
+      </c>
+      <c r="L11" s="120">
+        <v>705</v>
+      </c>
+      <c r="M11" s="120">
+        <v>631</v>
+      </c>
+      <c r="N11" s="152"/>
     </row>
     <row r="12" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A12" s="206">
+      <c r="A12" s="192">
         <v>2020</v>
       </c>
-      <c r="B12" s="207">
-        <f>calc_new!C10</f>
-        <v>763.59674736656336</v>
-      </c>
-      <c r="C12" s="207">
-        <f>calc_new!D10</f>
-        <v>765.78136724592139</v>
-      </c>
-      <c r="D12" s="207">
-        <f>calc_new!E10</f>
-        <v>659.78087266402918</v>
-      </c>
-      <c r="E12" s="207">
-        <f>calc_new!F10</f>
-        <v>690.32110189425055</v>
-      </c>
-      <c r="F12" s="207">
-        <f>calc_new!G10</f>
-        <v>696.68446969544834</v>
-      </c>
-      <c r="G12" s="207">
-        <f>calc_new!H10</f>
-        <v>626.68703626870308</v>
-      </c>
-      <c r="H12" s="207">
-        <f>calc_new!I10</f>
-        <v>729.00201991046345</v>
-      </c>
-      <c r="I12" s="207">
-        <f>calc_new!J10</f>
-        <v>728.06683715083761</v>
-      </c>
-      <c r="J12" s="207">
-        <f>calc_new!K10</f>
-        <v>653.41190701159087</v>
-      </c>
-      <c r="K12" s="207">
-        <f>calc_new!L10</f>
-        <v>708.19733669199843</v>
-      </c>
-      <c r="L12" s="207">
-        <f>calc_new!M10</f>
-        <v>713.76522516832836</v>
-      </c>
-      <c r="M12" s="207">
-        <f>calc_new!N10</f>
-        <v>641.58930696239213</v>
-      </c>
-      <c r="N12" s="209"/>
+      <c r="B12" s="120">
+        <v>758</v>
+      </c>
+      <c r="C12" s="120">
+        <v>758</v>
+      </c>
+      <c r="D12" s="120">
+        <v>660</v>
+      </c>
+      <c r="E12" s="120">
+        <v>688</v>
+      </c>
+      <c r="F12" s="120">
+        <v>694</v>
+      </c>
+      <c r="G12" s="120">
+        <v>650</v>
+      </c>
+      <c r="H12" s="120">
+        <v>722</v>
+      </c>
+      <c r="I12" s="120">
+        <v>721</v>
+      </c>
+      <c r="J12" s="120">
+        <v>676</v>
+      </c>
+      <c r="K12" s="120">
+        <v>706</v>
+      </c>
+      <c r="L12" s="120">
+        <v>710</v>
+      </c>
+      <c r="M12" s="120">
+        <v>656</v>
+      </c>
+      <c r="N12" s="152"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="265">
+      <c r="A13" s="251">
         <v>2021</v>
       </c>
-      <c r="B13" s="207">
-        <v>824</v>
-      </c>
-      <c r="C13" s="207">
-        <v>817</v>
-      </c>
-      <c r="D13" s="207">
+      <c r="B13" s="120">
+        <v>825</v>
+      </c>
+      <c r="C13" s="120">
+        <v>819</v>
+      </c>
+      <c r="D13" s="120">
         <v>707</v>
       </c>
-      <c r="E13" s="207">
+      <c r="E13" s="120">
         <v>755</v>
       </c>
-      <c r="F13" s="207">
+      <c r="F13" s="120">
         <v>755</v>
       </c>
-      <c r="G13" s="207">
+      <c r="G13" s="120">
         <v>697</v>
       </c>
-      <c r="H13" s="207">
-        <v>766</v>
-      </c>
-      <c r="I13" s="207">
-        <v>759</v>
-      </c>
-      <c r="J13" s="207">
+      <c r="H13" s="120">
+        <v>785</v>
+      </c>
+      <c r="I13" s="120">
+        <v>778</v>
+      </c>
+      <c r="J13" s="120">
         <v>699</v>
       </c>
-      <c r="K13" s="207">
-        <v>768</v>
-      </c>
-      <c r="L13" s="207">
-        <v>766</v>
-      </c>
-      <c r="M13" s="207">
+      <c r="K13" s="120">
+        <v>771</v>
+      </c>
+      <c r="L13" s="120">
+        <v>770</v>
+      </c>
+      <c r="M13" s="120">
         <v>699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="252">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="250">
+        <v>1320</v>
+      </c>
+      <c r="C14" s="250">
+        <v>1332</v>
+      </c>
+      <c r="D14" s="250">
+        <v>1099</v>
+      </c>
+      <c r="E14" s="250">
+        <v>1199</v>
+      </c>
+      <c r="F14" s="250">
+        <v>1188</v>
+      </c>
+      <c r="G14" s="250">
+        <v>1039</v>
+      </c>
+      <c r="H14" s="250">
+        <v>1235</v>
+      </c>
+      <c r="I14" s="250">
+        <v>1245</v>
+      </c>
+      <c r="J14" s="250">
+        <v>1055</v>
+      </c>
+      <c r="K14" s="250">
+        <v>1225</v>
+      </c>
+      <c r="L14" s="250">
+        <v>1222</v>
+      </c>
+      <c r="M14" s="250">
+        <v>1054</v>
       </c>
     </row>
   </sheetData>
@@ -22202,458 +22144,457 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="14" width="14.6640625" style="212" customWidth="1"/>
-    <col min="15" max="16384" width="15.88671875" style="212"/>
+    <col min="1" max="14" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="189" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
-      <c r="L1" s="211"/>
-      <c r="M1" s="211"/>
-      <c r="N1" s="211"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1">
-      <c r="A2" s="222" t="s">
+      <c r="A2" s="195" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="211"/>
-      <c r="M2" s="211"/>
-      <c r="N2" s="211"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="213"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="213"/>
-      <c r="G3" s="213"/>
-      <c r="H3" s="213"/>
-      <c r="I3" s="213"/>
-      <c r="J3" s="213"/>
-      <c r="K3" s="213"/>
-      <c r="L3" s="213"/>
-      <c r="M3" s="213"/>
-      <c r="N3" s="211"/>
-    </row>
-    <row r="4" spans="1:14" s="273" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="267" t="s">
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="157"/>
+      <c r="M3" s="157"/>
+      <c r="N3" s="107"/>
+    </row>
+    <row r="4" spans="1:14" s="234" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="231" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="271"/>
-      <c r="C4" s="271"/>
-      <c r="D4" s="271"/>
-      <c r="E4" s="271"/>
-      <c r="F4" s="271"/>
-      <c r="G4" s="271"/>
-      <c r="H4" s="271"/>
-      <c r="I4" s="271"/>
-      <c r="J4" s="271"/>
-      <c r="K4" s="271"/>
-      <c r="L4" s="271"/>
-      <c r="M4" s="271"/>
-      <c r="N4" s="272"/>
+      <c r="B4" s="232"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="232"/>
+      <c r="E4" s="232"/>
+      <c r="F4" s="232"/>
+      <c r="G4" s="232"/>
+      <c r="H4" s="232"/>
+      <c r="I4" s="232"/>
+      <c r="J4" s="232"/>
+      <c r="K4" s="232"/>
+      <c r="L4" s="232"/>
+      <c r="M4" s="232"/>
+      <c r="N4" s="233"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1">
-      <c r="A5" s="221" t="s">
+      <c r="A5" s="190" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="213"/>
-      <c r="C5" s="213"/>
-      <c r="D5" s="213"/>
-      <c r="E5" s="213"/>
-      <c r="F5" s="213"/>
-      <c r="G5" s="213"/>
-      <c r="H5" s="213"/>
-      <c r="I5" s="213"/>
-      <c r="J5" s="213"/>
-      <c r="K5" s="213"/>
-      <c r="L5" s="213"/>
-      <c r="M5" s="213"/>
-      <c r="N5" s="211"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="157"/>
+      <c r="K5" s="157"/>
+      <c r="L5" s="157"/>
+      <c r="M5" s="157"/>
+      <c r="N5" s="107"/>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1">
-      <c r="A6" s="203" t="s">
+      <c r="A6" s="190" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="213"/>
-      <c r="C6" s="213"/>
-      <c r="D6" s="213"/>
-      <c r="E6" s="213"/>
-      <c r="F6" s="213"/>
-      <c r="G6" s="213"/>
-      <c r="H6" s="213"/>
-      <c r="I6" s="213"/>
-      <c r="J6" s="213"/>
-      <c r="K6" s="213"/>
-      <c r="L6" s="213"/>
-      <c r="M6" s="213"/>
-      <c r="N6" s="211"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="107"/>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1">
-      <c r="A7" s="203" t="s">
+      <c r="A7" s="190" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="213"/>
-      <c r="C7" s="213"/>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="213"/>
-      <c r="H7" s="213"/>
-      <c r="I7" s="213"/>
-      <c r="J7" s="213"/>
-      <c r="K7" s="213"/>
-      <c r="L7" s="213"/>
-      <c r="M7" s="213"/>
-      <c r="N7" s="211"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="157"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="157"/>
+      <c r="J7" s="157"/>
+      <c r="K7" s="157"/>
+      <c r="L7" s="157"/>
+      <c r="M7" s="157"/>
+      <c r="N7" s="107"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1">
-      <c r="A8" s="204" t="s">
+      <c r="A8" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="213"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="213"/>
-      <c r="I8" s="213"/>
-      <c r="J8" s="213"/>
-      <c r="K8" s="213"/>
-      <c r="L8" s="213"/>
-      <c r="M8" s="213"/>
-      <c r="N8" s="211"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="157"/>
+      <c r="I8" s="157"/>
+      <c r="J8" s="157"/>
+      <c r="K8" s="157"/>
+      <c r="L8" s="157"/>
+      <c r="M8" s="157"/>
+      <c r="N8" s="107"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1">
-      <c r="A9" s="220" t="s">
+      <c r="A9" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="213"/>
-      <c r="C9" s="213"/>
-      <c r="D9" s="213"/>
-      <c r="E9" s="213"/>
-      <c r="F9" s="213"/>
-      <c r="G9" s="213"/>
-      <c r="H9" s="213"/>
-      <c r="I9" s="213"/>
-      <c r="J9" s="213"/>
-      <c r="K9" s="213"/>
-      <c r="L9" s="213"/>
-      <c r="M9" s="213"/>
-      <c r="N9" s="211"/>
-    </row>
-    <row r="10" spans="1:14" s="219" customFormat="1" ht="64.05" customHeight="1">
-      <c r="A10" s="234" t="s">
+      <c r="B9" s="157"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="157"/>
+      <c r="L9" s="157"/>
+      <c r="M9" s="157"/>
+      <c r="N9" s="107"/>
+    </row>
+    <row r="10" spans="1:14" s="29" customFormat="1" ht="64.150000000000006" customHeight="1">
+      <c r="A10" s="201" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="234" t="s">
+      <c r="B10" s="201" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="234" t="s">
+      <c r="C10" s="201" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="234" t="s">
+      <c r="D10" s="201" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="234" t="s">
+      <c r="E10" s="201" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="234" t="s">
+      <c r="F10" s="201" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="234" t="s">
+      <c r="G10" s="201" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="234" t="s">
+      <c r="H10" s="201" t="s">
         <v>89</v>
       </c>
-      <c r="I10" s="234" t="s">
+      <c r="I10" s="201" t="s">
         <v>90</v>
       </c>
-      <c r="J10" s="234" t="s">
+      <c r="J10" s="201" t="s">
         <v>91</v>
       </c>
-      <c r="K10" s="234" t="s">
+      <c r="K10" s="201" t="s">
         <v>92</v>
       </c>
-      <c r="L10" s="234" t="s">
+      <c r="L10" s="201" t="s">
         <v>93</v>
       </c>
-      <c r="M10" s="234" t="s">
+      <c r="M10" s="201" t="s">
         <v>94</v>
       </c>
-      <c r="N10" s="235"/>
+      <c r="N10" s="200"/>
     </row>
     <row r="11" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A11" s="266">
+      <c r="A11" s="230">
         <v>2017</v>
       </c>
-      <c r="B11" s="207">
+      <c r="B11" s="120">
         <f>calc_new!C15</f>
         <v>573.55223196580266</v>
       </c>
-      <c r="C11" s="207">
+      <c r="C11" s="120">
         <f>calc_new!D15</f>
         <v>574.94263537826748</v>
       </c>
-      <c r="D11" s="207">
+      <c r="D11" s="120">
         <f>calc_new!E15</f>
         <v>470.59703120494089</v>
       </c>
-      <c r="E11" s="207">
+      <c r="E11" s="120">
         <f>calc_new!F15</f>
         <v>512.9419775033025</v>
       </c>
-      <c r="F11" s="207">
+      <c r="F11" s="120">
         <f>calc_new!G15</f>
         <v>516.20086841691761</v>
       </c>
-      <c r="G11" s="207">
+      <c r="G11" s="120">
         <f>calc_new!H15</f>
         <v>461.72258097161176</v>
       </c>
-      <c r="H11" s="207">
+      <c r="H11" s="120">
         <f>calc_new!I15</f>
         <v>531.13776589928921</v>
       </c>
-      <c r="I11" s="207">
+      <c r="I11" s="120">
         <f>calc_new!J15</f>
         <v>534.17850311443078</v>
       </c>
-      <c r="J11" s="207">
+      <c r="J11" s="120">
         <f>calc_new!K15</f>
         <v>461.47746340340552</v>
       </c>
-      <c r="K11" s="207">
+      <c r="K11" s="120">
         <f>calc_new!L15</f>
         <v>529.62499266698205</v>
       </c>
-      <c r="L11" s="207">
+      <c r="L11" s="120">
         <f>calc_new!M15</f>
         <v>531.87611868735848</v>
       </c>
-      <c r="M11" s="207">
+      <c r="M11" s="120">
         <f>calc_new!N15</f>
         <v>463.41451419911499</v>
       </c>
-      <c r="N11" s="214"/>
+      <c r="N11" s="160"/>
     </row>
     <row r="12" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A12" s="266">
+      <c r="A12" s="230">
         <v>2018</v>
       </c>
-      <c r="B12" s="207">
+      <c r="B12" s="120">
         <f>calc_new!C16</f>
         <v>609.19447952910082</v>
       </c>
-      <c r="C12" s="207">
+      <c r="C12" s="120">
         <f>calc_new!D16</f>
         <v>610.00184948947162</v>
       </c>
-      <c r="D12" s="207">
+      <c r="D12" s="120">
         <f>calc_new!E16</f>
         <v>507.79239654351233</v>
       </c>
-      <c r="E12" s="207">
+      <c r="E12" s="120">
         <f>calc_new!F16</f>
         <v>548.72266222919791</v>
       </c>
-      <c r="F12" s="207">
+      <c r="F12" s="120">
         <f>calc_new!G16</f>
         <v>553.85576003827737</v>
       </c>
-      <c r="G12" s="207">
+      <c r="G12" s="120">
         <f>calc_new!H16</f>
         <v>475.25227445954624</v>
       </c>
-      <c r="H12" s="207">
+      <c r="H12" s="120">
         <f>calc_new!I16</f>
         <v>546.45402889682089</v>
       </c>
-      <c r="I12" s="207">
+      <c r="I12" s="120">
         <f>calc_new!J16</f>
         <v>552.00190871686289</v>
       </c>
-      <c r="J12" s="207">
+      <c r="J12" s="120">
         <f>calc_new!K16</f>
         <v>499.72775700791397</v>
       </c>
-      <c r="K12" s="207">
+      <c r="K12" s="120">
         <f>calc_new!L16</f>
         <v>561.0308766335836</v>
       </c>
-      <c r="L12" s="207">
+      <c r="L12" s="120">
         <f>calc_new!M16</f>
         <v>564.71752188619143</v>
       </c>
-      <c r="M12" s="207">
+      <c r="M12" s="120">
         <f>calc_new!N16</f>
         <v>490.49973536852872</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A13" s="266">
+      <c r="A13" s="230">
         <v>2019</v>
       </c>
-      <c r="B13" s="207">
+      <c r="B13" s="120">
         <f>calc_new!C17</f>
         <v>646.07384957312217</v>
       </c>
-      <c r="C13" s="207">
+      <c r="C13" s="120">
         <f>calc_new!D17</f>
         <v>648.60938847304294</v>
       </c>
-      <c r="D13" s="207">
+      <c r="D13" s="120">
         <f>calc_new!E17</f>
         <v>554.36711238637986</v>
       </c>
-      <c r="E13" s="207">
+      <c r="E13" s="120">
         <f>calc_new!F17</f>
         <v>583.77058070963574</v>
       </c>
-      <c r="F13" s="207">
+      <c r="F13" s="120">
         <f>calc_new!G17</f>
         <v>588.8035587747263</v>
       </c>
-      <c r="G13" s="207">
+      <c r="G13" s="120">
         <f>calc_new!H17</f>
         <v>527.30937281484705</v>
       </c>
-      <c r="H13" s="207">
+      <c r="H13" s="120">
         <f>calc_new!I17</f>
         <v>600.75485925071337</v>
       </c>
-      <c r="I13" s="207">
+      <c r="I13" s="120">
         <f>calc_new!J17</f>
         <v>602.37457921987573</v>
       </c>
-      <c r="J13" s="207">
+      <c r="J13" s="120">
         <f>calc_new!K17</f>
         <v>549.32212798286855</v>
       </c>
-      <c r="K13" s="207">
+      <c r="K13" s="120">
         <f>calc_new!L17</f>
         <v>598.1236279389766</v>
       </c>
-      <c r="L13" s="207">
+      <c r="L13" s="120">
         <f>calc_new!M17</f>
         <v>602.41404394110737</v>
       </c>
-      <c r="M13" s="207">
+      <c r="M13" s="120">
         <f>calc_new!N17</f>
         <v>539.76749407771592</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A14" s="266">
+      <c r="A14" s="230">
         <v>2020</v>
       </c>
-      <c r="B14" s="207">
+      <c r="B14" s="120">
         <f>calc_new!C18</f>
         <v>616.50162322796189</v>
       </c>
-      <c r="C14" s="207">
+      <c r="C14" s="120">
         <f>calc_new!D18</f>
         <v>618.26540981611208</v>
       </c>
-      <c r="D14" s="207">
+      <c r="D14" s="120">
         <f>calc_new!E18</f>
         <v>532.68427396387619</v>
       </c>
-      <c r="E14" s="207">
+      <c r="E14" s="120">
         <f>calc_new!F18</f>
         <v>557.34139954634952</v>
       </c>
-      <c r="F14" s="207">
+      <c r="F14" s="120">
         <f>calc_new!G18</f>
         <v>562.47896278527696</v>
       </c>
-      <c r="G14" s="207">
+      <c r="G14" s="120">
         <f>calc_new!H18</f>
         <v>505.96545421127581</v>
       </c>
-      <c r="H14" s="207">
+      <c r="H14" s="120">
         <f>calc_new!I18</f>
         <v>588.57103590504835</v>
       </c>
-      <c r="I14" s="207">
+      <c r="I14" s="120">
         <f>calc_new!J18</f>
         <v>587.81600166569035</v>
       </c>
-      <c r="J14" s="207">
+      <c r="J14" s="120">
         <f>calc_new!K18</f>
         <v>527.54219121332403</v>
       </c>
-      <c r="K14" s="207">
+      <c r="K14" s="120">
         <f>calc_new!L18</f>
         <v>571.77405370317149</v>
       </c>
-      <c r="L14" s="207">
+      <c r="L14" s="120">
         <f>calc_new!M18</f>
         <v>576.26937442768713</v>
       </c>
-      <c r="M14" s="207">
+      <c r="M14" s="120">
         <f>calc_new!N18</f>
         <v>517.99703253337611</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="12" customHeight="1">
-      <c r="A15" s="215"/>
-      <c r="B15" s="216"/>
-      <c r="C15" s="216"/>
-      <c r="D15" s="216"/>
-      <c r="E15" s="216"/>
-      <c r="F15" s="216"/>
-      <c r="G15" s="216"/>
-      <c r="H15" s="216"/>
-      <c r="I15" s="216"/>
-      <c r="J15" s="216"/>
-      <c r="K15" s="216"/>
-      <c r="L15" s="216"/>
-      <c r="M15" s="216"/>
+      <c r="A15" s="194"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="151"/>
+      <c r="M15" s="151"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="217"/>
-      <c r="B16" s="217"/>
-      <c r="C16" s="217"/>
-      <c r="D16" s="217"/>
-      <c r="E16" s="217"/>
-      <c r="F16" s="217"/>
-      <c r="G16" s="217"/>
-      <c r="H16" s="217"/>
-      <c r="I16" s="217"/>
-      <c r="J16" s="218"/>
-      <c r="K16" s="217"/>
-      <c r="L16" s="217"/>
-      <c r="M16" s="218"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="117"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -22673,559 +22614,483 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="14" width="14.6640625" style="200" customWidth="1"/>
-    <col min="15" max="16384" width="15.5546875" style="200"/>
+    <col min="1" max="14" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1">
-      <c r="A1" s="198" t="s">
+    <row r="1" spans="1:14" ht="18" customHeight="1">
+      <c r="A1" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="223"/>
-      <c r="L1" s="223"/>
-      <c r="M1" s="223"/>
-      <c r="N1" s="223"/>
-    </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1">
-      <c r="A2" s="222" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+    </row>
+    <row r="2" spans="1:14" ht="18" customHeight="1">
+      <c r="A2" s="195" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="199"/>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="223"/>
-      <c r="M2" s="223"/>
-      <c r="N2" s="223"/>
-    </row>
-    <row r="3" spans="1:15" ht="18" customHeight="1">
-      <c r="A3" s="201" t="s">
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+    </row>
+    <row r="3" spans="1:14" ht="18" customHeight="1">
+      <c r="A3" s="136" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="199"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="223"/>
-      <c r="N3" s="223"/>
-    </row>
-    <row r="4" spans="1:15" s="270" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="267" t="s">
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="135"/>
+    </row>
+    <row r="4" spans="1:14" s="234" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="231" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="269"/>
-      <c r="C4" s="269"/>
-      <c r="D4" s="269"/>
-      <c r="E4" s="269"/>
-      <c r="F4" s="269"/>
-      <c r="G4" s="269"/>
-      <c r="H4" s="269"/>
-      <c r="I4" s="269"/>
-      <c r="J4" s="269"/>
-      <c r="K4" s="269"/>
-      <c r="L4" s="269"/>
-      <c r="M4" s="269"/>
-      <c r="N4" s="269"/>
-    </row>
-    <row r="5" spans="1:15" ht="18" customHeight="1">
-      <c r="A5" s="203" t="s">
+      <c r="B4" s="233"/>
+      <c r="C4" s="233"/>
+      <c r="D4" s="233"/>
+      <c r="E4" s="233"/>
+      <c r="F4" s="233"/>
+      <c r="G4" s="233"/>
+      <c r="H4" s="233"/>
+      <c r="I4" s="233"/>
+      <c r="J4" s="233"/>
+      <c r="K4" s="233"/>
+      <c r="L4" s="233"/>
+      <c r="M4" s="233"/>
+      <c r="N4" s="233"/>
+    </row>
+    <row r="5" spans="1:14" ht="18" customHeight="1">
+      <c r="A5" s="190" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="223"/>
-      <c r="L5" s="223"/>
-      <c r="M5" s="223"/>
-      <c r="N5" s="223"/>
-    </row>
-    <row r="6" spans="1:15" ht="18" customHeight="1">
-      <c r="A6" s="204" t="s">
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="135"/>
+    </row>
+    <row r="6" spans="1:14" ht="18" customHeight="1">
+      <c r="A6" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="199"/>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="199"/>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="199"/>
-      <c r="I6" s="199"/>
-      <c r="J6" s="199"/>
-      <c r="K6" s="223"/>
-      <c r="L6" s="223"/>
-      <c r="M6" s="223"/>
-      <c r="N6" s="223"/>
-    </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1">
-      <c r="A7" s="205" t="s">
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+    </row>
+    <row r="7" spans="1:14" ht="18" customHeight="1">
+      <c r="A7" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="199"/>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
-      <c r="E7" s="199"/>
-      <c r="F7" s="199"/>
-      <c r="G7" s="199"/>
-      <c r="H7" s="199"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="199"/>
-      <c r="K7" s="223"/>
-      <c r="L7" s="223"/>
-      <c r="M7" s="223"/>
-      <c r="N7" s="223"/>
-    </row>
-    <row r="8" spans="1:15" s="233" customFormat="1" ht="64.05" customHeight="1">
-      <c r="A8" s="231" t="s">
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135"/>
+    </row>
+    <row r="8" spans="1:14" s="29" customFormat="1" ht="64.150000000000006" customHeight="1">
+      <c r="A8" s="199" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="231" t="s">
+      <c r="B8" s="199" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="231" t="s">
+      <c r="C8" s="199" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="231" t="s">
+      <c r="D8" s="199" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="231" t="s">
+      <c r="E8" s="199" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="231" t="s">
+      <c r="F8" s="199" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="231" t="s">
+      <c r="G8" s="199" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="231" t="s">
+      <c r="H8" s="199" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="231" t="s">
+      <c r="I8" s="199" t="s">
         <v>90</v>
       </c>
-      <c r="J8" s="231" t="s">
+      <c r="J8" s="199" t="s">
         <v>91</v>
       </c>
-      <c r="K8" s="231" t="s">
+      <c r="K8" s="199" t="s">
         <v>92</v>
       </c>
-      <c r="L8" s="231" t="s">
+      <c r="L8" s="199" t="s">
         <v>93</v>
       </c>
-      <c r="M8" s="231" t="s">
+      <c r="M8" s="199" t="s">
         <v>94</v>
       </c>
-      <c r="N8" s="227"/>
-      <c r="O8" s="219"/>
-    </row>
-    <row r="9" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A9" s="206">
+      <c r="N8" s="135"/>
+    </row>
+    <row r="9" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A9" s="192">
         <v>2017</v>
       </c>
-      <c r="B9" s="207">
+      <c r="B9" s="120">
         <f>calc_new!Q7</f>
         <v>792.17751147492515</v>
       </c>
-      <c r="C9" s="207">
+      <c r="C9" s="120">
         <f>calc_new!R7</f>
         <v>834.42870444742391</v>
       </c>
-      <c r="D9" s="207">
+      <c r="D9" s="120">
         <f>calc_new!S7</f>
         <v>591.02170674581805</v>
       </c>
-      <c r="E9" s="207">
+      <c r="E9" s="120">
         <f>calc_new!T7</f>
         <v>705.40236073222957</v>
       </c>
-      <c r="F9" s="207">
+      <c r="F9" s="120">
         <f>calc_new!U7</f>
         <v>759.04324622150398</v>
       </c>
-      <c r="G9" s="207">
+      <c r="G9" s="120">
         <f>calc_new!V7</f>
         <v>582.32105468950806</v>
       </c>
-      <c r="H9" s="207">
+      <c r="H9" s="120">
         <f>calc_new!W7</f>
         <v>681.48748018055005</v>
       </c>
-      <c r="I9" s="207">
+      <c r="I9" s="120">
         <f>calc_new!X7</f>
         <v>738.09863703159306</v>
       </c>
-      <c r="J9" s="207">
+      <c r="J9" s="120">
         <f>calc_new!Y7</f>
         <v>599.97875076439482</v>
       </c>
-      <c r="K9" s="207">
+      <c r="K9" s="120">
         <f>calc_new!Z7</f>
         <v>721.40142413260639</v>
       </c>
-      <c r="L9" s="207">
+      <c r="L9" s="120">
         <f>calc_new!AA7</f>
         <v>769.84740589845285</v>
       </c>
-      <c r="M9" s="207">
+      <c r="M9" s="120">
         <f>calc_new!AB7</f>
         <v>593.70807383849751</v>
       </c>
-      <c r="N9" s="209"/>
-      <c r="O9" s="212"/>
-    </row>
-    <row r="10" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A10" s="206">
+      <c r="N9" s="152"/>
+    </row>
+    <row r="10" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A10" s="192">
         <v>2018</v>
       </c>
-      <c r="B10" s="207">
+      <c r="B10" s="120">
         <f>calc_new!Q8</f>
         <v>858.13813507935026</v>
       </c>
-      <c r="C10" s="207">
+      <c r="C10" s="120">
         <f>calc_new!R8</f>
         <v>894.64932030076989</v>
       </c>
-      <c r="D10" s="207">
+      <c r="D10" s="120">
         <f>calc_new!S8</f>
         <v>652.60560665898061</v>
       </c>
-      <c r="E10" s="207">
+      <c r="E10" s="120">
         <f>calc_new!T8</f>
         <v>773.6713722051627</v>
       </c>
-      <c r="F10" s="207">
+      <c r="F10" s="120">
         <f>calc_new!U8</f>
         <v>829.54328565306309</v>
       </c>
-      <c r="G10" s="207">
+      <c r="G10" s="120">
         <f>calc_new!V8</f>
         <v>623.11096950315562</v>
       </c>
-      <c r="H10" s="207">
+      <c r="H10" s="120">
         <f>calc_new!W8</f>
         <v>713.07316813955595</v>
       </c>
-      <c r="I10" s="207">
+      <c r="I10" s="120">
         <f>calc_new!X8</f>
         <v>751.1809489984912</v>
       </c>
-      <c r="J10" s="207">
+      <c r="J10" s="120">
         <f>calc_new!Y8</f>
         <v>676.78004236361051</v>
       </c>
-      <c r="K10" s="207">
+      <c r="K10" s="120">
         <f>calc_new!Z8</f>
         <v>779.11755396585295</v>
       </c>
-      <c r="L10" s="207">
+      <c r="L10" s="120">
         <f>calc_new!AA8</f>
         <v>817.48795802604457</v>
       </c>
-      <c r="M10" s="207">
+      <c r="M10" s="120">
         <f>calc_new!AB8</f>
         <v>655.51914302737418</v>
       </c>
-      <c r="N10" s="209"/>
-      <c r="O10" s="212"/>
-    </row>
-    <row r="11" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A11" s="206">
+      <c r="N10" s="152"/>
+    </row>
+    <row r="11" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A11" s="192">
         <v>2019</v>
       </c>
-      <c r="B11" s="207">
+      <c r="B11" s="120">
         <f>calc_new!Q9</f>
         <v>922.61141965165791</v>
       </c>
-      <c r="C11" s="207">
+      <c r="C11" s="120">
         <f>calc_new!R9</f>
         <v>982.65199739943591</v>
       </c>
-      <c r="D11" s="207">
+      <c r="D11" s="120">
         <f>calc_new!S9</f>
         <v>723.54602363566721</v>
       </c>
-      <c r="E11" s="207">
+      <c r="E11" s="120">
         <f>calc_new!T9</f>
         <v>837.92643258282146</v>
       </c>
-      <c r="F11" s="207">
+      <c r="F11" s="120">
         <f>calc_new!U9</f>
         <v>889.34324725987267</v>
       </c>
-      <c r="G11" s="207">
+      <c r="G11" s="120">
         <f>calc_new!V9</f>
         <v>702.36881785300466</v>
       </c>
-      <c r="H11" s="207">
+      <c r="H11" s="120">
         <f>calc_new!W9</f>
         <v>815.17925930218689</v>
       </c>
-      <c r="I11" s="207">
+      <c r="I11" s="120">
         <f>calc_new!X9</f>
         <v>839.40394275741767</v>
       </c>
-      <c r="J11" s="207">
+      <c r="J11" s="120">
         <f>calc_new!Y9</f>
         <v>738.05065015429909</v>
       </c>
-      <c r="K11" s="207">
+      <c r="K11" s="120">
         <f>calc_new!Z9</f>
         <v>850.34376597092569</v>
       </c>
-      <c r="L11" s="207">
+      <c r="L11" s="120">
         <f>calc_new!AA9</f>
         <v>892.96612984608191</v>
       </c>
-      <c r="M11" s="207">
+      <c r="M11" s="120">
         <f>calc_new!AB9</f>
         <v>723.06373152674632</v>
       </c>
-      <c r="N11" s="209"/>
-      <c r="O11" s="212"/>
-    </row>
-    <row r="12" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A12" s="206">
+      <c r="N11" s="152"/>
+    </row>
+    <row r="12" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A12" s="192">
         <v>2020</v>
       </c>
-      <c r="B12" s="207">
+      <c r="B12" s="120">
         <f>calc_new!Q10</f>
         <v>923.91507668662484</v>
       </c>
-      <c r="C12" s="207">
+      <c r="C12" s="120">
         <f>calc_new!R10</f>
         <v>957.72256842423644</v>
       </c>
-      <c r="D12" s="207">
+      <c r="D12" s="120">
         <f>calc_new!S10</f>
         <v>737.83663000625097</v>
       </c>
-      <c r="E12" s="207">
+      <c r="E12" s="120">
         <f>calc_new!T10</f>
         <v>847.06931389501608</v>
       </c>
-      <c r="F12" s="207">
+      <c r="F12" s="120">
         <f>calc_new!U10</f>
         <v>894.38105505826184</v>
       </c>
-      <c r="G12" s="207">
+      <c r="G12" s="120">
         <f>calc_new!V10</f>
         <v>709.03508473540137</v>
       </c>
-      <c r="H12" s="207">
+      <c r="H12" s="120">
         <f>calc_new!W10</f>
         <v>862.87790560790438</v>
       </c>
-      <c r="I12" s="207">
+      <c r="I12" s="120">
         <f>calc_new!X10</f>
         <v>896.70124690279499</v>
       </c>
-      <c r="J12" s="207">
+      <c r="J12" s="120">
         <f>calc_new!Y10</f>
         <v>756.99104544404508</v>
       </c>
-      <c r="K12" s="207">
+      <c r="K12" s="120">
         <f>calc_new!Z10</f>
         <v>864.15245024493004</v>
       </c>
-      <c r="L12" s="207">
+      <c r="L12" s="120">
         <f>calc_new!AA10</f>
         <v>909.28038112858383</v>
       </c>
-      <c r="M12" s="207">
+      <c r="M12" s="120">
         <f>calc_new!AB10</f>
         <v>737.02920270971788</v>
       </c>
-      <c r="N12" s="209"/>
-      <c r="O12" s="212"/>
-    </row>
-    <row r="13" spans="1:15" ht="16.05" customHeight="1">
-      <c r="A13" s="265">
+      <c r="N12" s="152"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.149999999999999" customHeight="1">
+      <c r="A13" s="229">
         <v>2021</v>
       </c>
-      <c r="B13" s="207">
+      <c r="B13" s="120">
         <f>calc_new!Q11</f>
         <v>1005.8933762860338</v>
       </c>
-      <c r="C13" s="207">
+      <c r="C13" s="120">
         <f>calc_new!R11</f>
         <v>1064.5669004510262</v>
       </c>
-      <c r="D13" s="207">
+      <c r="D13" s="120">
         <f>calc_new!S11</f>
         <v>795.61297244941954</v>
       </c>
-      <c r="E13" s="207">
+      <c r="E13" s="120">
         <f>calc_new!T11</f>
         <v>908.35695137390201</v>
       </c>
-      <c r="F13" s="207">
+      <c r="F13" s="120">
         <f>calc_new!U11</f>
         <v>973.18475264109475</v>
       </c>
-      <c r="G13" s="207">
+      <c r="G13" s="120">
         <f>calc_new!V11</f>
         <v>808.48978608531831</v>
       </c>
-      <c r="H13" s="207">
+      <c r="H13" s="120">
         <f>calc_new!W11</f>
         <v>934.32572247448002</v>
       </c>
-      <c r="I13" s="207">
+      <c r="I13" s="120">
         <f>calc_new!X11</f>
         <v>990.45501119919913</v>
       </c>
-      <c r="J13" s="207">
+      <c r="J13" s="120">
         <f>calc_new!Y11</f>
         <v>825.69355986786718</v>
       </c>
-      <c r="K13" s="207">
+      <c r="K13" s="120">
         <f>calc_new!Z11</f>
         <v>930.39953578922155</v>
       </c>
-      <c r="L13" s="207">
+      <c r="L13" s="120">
         <f>calc_new!AA11</f>
         <v>999.00934486659787</v>
       </c>
-      <c r="M13" s="207">
+      <c r="M13" s="120">
         <f>calc_new!AB11</f>
         <v>814.67053117042678</v>
       </c>
-      <c r="N13" s="225"/>
-      <c r="O13" s="212"/>
-    </row>
-    <row r="14" spans="1:15" ht="12" customHeight="1">
-      <c r="A14" s="218"/>
-      <c r="B14" s="210"/>
-      <c r="C14" s="210"/>
-      <c r="D14" s="210"/>
-      <c r="E14" s="210"/>
-      <c r="F14" s="210"/>
-      <c r="G14" s="210"/>
-      <c r="H14" s="210"/>
-      <c r="I14" s="210"/>
-      <c r="J14" s="210"/>
-      <c r="K14" s="210"/>
-      <c r="L14" s="210"/>
-      <c r="M14" s="210"/>
-      <c r="N14" s="227"/>
-      <c r="O14" s="212"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="226"/>
-      <c r="B15" s="226"/>
-      <c r="C15" s="226"/>
-      <c r="D15" s="226"/>
-      <c r="E15" s="226"/>
-      <c r="F15" s="226"/>
-      <c r="G15" s="226"/>
-      <c r="H15" s="226"/>
-      <c r="I15" s="226"/>
-      <c r="J15" s="218"/>
-      <c r="K15" s="227"/>
-      <c r="L15" s="227"/>
-      <c r="M15" s="227"/>
-      <c r="N15" s="212"/>
-      <c r="O15" s="212"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="212"/>
-      <c r="B16" s="212"/>
-      <c r="C16" s="212"/>
-      <c r="D16" s="212"/>
-      <c r="E16" s="212"/>
-      <c r="F16" s="212"/>
-      <c r="G16" s="212"/>
-      <c r="H16" s="212"/>
-      <c r="I16" s="212"/>
-      <c r="J16" s="212"/>
-      <c r="K16" s="212"/>
-      <c r="L16" s="212"/>
-      <c r="M16" s="212"/>
-      <c r="N16" s="212"/>
-      <c r="O16" s="212"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="212"/>
-      <c r="B17" s="212"/>
-      <c r="C17" s="212"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="212"/>
-      <c r="J17" s="212"/>
-      <c r="K17" s="212"/>
-      <c r="L17" s="212"/>
-      <c r="M17" s="212"/>
-      <c r="N17" s="212"/>
-      <c r="O17" s="212"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="212"/>
-      <c r="B18" s="212"/>
-      <c r="C18" s="212"/>
-      <c r="D18" s="212"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="212"/>
-      <c r="H18" s="212"/>
-      <c r="I18" s="212"/>
-      <c r="J18" s="212"/>
-      <c r="K18" s="212"/>
-      <c r="L18" s="212"/>
-      <c r="M18" s="212"/>
-      <c r="N18" s="212"/>
-      <c r="O18" s="212"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="212"/>
-      <c r="B19" s="212"/>
-      <c r="C19" s="212"/>
-      <c r="D19" s="212"/>
-      <c r="E19" s="212"/>
-      <c r="F19" s="212"/>
-      <c r="G19" s="212"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="212"/>
-      <c r="J19" s="212"/>
-      <c r="K19" s="212"/>
-      <c r="L19" s="212"/>
-      <c r="M19" s="212"/>
+      <c r="N13" s="196"/>
+    </row>
+    <row r="14" spans="1:14" ht="12" customHeight="1">
+      <c r="A14" s="117"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="193"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="193"/>
+      <c r="K14" s="193"/>
+      <c r="L14" s="193"/>
+      <c r="M14" s="193"/>
+      <c r="N14" s="135"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="106"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="135"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="135"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -23245,524 +23110,465 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="14" width="14.6640625" style="200" customWidth="1"/>
-    <col min="15" max="16384" width="14.5546875" style="200"/>
+    <col min="1" max="14" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1">
-      <c r="A1" s="198" t="s">
+    <row r="1" spans="1:14" ht="18" customHeight="1">
+      <c r="A1" s="189" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="223"/>
-      <c r="L1" s="223"/>
-      <c r="M1" s="223"/>
-      <c r="N1" s="223"/>
-    </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1">
-      <c r="A2" s="222" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+    </row>
+    <row r="2" spans="1:14" ht="18" customHeight="1">
+      <c r="A2" s="195" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="199"/>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="223"/>
-      <c r="M2" s="223"/>
-      <c r="N2" s="223"/>
-    </row>
-    <row r="3" spans="1:15" ht="18" customHeight="1">
-      <c r="A3" s="220" t="s">
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+    </row>
+    <row r="3" spans="1:14" ht="18" customHeight="1">
+      <c r="A3" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="199"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="223"/>
-      <c r="N3" s="223"/>
-    </row>
-    <row r="4" spans="1:15" s="270" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="267" t="s">
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="135"/>
+    </row>
+    <row r="4" spans="1:14" s="234" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="231" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="269"/>
-      <c r="C4" s="269"/>
-      <c r="D4" s="269"/>
-      <c r="E4" s="269"/>
-      <c r="F4" s="269"/>
-      <c r="G4" s="269"/>
-      <c r="H4" s="269"/>
-      <c r="I4" s="269"/>
-      <c r="J4" s="269"/>
-      <c r="K4" s="269"/>
-      <c r="L4" s="269"/>
-      <c r="M4" s="269"/>
-      <c r="N4" s="269"/>
-    </row>
-    <row r="5" spans="1:15" ht="18" customHeight="1">
-      <c r="A5" s="221" t="s">
+      <c r="B4" s="233"/>
+      <c r="C4" s="233"/>
+      <c r="D4" s="233"/>
+      <c r="E4" s="233"/>
+      <c r="F4" s="233"/>
+      <c r="G4" s="233"/>
+      <c r="H4" s="233"/>
+      <c r="I4" s="233"/>
+      <c r="J4" s="233"/>
+      <c r="K4" s="233"/>
+      <c r="L4" s="233"/>
+      <c r="M4" s="233"/>
+      <c r="N4" s="233"/>
+    </row>
+    <row r="5" spans="1:14" ht="18" customHeight="1">
+      <c r="A5" s="190" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="223"/>
-      <c r="L5" s="223"/>
-      <c r="M5" s="223"/>
-      <c r="N5" s="223"/>
-    </row>
-    <row r="6" spans="1:15" ht="18" customHeight="1">
-      <c r="A6" s="203" t="s">
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="135"/>
+    </row>
+    <row r="6" spans="1:14" ht="18" customHeight="1">
+      <c r="A6" s="190" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="199"/>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="199"/>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="199"/>
-      <c r="I6" s="199"/>
-      <c r="J6" s="199"/>
-      <c r="K6" s="223"/>
-      <c r="L6" s="223"/>
-      <c r="M6" s="223"/>
-      <c r="N6" s="223"/>
-    </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1">
-      <c r="A7" s="203" t="s">
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+    </row>
+    <row r="7" spans="1:14" ht="18" customHeight="1">
+      <c r="A7" s="190" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="199"/>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
-      <c r="E7" s="199"/>
-      <c r="F7" s="199"/>
-      <c r="G7" s="199"/>
-      <c r="H7" s="199"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="199"/>
-      <c r="K7" s="223"/>
-      <c r="L7" s="223"/>
-      <c r="M7" s="223"/>
-      <c r="N7" s="223"/>
-    </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1">
-      <c r="A8" s="204" t="s">
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135"/>
+    </row>
+    <row r="8" spans="1:14" ht="18" customHeight="1">
+      <c r="A8" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="199"/>
-      <c r="C8" s="199"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="199"/>
-      <c r="G8" s="199"/>
-      <c r="H8" s="199"/>
-      <c r="I8" s="199"/>
-      <c r="J8" s="199"/>
-      <c r="K8" s="223"/>
-      <c r="L8" s="223"/>
-      <c r="M8" s="223"/>
-      <c r="N8" s="223"/>
-    </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1">
-      <c r="A9" s="220" t="s">
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="135"/>
+      <c r="L8" s="135"/>
+      <c r="M8" s="135"/>
+      <c r="N8" s="135"/>
+    </row>
+    <row r="9" spans="1:14" ht="18" customHeight="1">
+      <c r="A9" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="211"/>
-      <c r="C9" s="211"/>
-      <c r="D9" s="211"/>
-      <c r="E9" s="211"/>
-      <c r="F9" s="211"/>
-      <c r="G9" s="211"/>
-      <c r="H9" s="211"/>
-      <c r="I9" s="211"/>
-      <c r="J9" s="211"/>
-      <c r="K9" s="227"/>
-      <c r="L9" s="227"/>
-      <c r="M9" s="227"/>
-      <c r="N9" s="227"/>
-      <c r="O9" s="212"/>
-    </row>
-    <row r="10" spans="1:15" s="233" customFormat="1" ht="64.05" customHeight="1">
-      <c r="A10" s="231" t="s">
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="135"/>
+      <c r="L9" s="135"/>
+      <c r="M9" s="135"/>
+      <c r="N9" s="135"/>
+    </row>
+    <row r="10" spans="1:14" s="29" customFormat="1" ht="64.150000000000006" customHeight="1">
+      <c r="A10" s="199" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="231" t="s">
+      <c r="B10" s="199" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="231" t="s">
+      <c r="C10" s="199" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="231" t="s">
+      <c r="D10" s="199" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="231" t="s">
+      <c r="E10" s="199" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="231" t="s">
+      <c r="F10" s="199" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="231" t="s">
+      <c r="G10" s="199" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="231" t="s">
+      <c r="H10" s="199" t="s">
         <v>89</v>
       </c>
-      <c r="I10" s="231" t="s">
+      <c r="I10" s="199" t="s">
         <v>90</v>
       </c>
-      <c r="J10" s="231" t="s">
+      <c r="J10" s="199" t="s">
         <v>91</v>
       </c>
-      <c r="K10" s="231" t="s">
+      <c r="K10" s="199" t="s">
         <v>92</v>
       </c>
-      <c r="L10" s="231" t="s">
+      <c r="L10" s="199" t="s">
         <v>93</v>
       </c>
-      <c r="M10" s="231" t="s">
+      <c r="M10" s="199" t="s">
         <v>94</v>
       </c>
-      <c r="N10" s="227"/>
-      <c r="O10" s="219"/>
-    </row>
-    <row r="11" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A11" s="266">
+      <c r="N10" s="135"/>
+    </row>
+    <row r="11" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A11" s="230">
         <v>2017</v>
       </c>
-      <c r="B11" s="207">
+      <c r="B11" s="120">
         <f>calc_new!Q15</f>
         <v>704.79893060464201</v>
       </c>
-      <c r="C11" s="207">
+      <c r="C11" s="120">
         <f>calc_new!R15</f>
         <v>742.3897422503095</v>
       </c>
-      <c r="D11" s="207">
+      <c r="D11" s="120">
         <f>calc_new!S15</f>
         <v>525.83096697989015</v>
       </c>
-      <c r="E11" s="207">
+      <c r="E11" s="120">
         <f>calc_new!T15</f>
         <v>627.59523249329482</v>
       </c>
-      <c r="F11" s="207">
+      <c r="F11" s="120">
         <f>calc_new!U15</f>
         <v>675.31943342287809</v>
       </c>
-      <c r="G11" s="207">
+      <c r="G11" s="120">
         <f>calc_new!V15</f>
         <v>518.09001223676319</v>
       </c>
-      <c r="H11" s="207">
+      <c r="H11" s="120">
         <f>calc_new!W15</f>
         <v>606.31820557166532</v>
       </c>
-      <c r="I11" s="207">
+      <c r="I11" s="120">
         <f>calc_new!X15</f>
         <v>656.68505167743194</v>
       </c>
-      <c r="J11" s="207">
+      <c r="J11" s="120">
         <f>calc_new!Y15</f>
         <v>533.80003319829098</v>
       </c>
-      <c r="K11" s="207">
+      <c r="K11" s="120">
         <f>calc_new!Z15</f>
         <v>641.8295708984167</v>
       </c>
-      <c r="L11" s="207">
+      <c r="L11" s="120">
         <f>calc_new!AA15</f>
         <v>684.93187517500235</v>
       </c>
-      <c r="M11" s="207">
+      <c r="M11" s="120">
         <f>calc_new!AB15</f>
         <v>528.22102303008887</v>
       </c>
-      <c r="N11" s="224"/>
-      <c r="O11" s="212"/>
-    </row>
-    <row r="12" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A12" s="266">
+      <c r="N11" s="137"/>
+    </row>
+    <row r="12" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A12" s="230">
         <v>2018</v>
       </c>
-      <c r="B12" s="207">
+      <c r="B12" s="120">
         <f>calc_new!Q16</f>
         <v>748.68174029882096</v>
       </c>
-      <c r="C12" s="207">
+      <c r="C12" s="120">
         <f>calc_new!R16</f>
         <v>780.53588658893705</v>
       </c>
-      <c r="D12" s="207">
+      <c r="D12" s="120">
         <f>calc_new!S16</f>
         <v>569.3650956055393</v>
       </c>
-      <c r="E12" s="207">
+      <c r="E12" s="120">
         <f>calc_new!T16</f>
         <v>674.98879921981029</v>
       </c>
-      <c r="F12" s="207">
+      <c r="F12" s="120">
         <f>calc_new!U16</f>
         <v>723.73419309527446</v>
       </c>
-      <c r="G12" s="207">
+      <c r="G12" s="120">
         <f>calc_new!V16</f>
         <v>543.63252951550828</v>
       </c>
-      <c r="H12" s="207">
+      <c r="H12" s="120">
         <f>calc_new!W16</f>
         <v>622.1199579176739</v>
       </c>
-      <c r="I12" s="207">
+      <c r="I12" s="120">
         <f>calc_new!X16</f>
         <v>655.36705244256132</v>
       </c>
-      <c r="J12" s="207">
+      <c r="J12" s="120">
         <f>calc_new!Y16</f>
         <v>590.45605736825212</v>
       </c>
-      <c r="K12" s="207">
+      <c r="K12" s="120">
         <f>calc_new!Z16</f>
         <v>679.74031493959626</v>
       </c>
-      <c r="L12" s="207">
+      <c r="L12" s="120">
         <f>calc_new!AA16</f>
         <v>713.2165348084369</v>
       </c>
-      <c r="M12" s="207">
+      <c r="M12" s="120">
         <f>calc_new!AB16</f>
         <v>571.90700743714785</v>
       </c>
-      <c r="N12" s="224"/>
-      <c r="O12" s="212"/>
-    </row>
-    <row r="13" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A13" s="266">
+      <c r="N12" s="137"/>
+    </row>
+    <row r="13" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A13" s="230">
         <v>2019</v>
       </c>
-      <c r="B13" s="207">
+      <c r="B13" s="120">
         <f>calc_new!Q17</f>
         <v>788.83276380216751</v>
       </c>
-      <c r="C13" s="207">
+      <c r="C13" s="120">
         <f>calc_new!R17</f>
         <v>840.16745777651772</v>
       </c>
-      <c r="D13" s="207">
+      <c r="D13" s="120">
         <f>calc_new!S17</f>
         <v>618.63185020849551</v>
       </c>
-      <c r="E13" s="207">
+      <c r="E13" s="120">
         <f>calc_new!T17</f>
         <v>716.42709985831243</v>
       </c>
-      <c r="F13" s="207">
+      <c r="F13" s="120">
         <f>calc_new!U17</f>
         <v>760.38847640719109</v>
       </c>
-      <c r="G13" s="207">
+      <c r="G13" s="120">
         <f>calc_new!V17</f>
         <v>600.52533926431897</v>
       </c>
-      <c r="H13" s="207">
+      <c r="H13" s="120">
         <f>calc_new!W17</f>
         <v>696.97826670336985</v>
       </c>
-      <c r="I13" s="207">
+      <c r="I13" s="120">
         <f>calc_new!X17</f>
         <v>717.69037105759207</v>
       </c>
-      <c r="J13" s="207">
+      <c r="J13" s="120">
         <f>calc_new!Y17</f>
         <v>631.03330588192568</v>
       </c>
-      <c r="K13" s="207">
+      <c r="K13" s="120">
         <f>calc_new!Z17</f>
         <v>727.04391990514148</v>
       </c>
-      <c r="L13" s="207">
+      <c r="L13" s="120">
         <f>calc_new!AA17</f>
         <v>763.48604101839999</v>
       </c>
-      <c r="M13" s="207">
+      <c r="M13" s="120">
         <f>calc_new!AB17</f>
         <v>618.21949045536803</v>
       </c>
-      <c r="N13" s="224"/>
-      <c r="O13" s="212"/>
-    </row>
-    <row r="14" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A14" s="266">
+      <c r="N13" s="137"/>
+    </row>
+    <row r="14" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A14" s="230">
         <v>2020</v>
       </c>
-      <c r="B14" s="207">
+      <c r="B14" s="120">
         <f>calc_new!Q18</f>
         <v>745.93710157418718</v>
       </c>
-      <c r="C14" s="207">
+      <c r="C14" s="120">
         <f>calc_new!R18</f>
         <v>773.23210198557331</v>
       </c>
-      <c r="D14" s="207">
+      <c r="D14" s="120">
         <f>calc_new!S18</f>
         <v>595.70379476425353</v>
       </c>
-      <c r="E14" s="207">
+      <c r="E14" s="120">
         <f>calc_new!T18</f>
         <v>683.89448855546618</v>
       </c>
-      <c r="F14" s="207">
+      <c r="F14" s="120">
         <f>calc_new!U18</f>
         <v>722.09235323400731</v>
       </c>
-      <c r="G14" s="207">
+      <c r="G14" s="120">
         <f>calc_new!V18</f>
         <v>572.45042252008318</v>
       </c>
-      <c r="H14" s="207">
+      <c r="H14" s="120">
         <f>calc_new!W18</f>
         <v>696.65779914519192</v>
       </c>
-      <c r="I14" s="207">
+      <c r="I14" s="120">
         <f>calc_new!X18</f>
         <v>723.96559594134999</v>
       </c>
-      <c r="J14" s="207">
+      <c r="J14" s="120">
         <f>calc_new!Y18</f>
         <v>611.16840779476729</v>
       </c>
-      <c r="K14" s="207">
+      <c r="K14" s="120">
         <f>calc_new!Z18</f>
         <v>697.68682243570834</v>
       </c>
-      <c r="L14" s="207">
+      <c r="L14" s="120">
         <f>calc_new!AA18</f>
         <v>734.12155416896985</v>
       </c>
-      <c r="M14" s="207">
+      <c r="M14" s="120">
         <f>calc_new!AB18</f>
         <v>595.05190587045206</v>
       </c>
-      <c r="N14" s="224"/>
-      <c r="O14" s="212"/>
-    </row>
-    <row r="15" spans="1:15" ht="12" customHeight="1">
-      <c r="A15" s="228"/>
-      <c r="B15" s="229"/>
-      <c r="C15" s="229"/>
-      <c r="D15" s="229"/>
-      <c r="E15" s="229"/>
-      <c r="F15" s="229"/>
-      <c r="G15" s="230"/>
-      <c r="H15" s="229"/>
-      <c r="I15" s="229"/>
-      <c r="J15" s="229"/>
-      <c r="K15" s="216"/>
-      <c r="L15" s="216"/>
-      <c r="M15" s="216"/>
-      <c r="N15" s="227"/>
-      <c r="O15" s="212"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="226"/>
-      <c r="B16" s="226"/>
-      <c r="C16" s="226"/>
-      <c r="D16" s="226"/>
-      <c r="E16" s="226"/>
-      <c r="F16" s="226"/>
-      <c r="G16" s="226"/>
-      <c r="H16" s="226"/>
-      <c r="I16" s="226"/>
-      <c r="J16" s="218"/>
-      <c r="K16" s="227"/>
-      <c r="L16" s="227"/>
-      <c r="M16" s="227"/>
-      <c r="N16" s="212"/>
-      <c r="O16" s="212"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="212"/>
-      <c r="B17" s="212"/>
-      <c r="C17" s="212"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="212"/>
-      <c r="J17" s="212"/>
-      <c r="K17" s="212"/>
-      <c r="L17" s="212"/>
-      <c r="M17" s="212"/>
-      <c r="N17" s="212"/>
-      <c r="O17" s="212"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="212"/>
-      <c r="B18" s="212"/>
-      <c r="C18" s="212"/>
-      <c r="D18" s="212"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="212"/>
-      <c r="H18" s="212"/>
-      <c r="I18" s="212"/>
-      <c r="J18" s="212"/>
-      <c r="K18" s="212"/>
-      <c r="L18" s="212"/>
-      <c r="M18" s="212"/>
-      <c r="N18" s="212"/>
-      <c r="O18" s="212"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="212"/>
-      <c r="B19" s="212"/>
-      <c r="C19" s="212"/>
-      <c r="D19" s="212"/>
-      <c r="E19" s="212"/>
-      <c r="F19" s="212"/>
-      <c r="G19" s="212"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="212"/>
-      <c r="J19" s="212"/>
-      <c r="K19" s="212"/>
-      <c r="L19" s="212"/>
-      <c r="M19" s="212"/>
+      <c r="N14" s="137"/>
+    </row>
+    <row r="15" spans="1:14" ht="12" customHeight="1">
+      <c r="A15" s="108"/>
+      <c r="B15" s="197"/>
+      <c r="C15" s="197"/>
+      <c r="D15" s="197"/>
+      <c r="E15" s="197"/>
+      <c r="F15" s="197"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="197"/>
+      <c r="J15" s="197"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="151"/>
+      <c r="M15" s="151"/>
+      <c r="N15" s="135"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="106"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -23785,521 +23591,521 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="219.77734375" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="219.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="6" width="1.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="1.77734375" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" customWidth="1"/>
-    <col min="10" max="10" width="1.77734375" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" customWidth="1"/>
-    <col min="12" max="12" width="0.109375" customWidth="1"/>
-    <col min="13" max="13" width="2.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="6" width="1.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="12" max="12" width="0.140625" customWidth="1"/>
+    <col min="13" max="13" width="2.28515625" customWidth="1"/>
     <col min="17" max="17" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="183" customFormat="1" ht="15.6">
-      <c r="A1" s="181" t="s">
+    <row r="1" spans="1:17" s="178" customFormat="1" ht="15.75">
+      <c r="A1" s="176" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="182"/>
-      <c r="M1" s="182"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="182"/>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-    </row>
-    <row r="2" spans="1:17" s="183" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A2" s="184" t="s">
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+    </row>
+    <row r="2" spans="1:17" s="178" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A2" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="182"/>
-      <c r="L2" s="182"/>
-      <c r="M2" s="182"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="182"/>
-      <c r="Q2" s="182"/>
-    </row>
-    <row r="3" spans="1:17" s="183" customFormat="1" ht="27.6">
-      <c r="A3" s="187" t="s">
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="177"/>
+      <c r="N2" s="177"/>
+      <c r="O2" s="177"/>
+      <c r="P2" s="177"/>
+      <c r="Q2" s="177"/>
+    </row>
+    <row r="3" spans="1:17" s="178" customFormat="1" ht="42.75">
+      <c r="A3" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="187"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-    </row>
-    <row r="4" spans="1:17" s="183" customFormat="1" ht="13.8">
-      <c r="A4" s="189" t="s">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="182"/>
+      <c r="N3" s="182"/>
+      <c r="O3" s="182"/>
+      <c r="P3" s="182"/>
+      <c r="Q3" s="182"/>
+    </row>
+    <row r="4" spans="1:17" s="178" customFormat="1" ht="14.25">
+      <c r="A4" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="189"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="189"/>
-      <c r="I4" s="189"/>
-      <c r="J4" s="189"/>
-      <c r="K4" s="189"/>
-      <c r="L4" s="189"/>
-      <c r="M4" s="189"/>
-      <c r="N4" s="189"/>
-      <c r="O4" s="189"/>
-      <c r="P4" s="189"/>
-      <c r="Q4" s="189"/>
-    </row>
-    <row r="5" spans="1:17" s="183" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A5" s="184" t="s">
+      <c r="B4" s="184"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
+      <c r="K4" s="184"/>
+      <c r="L4" s="184"/>
+      <c r="M4" s="184"/>
+      <c r="N4" s="184"/>
+      <c r="O4" s="184"/>
+      <c r="P4" s="184"/>
+      <c r="Q4" s="184"/>
+    </row>
+    <row r="5" spans="1:17" s="178" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A5" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="185"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="185"/>
-      <c r="H5" s="185"/>
-      <c r="I5" s="185"/>
-      <c r="J5" s="185"/>
-      <c r="K5" s="185"/>
-      <c r="L5" s="182"/>
-      <c r="M5" s="182"/>
-      <c r="N5" s="182"/>
-      <c r="O5" s="182"/>
-      <c r="P5" s="182"/>
-      <c r="Q5" s="182"/>
-    </row>
-    <row r="6" spans="1:17" s="183" customFormat="1" ht="41.4">
-      <c r="A6" s="187" t="s">
+      <c r="B5" s="180"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="180"/>
+      <c r="I5" s="180"/>
+      <c r="J5" s="180"/>
+      <c r="K5" s="180"/>
+      <c r="L5" s="177"/>
+      <c r="M5" s="177"/>
+      <c r="N5" s="177"/>
+      <c r="O5" s="177"/>
+      <c r="P5" s="177"/>
+      <c r="Q5" s="177"/>
+    </row>
+    <row r="6" spans="1:17" s="178" customFormat="1" ht="42.75">
+      <c r="A6" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="187"/>
-      <c r="L6" s="187"/>
-      <c r="M6" s="187"/>
-      <c r="N6" s="187"/>
-      <c r="O6" s="187"/>
-      <c r="P6" s="187"/>
-      <c r="Q6" s="187"/>
-    </row>
-    <row r="7" spans="1:17" s="183" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A7" s="184" t="s">
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="182"/>
+      <c r="K6" s="182"/>
+      <c r="L6" s="182"/>
+      <c r="M6" s="182"/>
+      <c r="N6" s="182"/>
+      <c r="O6" s="182"/>
+      <c r="P6" s="182"/>
+      <c r="Q6" s="182"/>
+    </row>
+    <row r="7" spans="1:17" s="178" customFormat="1" ht="25.9" customHeight="1">
+      <c r="A7" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="182"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="182"/>
-      <c r="J7" s="182"/>
-      <c r="K7" s="182"/>
-      <c r="L7" s="182"/>
-      <c r="M7" s="182"/>
-      <c r="N7" s="182"/>
-      <c r="O7" s="182"/>
-      <c r="P7" s="182"/>
-      <c r="Q7" s="182"/>
-    </row>
-    <row r="8" spans="1:17" s="183" customFormat="1" ht="13.8">
-      <c r="A8" s="187" t="s">
+      <c r="B7" s="177"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177"/>
+      <c r="Q7" s="177"/>
+    </row>
+    <row r="8" spans="1:17" s="178" customFormat="1" ht="14.25">
+      <c r="A8" s="182" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="187"/>
-      <c r="C8" s="187"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="187"/>
-      <c r="H8" s="187"/>
-      <c r="I8" s="187"/>
-      <c r="J8" s="187"/>
-      <c r="K8" s="187"/>
-      <c r="L8" s="187"/>
-      <c r="M8" s="187"/>
-      <c r="N8" s="187"/>
-      <c r="O8" s="187"/>
-      <c r="P8" s="187"/>
-      <c r="Q8" s="187"/>
-    </row>
-    <row r="9" spans="1:17" s="183" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A9" s="184" t="s">
+      <c r="B8" s="182"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="182"/>
+      <c r="J8" s="182"/>
+      <c r="K8" s="182"/>
+      <c r="L8" s="182"/>
+      <c r="M8" s="182"/>
+      <c r="N8" s="182"/>
+      <c r="O8" s="182"/>
+      <c r="P8" s="182"/>
+      <c r="Q8" s="182"/>
+    </row>
+    <row r="9" spans="1:17" s="178" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A9" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="182"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="182"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="182"/>
-      <c r="J9" s="182"/>
-      <c r="K9" s="182"/>
-      <c r="L9" s="182"/>
-      <c r="M9" s="182"/>
-      <c r="N9" s="182"/>
-      <c r="O9" s="182"/>
-      <c r="P9" s="182"/>
-      <c r="Q9" s="182"/>
-    </row>
-    <row r="10" spans="1:17" s="183" customFormat="1" ht="13.8">
-      <c r="A10" s="187" t="s">
+      <c r="B9" s="177"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="177"/>
+      <c r="L9" s="177"/>
+      <c r="M9" s="177"/>
+      <c r="N9" s="177"/>
+      <c r="O9" s="177"/>
+      <c r="P9" s="177"/>
+      <c r="Q9" s="177"/>
+    </row>
+    <row r="10" spans="1:17" s="178" customFormat="1" ht="14.25">
+      <c r="A10" s="182" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="187"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="187"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="187"/>
-      <c r="J10" s="187"/>
-      <c r="K10" s="187"/>
-      <c r="L10" s="187"/>
-      <c r="M10" s="187"/>
-      <c r="N10" s="187"/>
-      <c r="O10" s="187"/>
-      <c r="P10" s="187"/>
-      <c r="Q10" s="187"/>
-    </row>
-    <row r="11" spans="1:17" s="183" customFormat="1" ht="13.8">
-      <c r="A11" s="187" t="s">
+      <c r="B10" s="182"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="182"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="182"/>
+      <c r="K10" s="182"/>
+      <c r="L10" s="182"/>
+      <c r="M10" s="182"/>
+      <c r="N10" s="182"/>
+      <c r="O10" s="182"/>
+      <c r="P10" s="182"/>
+      <c r="Q10" s="182"/>
+    </row>
+    <row r="11" spans="1:17" s="178" customFormat="1" ht="14.25">
+      <c r="A11" s="182" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="187"/>
-      <c r="C11" s="187"/>
-      <c r="D11" s="187"/>
-      <c r="E11" s="187"/>
-      <c r="F11" s="187"/>
-      <c r="G11" s="187"/>
-      <c r="H11" s="187"/>
-      <c r="I11" s="187"/>
-      <c r="J11" s="187"/>
-      <c r="K11" s="187"/>
-      <c r="L11" s="187"/>
-      <c r="M11" s="187"/>
-      <c r="N11" s="187"/>
-      <c r="O11" s="187"/>
-      <c r="P11" s="187"/>
-      <c r="Q11" s="187"/>
-    </row>
-    <row r="12" spans="1:17" s="183" customFormat="1" ht="13.8">
-      <c r="A12" s="187" t="s">
+      <c r="B11" s="182"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="182"/>
+      <c r="J11" s="182"/>
+      <c r="K11" s="182"/>
+      <c r="L11" s="182"/>
+      <c r="M11" s="182"/>
+      <c r="N11" s="182"/>
+      <c r="O11" s="182"/>
+      <c r="P11" s="182"/>
+      <c r="Q11" s="182"/>
+    </row>
+    <row r="12" spans="1:17" s="178" customFormat="1" ht="14.25">
+      <c r="A12" s="182" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="187"/>
-      <c r="C12" s="187"/>
-      <c r="D12" s="187"/>
-      <c r="E12" s="187"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="187"/>
-      <c r="H12" s="187"/>
-      <c r="I12" s="187"/>
-      <c r="J12" s="187"/>
-      <c r="K12" s="187"/>
-      <c r="L12" s="187"/>
-      <c r="M12" s="187"/>
-      <c r="N12" s="187"/>
-      <c r="O12" s="187"/>
-      <c r="P12" s="187"/>
-      <c r="Q12" s="187"/>
-    </row>
-    <row r="13" spans="1:17" s="183" customFormat="1" ht="41.4">
-      <c r="A13" s="187" t="s">
+      <c r="B12" s="182"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="182"/>
+      <c r="H12" s="182"/>
+      <c r="I12" s="182"/>
+      <c r="J12" s="182"/>
+      <c r="K12" s="182"/>
+      <c r="L12" s="182"/>
+      <c r="M12" s="182"/>
+      <c r="N12" s="182"/>
+      <c r="O12" s="182"/>
+      <c r="P12" s="182"/>
+      <c r="Q12" s="182"/>
+    </row>
+    <row r="13" spans="1:17" s="178" customFormat="1" ht="42.75">
+      <c r="A13" s="182" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="187"/>
-      <c r="C13" s="187"/>
-      <c r="D13" s="187"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="187"/>
-      <c r="H13" s="187"/>
-      <c r="I13" s="187"/>
-      <c r="J13" s="187"/>
-      <c r="K13" s="187"/>
-      <c r="L13" s="187"/>
-      <c r="M13" s="187"/>
-      <c r="N13" s="187"/>
-      <c r="O13" s="187"/>
-      <c r="P13" s="187"/>
-      <c r="Q13" s="187"/>
-    </row>
-    <row r="14" spans="1:17" s="183" customFormat="1" ht="13.8">
-      <c r="A14" s="187" t="s">
+      <c r="B13" s="182"/>
+      <c r="C13" s="182"/>
+      <c r="D13" s="182"/>
+      <c r="E13" s="182"/>
+      <c r="F13" s="182"/>
+      <c r="G13" s="182"/>
+      <c r="H13" s="182"/>
+      <c r="I13" s="182"/>
+      <c r="J13" s="182"/>
+      <c r="K13" s="182"/>
+      <c r="L13" s="182"/>
+      <c r="M13" s="182"/>
+      <c r="N13" s="182"/>
+      <c r="O13" s="182"/>
+      <c r="P13" s="182"/>
+      <c r="Q13" s="182"/>
+    </row>
+    <row r="14" spans="1:17" s="178" customFormat="1" ht="14.25">
+      <c r="A14" s="182" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="187"/>
-      <c r="F14" s="187"/>
-      <c r="G14" s="187"/>
-      <c r="H14" s="187"/>
-      <c r="I14" s="187"/>
-      <c r="J14" s="187"/>
-      <c r="K14" s="187"/>
-      <c r="L14" s="187"/>
-      <c r="M14" s="187"/>
-      <c r="N14" s="187"/>
-      <c r="O14" s="187"/>
-      <c r="P14" s="187"/>
-      <c r="Q14" s="187"/>
-    </row>
-    <row r="15" spans="1:17" s="183" customFormat="1" ht="13.8">
-      <c r="A15" s="187" t="s">
+      <c r="B14" s="182"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="182"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="182"/>
+      <c r="H14" s="182"/>
+      <c r="I14" s="182"/>
+      <c r="J14" s="182"/>
+      <c r="K14" s="182"/>
+      <c r="L14" s="182"/>
+      <c r="M14" s="182"/>
+      <c r="N14" s="182"/>
+      <c r="O14" s="182"/>
+      <c r="P14" s="182"/>
+      <c r="Q14" s="182"/>
+    </row>
+    <row r="15" spans="1:17" s="178" customFormat="1" ht="14.25">
+      <c r="A15" s="182" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
-      <c r="D15" s="187"/>
-      <c r="E15" s="187"/>
-      <c r="F15" s="187"/>
-      <c r="G15" s="187"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="187"/>
-      <c r="K15" s="187"/>
-      <c r="L15" s="187"/>
-      <c r="M15" s="187"/>
-      <c r="N15" s="187"/>
-      <c r="O15" s="187"/>
-      <c r="P15" s="187"/>
-      <c r="Q15" s="187"/>
-    </row>
-    <row r="16" spans="1:17" s="183" customFormat="1" ht="13.8">
-      <c r="A16" s="187" t="s">
+      <c r="B15" s="182"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="182"/>
+      <c r="K15" s="182"/>
+      <c r="L15" s="182"/>
+      <c r="M15" s="182"/>
+      <c r="N15" s="182"/>
+      <c r="O15" s="182"/>
+      <c r="P15" s="182"/>
+      <c r="Q15" s="182"/>
+    </row>
+    <row r="16" spans="1:17" s="178" customFormat="1" ht="14.25">
+      <c r="A16" s="182" t="s">
         <v>125</v>
       </c>
-      <c r="B16" s="187"/>
-      <c r="C16" s="187"/>
-      <c r="D16" s="187"/>
-      <c r="E16" s="187"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="187"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="187"/>
-      <c r="K16" s="187"/>
-      <c r="L16" s="187"/>
-      <c r="M16" s="187"/>
-      <c r="N16" s="187"/>
-      <c r="O16" s="187"/>
-      <c r="P16" s="187"/>
-      <c r="Q16" s="187"/>
-    </row>
-    <row r="17" spans="1:17" s="186" customFormat="1" ht="30.45" customHeight="1">
-      <c r="A17" s="278" t="s">
+      <c r="B16" s="182"/>
+      <c r="C16" s="182"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="182"/>
+      <c r="L16" s="182"/>
+      <c r="M16" s="182"/>
+      <c r="N16" s="182"/>
+      <c r="O16" s="182"/>
+      <c r="P16" s="182"/>
+      <c r="Q16" s="182"/>
+    </row>
+    <row r="17" spans="1:17" s="181" customFormat="1" ht="30.4" customHeight="1">
+      <c r="A17" s="239" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="278"/>
-      <c r="C17" s="278"/>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="185"/>
-      <c r="K17" s="185"/>
-      <c r="L17" s="185"/>
-      <c r="M17" s="185"/>
-      <c r="N17" s="185"/>
-      <c r="O17" s="185"/>
-      <c r="P17" s="185"/>
-      <c r="Q17" s="185"/>
-    </row>
-    <row r="18" spans="1:17" s="186" customFormat="1" ht="82.8">
-      <c r="A18" s="187" t="s">
+      <c r="B17" s="239"/>
+      <c r="C17" s="239"/>
+      <c r="D17" s="180"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="180"/>
+      <c r="J17" s="180"/>
+      <c r="K17" s="180"/>
+      <c r="L17" s="180"/>
+      <c r="M17" s="180"/>
+      <c r="N17" s="180"/>
+      <c r="O17" s="180"/>
+      <c r="P17" s="180"/>
+      <c r="Q17" s="180"/>
+    </row>
+    <row r="18" spans="1:17" s="181" customFormat="1" ht="85.5">
+      <c r="A18" s="182" t="s">
         <v>129</v>
       </c>
-      <c r="B18" s="189"/>
-      <c r="C18" s="189"/>
-      <c r="D18" s="189"/>
-      <c r="E18" s="189"/>
-      <c r="F18" s="189"/>
-      <c r="G18" s="189"/>
-      <c r="H18" s="189"/>
-      <c r="I18" s="189"/>
-      <c r="J18" s="189"/>
-      <c r="K18" s="189"/>
-      <c r="L18" s="189"/>
-      <c r="M18" s="189"/>
-      <c r="N18" s="189"/>
-      <c r="O18" s="189"/>
-      <c r="P18" s="189"/>
-      <c r="Q18" s="189"/>
-    </row>
-    <row r="19" spans="1:17" s="264" customFormat="1" ht="15">
-      <c r="A19" s="262" t="s">
+      <c r="B18" s="184"/>
+      <c r="C18" s="184"/>
+      <c r="D18" s="184"/>
+      <c r="E18" s="184"/>
+      <c r="F18" s="184"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="184"/>
+      <c r="I18" s="184"/>
+      <c r="J18" s="184"/>
+      <c r="K18" s="184"/>
+      <c r="L18" s="184"/>
+      <c r="M18" s="184"/>
+      <c r="N18" s="184"/>
+      <c r="O18" s="184"/>
+      <c r="P18" s="184"/>
+      <c r="Q18" s="184"/>
+    </row>
+    <row r="19" spans="1:17" s="228" customFormat="1" ht="15">
+      <c r="A19" s="226" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="263"/>
-      <c r="C19" s="263"/>
-      <c r="D19" s="263"/>
-      <c r="E19" s="263"/>
-      <c r="F19" s="263"/>
-      <c r="G19" s="263"/>
-      <c r="H19" s="263"/>
-      <c r="I19" s="263"/>
-      <c r="J19" s="263"/>
-      <c r="K19" s="263"/>
-      <c r="L19" s="263"/>
-      <c r="M19" s="263"/>
-      <c r="N19" s="263"/>
-      <c r="O19" s="263"/>
-      <c r="P19" s="263"/>
-      <c r="Q19" s="263"/>
-    </row>
-    <row r="20" spans="1:17" s="186" customFormat="1" ht="55.2">
-      <c r="A20" s="187" t="s">
+      <c r="B19" s="227"/>
+      <c r="C19" s="227"/>
+      <c r="D19" s="227"/>
+      <c r="E19" s="227"/>
+      <c r="F19" s="227"/>
+      <c r="G19" s="227"/>
+      <c r="H19" s="227"/>
+      <c r="I19" s="227"/>
+      <c r="J19" s="227"/>
+      <c r="K19" s="227"/>
+      <c r="L19" s="227"/>
+      <c r="M19" s="227"/>
+      <c r="N19" s="227"/>
+      <c r="O19" s="227"/>
+      <c r="P19" s="227"/>
+      <c r="Q19" s="227"/>
+    </row>
+    <row r="20" spans="1:17" s="181" customFormat="1" ht="57">
+      <c r="A20" s="182" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="187"/>
-      <c r="C20" s="187"/>
-      <c r="D20" s="187"/>
-      <c r="E20" s="187"/>
-      <c r="F20" s="187"/>
-      <c r="G20" s="187"/>
-      <c r="H20" s="187"/>
-      <c r="I20" s="187"/>
-      <c r="J20" s="187"/>
-      <c r="K20" s="187"/>
-      <c r="L20" s="187"/>
-      <c r="M20" s="187"/>
-      <c r="N20" s="187"/>
-      <c r="O20" s="187"/>
-      <c r="P20" s="187"/>
-      <c r="Q20" s="187"/>
-    </row>
-    <row r="21" spans="1:17" s="186" customFormat="1" ht="15">
-      <c r="A21" s="262" t="s">
+      <c r="B20" s="182"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="182"/>
+      <c r="F20" s="182"/>
+      <c r="G20" s="182"/>
+      <c r="H20" s="182"/>
+      <c r="I20" s="182"/>
+      <c r="J20" s="182"/>
+      <c r="K20" s="182"/>
+      <c r="L20" s="182"/>
+      <c r="M20" s="182"/>
+      <c r="N20" s="182"/>
+      <c r="O20" s="182"/>
+      <c r="P20" s="182"/>
+      <c r="Q20" s="182"/>
+    </row>
+    <row r="21" spans="1:17" s="181" customFormat="1" ht="15">
+      <c r="A21" s="226" t="s">
         <v>131</v>
       </c>
-      <c r="B21" s="187"/>
-      <c r="C21" s="187"/>
-      <c r="D21" s="187"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
-      <c r="H21" s="187"/>
-      <c r="I21" s="187"/>
-      <c r="J21" s="187"/>
-      <c r="K21" s="187"/>
-      <c r="L21" s="187"/>
-      <c r="M21" s="187"/>
-      <c r="N21" s="187"/>
-      <c r="O21" s="187"/>
-      <c r="P21" s="187"/>
-      <c r="Q21" s="187"/>
-    </row>
-    <row r="22" spans="1:17" s="186" customFormat="1" ht="13.8">
-      <c r="A22" s="189" t="s">
+      <c r="B21" s="182"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="182"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="182"/>
+      <c r="K21" s="182"/>
+      <c r="L21" s="182"/>
+      <c r="M21" s="182"/>
+      <c r="N21" s="182"/>
+      <c r="O21" s="182"/>
+      <c r="P21" s="182"/>
+      <c r="Q21" s="182"/>
+    </row>
+    <row r="22" spans="1:17" s="181" customFormat="1" ht="14.25">
+      <c r="A22" s="184" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="180"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="180"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="180"/>
+      <c r="B22" s="175"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="175"/>
+      <c r="H22" s="175"/>
+      <c r="I22" s="175"/>
       <c r="J22" s="102"/>
       <c r="K22" s="102"/>
-      <c r="L22" s="185"/>
-      <c r="M22" s="185"/>
-      <c r="N22" s="185"/>
-      <c r="O22" s="185"/>
-      <c r="P22" s="185"/>
-      <c r="Q22" s="185"/>
-    </row>
-    <row r="23" spans="1:17" s="186" customFormat="1" ht="13.8">
-      <c r="A23" s="189" t="s">
+      <c r="L22" s="180"/>
+      <c r="M22" s="180"/>
+      <c r="N22" s="180"/>
+      <c r="O22" s="180"/>
+      <c r="P22" s="180"/>
+      <c r="Q22" s="180"/>
+    </row>
+    <row r="23" spans="1:17" s="181" customFormat="1" ht="14.25">
+      <c r="A23" s="184" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="188"/>
-      <c r="C23" s="188"/>
-      <c r="D23" s="188"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="188"/>
-      <c r="K23" s="188"/>
-      <c r="L23" s="185"/>
-      <c r="M23" s="185"/>
-      <c r="N23" s="185"/>
-      <c r="O23" s="185"/>
-      <c r="P23" s="185"/>
-      <c r="Q23" s="185"/>
-    </row>
-    <row r="24" spans="1:17" ht="15.6">
-      <c r="A24" s="196" t="s">
+      <c r="B23" s="183"/>
+      <c r="C23" s="183"/>
+      <c r="D23" s="183"/>
+      <c r="E23" s="183"/>
+      <c r="F23" s="183"/>
+      <c r="G23" s="183"/>
+      <c r="H23" s="183"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="183"/>
+      <c r="K23" s="183"/>
+      <c r="L23" s="180"/>
+      <c r="M23" s="180"/>
+      <c r="N23" s="180"/>
+      <c r="O23" s="180"/>
+      <c r="P23" s="180"/>
+      <c r="Q23" s="180"/>
+    </row>
+    <row r="24" spans="1:17" ht="15.75">
+      <c r="A24" s="187" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="197"/>
-      <c r="C24" s="197"/>
-      <c r="D24" s="197"/>
-      <c r="E24" s="197"/>
-      <c r="F24" s="197"/>
-      <c r="G24" s="197"/>
-      <c r="H24" s="197"/>
-      <c r="I24" s="197"/>
-      <c r="J24" s="197"/>
-      <c r="K24" s="197"/>
-      <c r="L24" s="197"/>
+      <c r="B24" s="188"/>
+      <c r="C24" s="188"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="188"/>
+      <c r="G24" s="188"/>
+      <c r="H24" s="188"/>
+      <c r="I24" s="188"/>
+      <c r="J24" s="188"/>
+      <c r="K24" s="188"/>
+      <c r="L24" s="188"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Data Sources/Energy Bills/ElectricityAverageBill.xlsx
+++ b/Data Sources/Energy Bills/ElectricityAverageBill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\ScottishEnergyStatsProcessing\Data Sources\Energy Bills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E9E556-E854-47FD-8F3D-07C3901A683C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916951FD-2E0A-4A30-8DC2-F82466781554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="811" firstSheet="2" activeTab="4" xr2:uid="{9CD1B9F4-43FF-442D-807C-A4C96DC2797C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="811" firstSheet="2" activeTab="4" xr2:uid="{9CD1B9F4-43FF-442D-807C-A4C96DC2797C}"/>
   </bookViews>
   <sheets>
     <sheet name="calc_new" sheetId="16" state="hidden" r:id="rId1"/>
@@ -748,7 +748,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="17">
+  <numFmts count="15">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -763,9 +763,7 @@
     <numFmt numFmtId="173" formatCode="0.0%"/>
     <numFmt numFmtId="174" formatCode="0\[\p\]"/>
     <numFmt numFmtId="175" formatCode="0\[\r\]"/>
-    <numFmt numFmtId="183" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="184" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="185" formatCode="0\p\ "/>
+    <numFmt numFmtId="176" formatCode="0\p\ "/>
   </numFmts>
   <fonts count="61">
     <font>
@@ -1572,20 +1570,20 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="184" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="17" applyNumberFormat="0" applyFont="0"/>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="253">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2163,6 +2161,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2207,15 +2208,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="91">
@@ -3883,7 +3875,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="Department for Business, Energy and Industrial Strategy logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C06ACE0-7F91-474A-A266-D1D94B7C5C6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
             <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
               <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="0"/>
@@ -3960,7 +3952,7 @@
         <xdr:cNvPr id="5" name="Picture 2" descr="National Statistics accreditation logo ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6856FBA4-516A-40BF-B4A3-860EB8679DF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
             <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
               <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="0"/>
@@ -4037,7 +4029,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C48A6B72-2E15-4D92-BCF8-660D239FCC10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4097,6 +4089,157 @@
         <xdr:cNvPr id="3" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1375410" y="3495675"/>
+          <a:ext cx="213904" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>623479</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>102635</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C48A6B72-2E15-4D92-BCF8-660D239FCC10}"/>
             </a:ext>
           </a:extLst>
@@ -4105,7 +4248,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1375410" y="3495675"/>
+          <a:off x="1375410" y="3543300"/>
           <a:ext cx="213904" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4248,7 +4391,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{142A7861-29A8-4158-B766-3EC0AF3CD1BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4308,7 +4451,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29FF5F9A-11C1-4467-9B5E-3C58B5967CC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4374,7 +4517,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD7DC706-BB42-4ADE-8719-BD28B96668B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4657,7 +4800,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824D66B8-CC09-47FC-B46B-DB42B75B20CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5636,19 +5779,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="23.25" customHeight="1">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="238" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="239"/>
       <c r="L1" s="164"/>
       <c r="M1" s="164"/>
       <c r="N1" s="164"/>
@@ -5678,41 +5821,41 @@
     </row>
     <row r="4" spans="1:28" s="4" customFormat="1" ht="14.25" thickTop="1">
       <c r="B4" s="13"/>
-      <c r="C4" s="236" t="s">
+      <c r="C4" s="237" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="236"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="235" t="s">
+      <c r="D4" s="237"/>
+      <c r="E4" s="236"/>
+      <c r="F4" s="236" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="235"/>
-      <c r="H4" s="235"/>
-      <c r="I4" s="236" t="s">
+      <c r="G4" s="236"/>
+      <c r="H4" s="236"/>
+      <c r="I4" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="236"/>
-      <c r="K4" s="236"/>
-      <c r="L4" s="236" t="s">
+      <c r="J4" s="237"/>
+      <c r="K4" s="237"/>
+      <c r="L4" s="237" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="236"/>
-      <c r="N4" s="236"/>
-      <c r="Q4" s="236" t="s">
+      <c r="M4" s="237"/>
+      <c r="N4" s="237"/>
+      <c r="Q4" s="237" t="s">
         <v>71</v>
       </c>
-      <c r="R4" s="236"/>
-      <c r="S4" s="235"/>
-      <c r="T4" s="235" t="s">
+      <c r="R4" s="237"/>
+      <c r="S4" s="236"/>
+      <c r="T4" s="236" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="235"/>
-      <c r="V4" s="235"/>
-      <c r="W4" s="236" t="s">
+      <c r="U4" s="236"/>
+      <c r="V4" s="236"/>
+      <c r="W4" s="237" t="s">
         <v>72</v>
       </c>
-      <c r="X4" s="236"/>
-      <c r="Y4" s="236"/>
+      <c r="X4" s="237"/>
+      <c r="Y4" s="237"/>
       <c r="Z4" s="4" t="s">
         <v>69</v>
       </c>
@@ -7311,29 +7454,29 @@
     </row>
     <row r="4" spans="1:17" s="109" customFormat="1" ht="16.149999999999999" customHeight="1" thickTop="1">
       <c r="B4" s="110"/>
-      <c r="C4" s="240" t="s">
+      <c r="C4" s="241" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="240"/>
-      <c r="E4" s="240"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
       <c r="F4" s="111"/>
-      <c r="G4" s="240" t="s">
+      <c r="G4" s="241" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="240"/>
-      <c r="I4" s="240"/>
+      <c r="H4" s="241"/>
+      <c r="I4" s="241"/>
       <c r="J4" s="111"/>
-      <c r="K4" s="240" t="s">
+      <c r="K4" s="241" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="240"/>
-      <c r="M4" s="240"/>
+      <c r="L4" s="241"/>
+      <c r="M4" s="241"/>
       <c r="N4" s="111"/>
-      <c r="O4" s="240" t="s">
+      <c r="O4" s="241" t="s">
         <v>69</v>
       </c>
-      <c r="P4" s="240"/>
-      <c r="Q4" s="240"/>
+      <c r="P4" s="241"/>
+      <c r="Q4" s="241"/>
     </row>
     <row r="5" spans="1:17" s="109" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="112"/>
@@ -10954,20 +11097,20 @@
       <c r="R72"/>
     </row>
     <row r="73" spans="1:31" ht="36" customHeight="1">
-      <c r="B73" s="242" t="s">
+      <c r="B73" s="243" t="s">
         <v>57</v>
       </c>
-      <c r="C73" s="242"/>
-      <c r="D73" s="242"/>
-      <c r="E73" s="242"/>
-      <c r="F73" s="242"/>
-      <c r="G73" s="242"/>
-      <c r="H73" s="242"/>
-      <c r="I73" s="242"/>
-      <c r="J73" s="242"/>
-      <c r="K73" s="242"/>
-      <c r="L73" s="242"/>
-      <c r="M73" s="242"/>
+      <c r="C73" s="243"/>
+      <c r="D73" s="243"/>
+      <c r="E73" s="243"/>
+      <c r="F73" s="243"/>
+      <c r="G73" s="243"/>
+      <c r="H73" s="243"/>
+      <c r="I73" s="243"/>
+      <c r="J73" s="243"/>
+      <c r="K73" s="243"/>
+      <c r="L73" s="243"/>
+      <c r="M73" s="243"/>
       <c r="N73" s="168"/>
       <c r="O73" s="168"/>
       <c r="P73" s="168"/>
@@ -10977,20 +11120,20 @@
       <c r="U73" s="99"/>
     </row>
     <row r="74" spans="1:31" ht="12" customHeight="1">
-      <c r="B74" s="243" t="s">
+      <c r="B74" s="244" t="s">
         <v>51</v>
       </c>
-      <c r="C74" s="243"/>
-      <c r="D74" s="243"/>
-      <c r="E74" s="243"/>
-      <c r="F74" s="243"/>
-      <c r="G74" s="243"/>
-      <c r="H74" s="243"/>
-      <c r="I74" s="243"/>
-      <c r="J74" s="243"/>
-      <c r="K74" s="243"/>
-      <c r="L74" s="243"/>
-      <c r="M74" s="243"/>
+      <c r="C74" s="244"/>
+      <c r="D74" s="244"/>
+      <c r="E74" s="244"/>
+      <c r="F74" s="244"/>
+      <c r="G74" s="244"/>
+      <c r="H74" s="244"/>
+      <c r="I74" s="244"/>
+      <c r="J74" s="244"/>
+      <c r="K74" s="244"/>
+      <c r="L74" s="244"/>
+      <c r="M74" s="244"/>
       <c r="N74" s="169"/>
       <c r="O74" s="169"/>
       <c r="P74" s="169"/>
@@ -11001,20 +11144,20 @@
       <c r="U74" s="4"/>
     </row>
     <row r="75" spans="1:31" ht="24" customHeight="1">
-      <c r="B75" s="242" t="s">
+      <c r="B75" s="243" t="s">
         <v>52</v>
       </c>
-      <c r="C75" s="242"/>
-      <c r="D75" s="242"/>
-      <c r="E75" s="242"/>
-      <c r="F75" s="242"/>
-      <c r="G75" s="242"/>
-      <c r="H75" s="242"/>
-      <c r="I75" s="242"/>
-      <c r="J75" s="242"/>
-      <c r="K75" s="242"/>
-      <c r="L75" s="242"/>
-      <c r="M75" s="242"/>
+      <c r="C75" s="243"/>
+      <c r="D75" s="243"/>
+      <c r="E75" s="243"/>
+      <c r="F75" s="243"/>
+      <c r="G75" s="243"/>
+      <c r="H75" s="243"/>
+      <c r="I75" s="243"/>
+      <c r="J75" s="243"/>
+      <c r="K75" s="243"/>
+      <c r="L75" s="243"/>
+      <c r="M75" s="243"/>
       <c r="N75" s="168"/>
       <c r="O75" s="168"/>
       <c r="P75" s="168"/>
@@ -11025,20 +11168,20 @@
       <c r="U75" s="99"/>
     </row>
     <row r="76" spans="1:31" ht="12" customHeight="1">
-      <c r="B76" s="244" t="s">
+      <c r="B76" s="245" t="s">
         <v>53</v>
       </c>
-      <c r="C76" s="244"/>
-      <c r="D76" s="244"/>
-      <c r="E76" s="244"/>
-      <c r="F76" s="244"/>
-      <c r="G76" s="244"/>
-      <c r="H76" s="244"/>
-      <c r="I76" s="244"/>
-      <c r="J76" s="244"/>
-      <c r="K76" s="244"/>
-      <c r="L76" s="244"/>
-      <c r="M76" s="244"/>
+      <c r="C76" s="245"/>
+      <c r="D76" s="245"/>
+      <c r="E76" s="245"/>
+      <c r="F76" s="245"/>
+      <c r="G76" s="245"/>
+      <c r="H76" s="245"/>
+      <c r="I76" s="245"/>
+      <c r="J76" s="245"/>
+      <c r="K76" s="245"/>
+      <c r="L76" s="245"/>
+      <c r="M76" s="245"/>
       <c r="N76" s="170"/>
       <c r="O76" s="170"/>
       <c r="P76" s="170"/>
@@ -11049,20 +11192,20 @@
       <c r="U76" s="4"/>
     </row>
     <row r="77" spans="1:31" ht="24" customHeight="1">
-      <c r="B77" s="242" t="s">
+      <c r="B77" s="243" t="s">
         <v>56</v>
       </c>
-      <c r="C77" s="242"/>
-      <c r="D77" s="242"/>
-      <c r="E77" s="242"/>
-      <c r="F77" s="242"/>
-      <c r="G77" s="242"/>
-      <c r="H77" s="242"/>
-      <c r="I77" s="242"/>
-      <c r="J77" s="242"/>
-      <c r="K77" s="242"/>
-      <c r="L77" s="242"/>
-      <c r="M77" s="242"/>
+      <c r="C77" s="243"/>
+      <c r="D77" s="243"/>
+      <c r="E77" s="243"/>
+      <c r="F77" s="243"/>
+      <c r="G77" s="243"/>
+      <c r="H77" s="243"/>
+      <c r="I77" s="243"/>
+      <c r="J77" s="243"/>
+      <c r="K77" s="243"/>
+      <c r="L77" s="243"/>
+      <c r="M77" s="243"/>
       <c r="N77" s="168"/>
       <c r="O77" s="168"/>
       <c r="P77" s="168"/>
@@ -11095,20 +11238,20 @@
       <c r="U78" s="4"/>
     </row>
     <row r="79" spans="1:31" ht="12" customHeight="1">
-      <c r="B79" s="243" t="s">
+      <c r="B79" s="244" t="s">
         <v>54</v>
       </c>
-      <c r="C79" s="243"/>
-      <c r="D79" s="243"/>
-      <c r="E79" s="243"/>
-      <c r="F79" s="243"/>
-      <c r="G79" s="243"/>
-      <c r="H79" s="243"/>
-      <c r="I79" s="243"/>
-      <c r="J79" s="243"/>
-      <c r="K79" s="243"/>
-      <c r="L79" s="243"/>
-      <c r="M79" s="243"/>
+      <c r="C79" s="244"/>
+      <c r="D79" s="244"/>
+      <c r="E79" s="244"/>
+      <c r="F79" s="244"/>
+      <c r="G79" s="244"/>
+      <c r="H79" s="244"/>
+      <c r="I79" s="244"/>
+      <c r="J79" s="244"/>
+      <c r="K79" s="244"/>
+      <c r="L79" s="244"/>
+      <c r="M79" s="244"/>
       <c r="N79" s="169"/>
       <c r="O79" s="169"/>
       <c r="P79" s="169"/>
@@ -11120,20 +11263,20 @@
     </row>
     <row r="80" spans="1:31" ht="12" customHeight="1">
       <c r="A80" s="29"/>
-      <c r="B80" s="241" t="s">
+      <c r="B80" s="242" t="s">
         <v>55</v>
       </c>
-      <c r="C80" s="241"/>
-      <c r="D80" s="241"/>
-      <c r="E80" s="241"/>
-      <c r="F80" s="241"/>
-      <c r="G80" s="241"/>
-      <c r="H80" s="241"/>
-      <c r="I80" s="241"/>
-      <c r="J80" s="241"/>
-      <c r="K80" s="241"/>
-      <c r="L80" s="241"/>
-      <c r="M80" s="241"/>
+      <c r="C80" s="242"/>
+      <c r="D80" s="242"/>
+      <c r="E80" s="242"/>
+      <c r="F80" s="242"/>
+      <c r="G80" s="242"/>
+      <c r="H80" s="242"/>
+      <c r="I80" s="242"/>
+      <c r="J80" s="242"/>
+      <c r="K80" s="242"/>
+      <c r="L80" s="242"/>
+      <c r="M80" s="242"/>
       <c r="N80" s="167"/>
       <c r="O80" s="167"/>
       <c r="P80" s="167"/>
@@ -11271,29 +11414,29 @@
     <row r="4" spans="1:18" ht="16.149999999999999" customHeight="1" thickTop="1">
       <c r="A4" s="109"/>
       <c r="B4" s="110"/>
-      <c r="C4" s="240" t="s">
+      <c r="C4" s="241" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="240"/>
-      <c r="E4" s="245"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="246"/>
       <c r="F4" s="111"/>
-      <c r="G4" s="245" t="s">
+      <c r="G4" s="246" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="245"/>
-      <c r="I4" s="245"/>
+      <c r="H4" s="246"/>
+      <c r="I4" s="246"/>
       <c r="J4" s="111"/>
-      <c r="K4" s="240" t="s">
+      <c r="K4" s="241" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="240"/>
-      <c r="M4" s="240"/>
+      <c r="L4" s="241"/>
+      <c r="M4" s="241"/>
       <c r="N4" s="111"/>
-      <c r="O4" s="240" t="s">
+      <c r="O4" s="241" t="s">
         <v>69</v>
       </c>
-      <c r="P4" s="240"/>
-      <c r="Q4" s="240"/>
+      <c r="P4" s="241"/>
+      <c r="Q4" s="241"/>
       <c r="R4" s="137"/>
     </row>
     <row r="5" spans="1:18" ht="24" customHeight="1">
@@ -13072,20 +13215,20 @@
       <c r="R44" s="135"/>
     </row>
     <row r="45" spans="1:18" ht="48" customHeight="1">
-      <c r="B45" s="242" t="s">
+      <c r="B45" s="243" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="242"/>
-      <c r="D45" s="242"/>
-      <c r="E45" s="242"/>
-      <c r="F45" s="242"/>
-      <c r="G45" s="242"/>
-      <c r="H45" s="242"/>
-      <c r="I45" s="242"/>
-      <c r="J45" s="242"/>
-      <c r="K45" s="242"/>
-      <c r="L45" s="242"/>
-      <c r="M45" s="242"/>
+      <c r="C45" s="243"/>
+      <c r="D45" s="243"/>
+      <c r="E45" s="243"/>
+      <c r="F45" s="243"/>
+      <c r="G45" s="243"/>
+      <c r="H45" s="243"/>
+      <c r="I45" s="243"/>
+      <c r="J45" s="243"/>
+      <c r="K45" s="243"/>
+      <c r="L45" s="243"/>
+      <c r="M45" s="243"/>
       <c r="N45" s="120"/>
       <c r="O45" s="168"/>
       <c r="P45" s="168"/>
@@ -13093,20 +13236,20 @@
       <c r="R45" s="99"/>
     </row>
     <row r="46" spans="1:18" ht="12" customHeight="1">
-      <c r="B46" s="243" t="s">
+      <c r="B46" s="244" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="243"/>
-      <c r="D46" s="243"/>
-      <c r="E46" s="243"/>
-      <c r="F46" s="243"/>
-      <c r="G46" s="243"/>
-      <c r="H46" s="243"/>
-      <c r="I46" s="243"/>
-      <c r="J46" s="243"/>
-      <c r="K46" s="243"/>
-      <c r="L46" s="243"/>
-      <c r="M46" s="243"/>
+      <c r="C46" s="244"/>
+      <c r="D46" s="244"/>
+      <c r="E46" s="244"/>
+      <c r="F46" s="244"/>
+      <c r="G46" s="244"/>
+      <c r="H46" s="244"/>
+      <c r="I46" s="244"/>
+      <c r="J46" s="244"/>
+      <c r="K46" s="244"/>
+      <c r="L46" s="244"/>
+      <c r="M46" s="244"/>
       <c r="N46" s="120"/>
       <c r="O46" s="169"/>
       <c r="P46" s="169"/>
@@ -13114,20 +13257,20 @@
       <c r="R46" s="4"/>
     </row>
     <row r="47" spans="1:18" ht="24" customHeight="1">
-      <c r="B47" s="242" t="s">
+      <c r="B47" s="243" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="242"/>
-      <c r="D47" s="242"/>
-      <c r="E47" s="242"/>
-      <c r="F47" s="242"/>
-      <c r="G47" s="242"/>
-      <c r="H47" s="242"/>
-      <c r="I47" s="242"/>
-      <c r="J47" s="242"/>
-      <c r="K47" s="242"/>
-      <c r="L47" s="242"/>
-      <c r="M47" s="242"/>
+      <c r="C47" s="243"/>
+      <c r="D47" s="243"/>
+      <c r="E47" s="243"/>
+      <c r="F47" s="243"/>
+      <c r="G47" s="243"/>
+      <c r="H47" s="243"/>
+      <c r="I47" s="243"/>
+      <c r="J47" s="243"/>
+      <c r="K47" s="243"/>
+      <c r="L47" s="243"/>
+      <c r="M47" s="243"/>
       <c r="N47" s="120"/>
       <c r="O47" s="168"/>
       <c r="P47" s="168"/>
@@ -13155,20 +13298,20 @@
       <c r="R48"/>
     </row>
     <row r="49" spans="1:18" ht="24" customHeight="1">
-      <c r="B49" s="242" t="s">
+      <c r="B49" s="243" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="242"/>
-      <c r="D49" s="242"/>
-      <c r="E49" s="242"/>
-      <c r="F49" s="242"/>
-      <c r="G49" s="242"/>
-      <c r="H49" s="242"/>
-      <c r="I49" s="242"/>
-      <c r="J49" s="242"/>
-      <c r="K49" s="242"/>
-      <c r="L49" s="242"/>
-      <c r="M49" s="242"/>
+      <c r="C49" s="243"/>
+      <c r="D49" s="243"/>
+      <c r="E49" s="243"/>
+      <c r="F49" s="243"/>
+      <c r="G49" s="243"/>
+      <c r="H49" s="243"/>
+      <c r="I49" s="243"/>
+      <c r="J49" s="243"/>
+      <c r="K49" s="243"/>
+      <c r="L49" s="243"/>
+      <c r="M49" s="243"/>
       <c r="N49" s="120"/>
       <c r="O49" s="168"/>
       <c r="P49" s="168"/>
@@ -13195,20 +13338,20 @@
       <c r="R50" s="22"/>
     </row>
     <row r="51" spans="1:18" ht="12" customHeight="1">
-      <c r="B51" s="243" t="s">
+      <c r="B51" s="244" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="243"/>
-      <c r="D51" s="243"/>
-      <c r="E51" s="243"/>
-      <c r="F51" s="243"/>
-      <c r="G51" s="243"/>
-      <c r="H51" s="243"/>
-      <c r="I51" s="243"/>
-      <c r="J51" s="243"/>
-      <c r="K51" s="243"/>
-      <c r="L51" s="243"/>
-      <c r="M51" s="243"/>
+      <c r="C51" s="244"/>
+      <c r="D51" s="244"/>
+      <c r="E51" s="244"/>
+      <c r="F51" s="244"/>
+      <c r="G51" s="244"/>
+      <c r="H51" s="244"/>
+      <c r="I51" s="244"/>
+      <c r="J51" s="244"/>
+      <c r="K51" s="244"/>
+      <c r="L51" s="244"/>
+      <c r="M51" s="244"/>
       <c r="N51" s="120"/>
       <c r="O51" s="169"/>
       <c r="P51" s="169"/>
@@ -13216,20 +13359,20 @@
       <c r="R51" s="4"/>
     </row>
     <row r="52" spans="1:18" ht="12" customHeight="1">
-      <c r="B52" s="241" t="s">
+      <c r="B52" s="242" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="241"/>
-      <c r="D52" s="241"/>
-      <c r="E52" s="241"/>
-      <c r="F52" s="241"/>
-      <c r="G52" s="241"/>
-      <c r="H52" s="241"/>
-      <c r="I52" s="241"/>
-      <c r="J52" s="241"/>
-      <c r="K52" s="241"/>
-      <c r="L52" s="241"/>
-      <c r="M52" s="241"/>
+      <c r="C52" s="242"/>
+      <c r="D52" s="242"/>
+      <c r="E52" s="242"/>
+      <c r="F52" s="242"/>
+      <c r="G52" s="242"/>
+      <c r="H52" s="242"/>
+      <c r="I52" s="242"/>
+      <c r="J52" s="242"/>
+      <c r="K52" s="242"/>
+      <c r="L52" s="242"/>
+      <c r="M52" s="242"/>
       <c r="N52" s="120"/>
       <c r="O52" s="167"/>
       <c r="P52" s="167"/>
@@ -13375,21 +13518,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33.75" customHeight="1">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="247" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
-      <c r="F1" s="247"/>
-      <c r="G1" s="247"/>
-      <c r="H1" s="247"/>
-      <c r="I1" s="247"/>
-      <c r="J1" s="247"/>
-      <c r="K1" s="247"/>
-      <c r="L1" s="247"/>
-      <c r="M1" s="247"/>
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="248"/>
+      <c r="G1" s="248"/>
+      <c r="H1" s="248"/>
+      <c r="I1" s="248"/>
+      <c r="J1" s="248"/>
+      <c r="K1" s="248"/>
+      <c r="L1" s="248"/>
+      <c r="M1" s="248"/>
     </row>
     <row r="2" spans="1:25" ht="6.75" customHeight="1">
       <c r="A2" s="61"/>
@@ -13420,23 +13563,23 @@
     </row>
     <row r="4" spans="1:25" s="37" customFormat="1" ht="14.25" thickTop="1">
       <c r="B4" s="66"/>
-      <c r="C4" s="248" t="s">
+      <c r="C4" s="249" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="248"/>
-      <c r="E4" s="249"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="250"/>
       <c r="F4" s="67"/>
-      <c r="G4" s="249" t="s">
+      <c r="G4" s="250" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="249"/>
-      <c r="I4" s="249"/>
+      <c r="H4" s="250"/>
+      <c r="I4" s="250"/>
       <c r="J4" s="67"/>
-      <c r="K4" s="248" t="s">
+      <c r="K4" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="248"/>
-      <c r="M4" s="248"/>
+      <c r="L4" s="249"/>
+      <c r="M4" s="249"/>
     </row>
     <row r="5" spans="1:25" s="37" customFormat="1" ht="36">
       <c r="A5" s="68"/>
@@ -15039,21 +15182,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="32.25" customHeight="1">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="238" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="239"/>
+      <c r="L1" s="239"/>
+      <c r="M1" s="239"/>
     </row>
     <row r="2" spans="1:28" ht="15">
       <c r="A2" s="15"/>
@@ -15072,23 +15215,23 @@
     </row>
     <row r="4" spans="1:28" s="4" customFormat="1" thickTop="1">
       <c r="B4" s="13"/>
-      <c r="C4" s="236" t="s">
+      <c r="C4" s="237" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="236"/>
-      <c r="E4" s="235"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="236"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="235" t="s">
+      <c r="G4" s="236" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="235"/>
-      <c r="I4" s="235"/>
+      <c r="H4" s="236"/>
+      <c r="I4" s="236"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="236" t="s">
+      <c r="K4" s="237" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="236"/>
-      <c r="M4" s="236"/>
+      <c r="L4" s="237"/>
+      <c r="M4" s="237"/>
       <c r="N4" s="51"/>
       <c r="O4" s="51"/>
       <c r="P4" s="51"/>
@@ -16444,21 +16587,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="23.25" customHeight="1">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="238" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="239"/>
+      <c r="L1" s="239"/>
+      <c r="M1" s="239"/>
       <c r="N1" s="164"/>
       <c r="O1" s="164"/>
       <c r="P1" s="164"/>
@@ -16494,51 +16637,51 @@
     </row>
     <row r="4" spans="1:34" s="4" customFormat="1" ht="14.25" thickTop="1">
       <c r="B4" s="13"/>
-      <c r="C4" s="236" t="s">
+      <c r="C4" s="237" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="236"/>
-      <c r="E4" s="235"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="236"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="235" t="s">
+      <c r="G4" s="236" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="235"/>
-      <c r="I4" s="235"/>
+      <c r="H4" s="236"/>
+      <c r="I4" s="236"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="236" t="s">
+      <c r="K4" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="236"/>
-      <c r="M4" s="236"/>
+      <c r="L4" s="237"/>
+      <c r="M4" s="237"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="236" t="s">
+      <c r="O4" s="237" t="s">
         <v>69</v>
       </c>
-      <c r="P4" s="236"/>
-      <c r="Q4" s="236"/>
-      <c r="T4" s="236" t="s">
+      <c r="P4" s="237"/>
+      <c r="Q4" s="237"/>
+      <c r="T4" s="237" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="236"/>
-      <c r="V4" s="235"/>
+      <c r="U4" s="237"/>
+      <c r="V4" s="236"/>
       <c r="W4" s="5"/>
-      <c r="X4" s="235" t="s">
+      <c r="X4" s="236" t="s">
         <v>12</v>
       </c>
-      <c r="Y4" s="235"/>
-      <c r="Z4" s="235"/>
+      <c r="Y4" s="236"/>
+      <c r="Z4" s="236"/>
       <c r="AA4" s="5"/>
-      <c r="AB4" s="236" t="s">
+      <c r="AB4" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="AC4" s="236"/>
-      <c r="AD4" s="236"/>
-      <c r="AF4" s="236" t="s">
+      <c r="AC4" s="237"/>
+      <c r="AD4" s="237"/>
+      <c r="AF4" s="237" t="s">
         <v>69</v>
       </c>
-      <c r="AG4" s="236"/>
-      <c r="AH4" s="236"/>
+      <c r="AG4" s="237"/>
+      <c r="AH4" s="237"/>
     </row>
     <row r="5" spans="1:34" s="4" customFormat="1" ht="24">
       <c r="B5" s="9"/>
@@ -21694,7 +21837,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A14"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="12.75"/>
@@ -22039,7 +22182,7 @@
       <c r="N12" s="152"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="251">
+      <c r="A13" s="192">
         <v>2021</v>
       </c>
       <c r="B13" s="120">
@@ -22080,44 +22223,44 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="252">
+      <c r="A14" s="235">
         <v>2022</v>
       </c>
-      <c r="B14" s="250">
-        <v>1320</v>
-      </c>
-      <c r="C14" s="250">
-        <v>1332</v>
-      </c>
-      <c r="D14" s="250">
-        <v>1099</v>
-      </c>
-      <c r="E14" s="250">
-        <v>1199</v>
-      </c>
-      <c r="F14" s="250">
-        <v>1188</v>
-      </c>
-      <c r="G14" s="250">
-        <v>1039</v>
-      </c>
-      <c r="H14" s="250">
-        <v>1235</v>
-      </c>
-      <c r="I14" s="250">
-        <v>1245</v>
-      </c>
-      <c r="J14" s="250">
-        <v>1055</v>
-      </c>
-      <c r="K14" s="250">
-        <v>1225</v>
-      </c>
-      <c r="L14" s="250">
-        <v>1222</v>
-      </c>
-      <c r="M14" s="250">
-        <v>1054</v>
+      <c r="B14" s="120">
+        <v>1499</v>
+      </c>
+      <c r="C14" s="120">
+        <v>1548</v>
+      </c>
+      <c r="D14" s="120">
+        <v>996</v>
+      </c>
+      <c r="E14" s="120">
+        <v>1410</v>
+      </c>
+      <c r="F14" s="120">
+        <v>1417</v>
+      </c>
+      <c r="G14" s="120">
+        <v>947</v>
+      </c>
+      <c r="H14" s="120">
+        <v>1405</v>
+      </c>
+      <c r="I14" s="120">
+        <v>1430</v>
+      </c>
+      <c r="J14" s="120">
+        <v>1080</v>
+      </c>
+      <c r="K14" s="120">
+        <v>1426</v>
+      </c>
+      <c r="L14" s="120">
+        <v>1453</v>
+      </c>
+      <c r="M14" s="120">
+        <v>1012</v>
       </c>
     </row>
   </sheetData>
@@ -23945,11 +24088,11 @@
       <c r="Q16" s="182"/>
     </row>
     <row r="17" spans="1:17" s="181" customFormat="1" ht="30.4" customHeight="1">
-      <c r="A17" s="239" t="s">
+      <c r="A17" s="240" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="239"/>
-      <c r="C17" s="239"/>
+      <c r="B17" s="240"/>
+      <c r="C17" s="240"/>
       <c r="D17" s="180"/>
       <c r="E17" s="180"/>
       <c r="F17" s="180"/>
